--- a/Data/Quality_LoVo_15_.xlsx
+++ b/Data/Quality_LoVo_15_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9016839078072892</v>
       </c>
       <c r="D2">
-        <v>0.5254785218592481</v>
+        <v>0.6041890491835105</v>
       </c>
       <c r="E2">
         <v>0.2717485426806444</v>
@@ -459,7 +459,7 @@
         <v>0.8586306590778575</v>
       </c>
       <c r="D3">
-        <v>0.3603207682385383</v>
+        <v>0.5505726129095866</v>
       </c>
       <c r="E3">
         <v>0.3258611128314207</v>
@@ -482,7 +482,7 @@
         <v>0.8507616870909666</v>
       </c>
       <c r="D4">
-        <v>0.2914697716180404</v>
+        <v>0.5411154872523343</v>
       </c>
       <c r="E4">
         <v>0.3348074283529229</v>
@@ -505,7 +505,7 @@
         <v>0.8021032012299402</v>
       </c>
       <c r="D5">
-        <v>0.207531703064503</v>
+        <v>0.4826929989884309</v>
       </c>
       <c r="E5">
         <v>0.3855443154520293</v>
@@ -528,7 +528,7 @@
         <v>0.7270691000098122</v>
       </c>
       <c r="D6">
-        <v>0.2512969476559102</v>
+        <v>0.5510068580086418</v>
       </c>
       <c r="E6">
         <v>0.4527737844644285</v>
@@ -551,7 +551,7 @@
         <v>0.6887206956080851</v>
       </c>
       <c r="D7">
-        <v>0.3591525290619461</v>
+        <v>0.6627089867220832</v>
       </c>
       <c r="E7">
         <v>0.4835373692453482</v>
@@ -574,7 +574,7 @@
         <v>0.6591700368591589</v>
       </c>
       <c r="D8">
-        <v>0.292971898702837</v>
+        <v>0.6595923906030562</v>
       </c>
       <c r="E8">
         <v>0.5059688769975382</v>
@@ -597,7 +597,7 @@
         <v>0.6473601466571757</v>
       </c>
       <c r="D9">
-        <v>0.2393362178673067</v>
+        <v>0.6309942138540585</v>
       </c>
       <c r="E9">
         <v>0.5146602371497454</v>
@@ -620,7 +620,7 @@
         <v>0.6473153974222959</v>
       </c>
       <c r="D10">
-        <v>0.233336118184914</v>
+        <v>0.6298067032498325</v>
       </c>
       <c r="E10">
         <v>0.5146928907494854</v>
@@ -643,7 +643,7 @@
         <v>0.6052247170212518</v>
       </c>
       <c r="D11">
-        <v>-0.09752287270691529</v>
+        <v>0.5671520213099779</v>
       </c>
       <c r="E11">
         <v>0.5445401371959553</v>
@@ -666,7 +666,7 @@
         <v>0.6052020947119647</v>
       </c>
       <c r="D12">
-        <v>-0.1027715506180464</v>
+        <v>0.5666819627039046</v>
       </c>
       <c r="E12">
         <v>0.5445557392098853</v>
@@ -689,7 +689,7 @@
         <v>0.6052020947119647</v>
       </c>
       <c r="D13">
-        <v>-0.1027715506180464</v>
+        <v>0.5666819627039046</v>
       </c>
       <c r="E13">
         <v>0.5445557392098853</v>
@@ -712,7 +712,7 @@
         <v>0.5832930793244027</v>
       </c>
       <c r="D14">
-        <v>-0.08035684945482946</v>
+        <v>0.5766432608215074</v>
       </c>
       <c r="E14">
         <v>0.5594615913486072</v>
@@ -735,7 +735,7 @@
         <v>0.5491921650809668</v>
       </c>
       <c r="D15">
-        <v>0.05071689453088835</v>
+        <v>0.5978568333380498</v>
       </c>
       <c r="E15">
         <v>0.581903068538337</v>
@@ -758,7 +758,7 @@
         <v>0.4841575313877599</v>
       </c>
       <c r="D16">
-        <v>-0.1903729364104545</v>
+        <v>0.5829950206857459</v>
       </c>
       <c r="E16">
         <v>0.6224628928452151</v>
@@ -781,7 +781,7 @@
         <v>0.4715815517146623</v>
       </c>
       <c r="D17">
-        <v>-0.1042253257791719</v>
+        <v>0.5944384648701662</v>
       </c>
       <c r="E17">
         <v>0.6300048682238608</v>
@@ -804,7 +804,7 @@
         <v>0.4715701900042242</v>
       </c>
       <c r="D18">
-        <v>-0.1091438960900648</v>
+        <v>0.5938815939305324</v>
       </c>
       <c r="E18">
         <v>0.6300116411653003</v>
@@ -827,7 +827,7 @@
         <v>0.4715701900042242</v>
       </c>
       <c r="D19">
-        <v>-0.1091438960900648</v>
+        <v>0.5938815939305324</v>
       </c>
       <c r="E19">
         <v>0.6300116411653003</v>
@@ -850,7 +850,7 @@
         <v>0.4485662285065233</v>
       </c>
       <c r="D20">
-        <v>-0.06115822057692366</v>
+        <v>0.5759394635376271</v>
       </c>
       <c r="E20">
         <v>0.6435786074645311</v>
@@ -873,7 +873,7 @@
         <v>0.4485662285065233</v>
       </c>
       <c r="D21">
-        <v>-0.06115822057692366</v>
+        <v>0.5759394635376271</v>
       </c>
       <c r="E21">
         <v>0.6435786074645311</v>
@@ -896,7 +896,7 @@
         <v>0.4393441148756598</v>
       </c>
       <c r="D22">
-        <v>-0.3246469040721116</v>
+        <v>0.5262308714978352</v>
       </c>
       <c r="E22">
         <v>0.6489378600169965</v>
@@ -919,7 +919,7 @@
         <v>0.4393441148756598</v>
       </c>
       <c r="D23">
-        <v>-0.3246469040721116</v>
+        <v>0.5262308714978352</v>
       </c>
       <c r="E23">
         <v>0.6489378600169965</v>
@@ -978,7 +978,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D2">
-        <v>-0.1487922002875577</v>
+        <v>0.4755111072690434</v>
       </c>
       <c r="E2">
         <v>0.518550262510222</v>
@@ -1004,7 +1004,7 @@
         <v>0.7869111777284128</v>
       </c>
       <c r="D3">
-        <v>0.2200257952545189</v>
+        <v>0.4884512649298302</v>
       </c>
       <c r="E3">
         <v>0.4000693256883591</v>
@@ -1030,7 +1030,7 @@
         <v>0.8309441369384027</v>
       </c>
       <c r="D4">
-        <v>0.1648205658060653</v>
+        <v>0.4583772739854541</v>
       </c>
       <c r="E4">
         <v>0.3563444821295178</v>
@@ -1056,7 +1056,7 @@
         <v>0.8622148513182929</v>
       </c>
       <c r="D5">
-        <v>0.3473559557453938</v>
+        <v>0.5049921315737724</v>
       </c>
       <c r="E5">
         <v>0.3217037506747276</v>
@@ -1082,7 +1082,7 @@
         <v>0.8905221294370307</v>
       </c>
       <c r="D6">
-        <v>0.02660397414241811</v>
+        <v>0.2873487579041549</v>
       </c>
       <c r="E6">
         <v>0.286759682186186</v>
@@ -1108,7 +1108,7 @@
         <v>0.9281732590158758</v>
       </c>
       <c r="D7">
-        <v>0.3542292091729681</v>
+        <v>0.5339166609695312</v>
       </c>
       <c r="E7">
         <v>0.23227261020841</v>
@@ -1134,7 +1134,7 @@
         <v>0.947774015080738</v>
       </c>
       <c r="D8">
-        <v>0.4050986344726176</v>
+        <v>0.5549838340830218</v>
       </c>
       <c r="E8">
         <v>0.1980606678691843</v>
@@ -1160,7 +1160,7 @@
         <v>0.9677345157942867</v>
       </c>
       <c r="D9">
-        <v>0.3596844354161034</v>
+        <v>0.5541779114248708</v>
       </c>
       <c r="E9">
         <v>0.155676842017873</v>
@@ -1186,7 +1186,7 @@
         <v>0.9781212651196096</v>
       </c>
       <c r="D10">
-        <v>0.4088803506489681</v>
+        <v>0.5563583125681284</v>
       </c>
       <c r="E10">
         <v>0.1281935051648973</v>
@@ -1212,7 +1212,7 @@
         <v>0.9857329783728325</v>
       </c>
       <c r="D11">
-        <v>0.4636690212295224</v>
+        <v>0.5720931398335453</v>
       </c>
       <c r="E11">
         <v>0.1035193602680872</v>
@@ -1238,7 +1238,7 @@
         <v>0.9908043123920153</v>
       </c>
       <c r="D12">
-        <v>0.4357643877135492</v>
+        <v>0.5695982735835735</v>
       </c>
       <c r="E12">
         <v>0.08310880242001506</v>
@@ -1264,7 +1264,7 @@
         <v>0.9939753463805829</v>
       </c>
       <c r="D13">
-        <v>0.413448177131489</v>
+        <v>0.5630863199212772</v>
       </c>
       <c r="E13">
         <v>0.06726992771717165</v>
@@ -1290,7 +1290,7 @@
         <v>0.9961624918485705</v>
       </c>
       <c r="D14">
-        <v>0.4150676617801247</v>
+        <v>0.5673985830169961</v>
       </c>
       <c r="E14">
         <v>0.05368829043184964</v>
@@ -1316,7 +1316,7 @@
         <v>0.9970430544445796</v>
       </c>
       <c r="D15">
-        <v>0.4246003318533366</v>
+        <v>0.5700504674291992</v>
       </c>
       <c r="E15">
         <v>0.04712773674441063</v>
@@ -1342,7 +1342,7 @@
         <v>0.997705719077027</v>
       </c>
       <c r="D16">
-        <v>0.420233156662699</v>
+        <v>0.5711401037679792</v>
       </c>
       <c r="E16">
         <v>0.04151243577096295</v>
@@ -1368,7 +1368,7 @@
         <v>0.9983787022789805</v>
       </c>
       <c r="D17">
-        <v>0.4206248430072742</v>
+        <v>0.568894682952042</v>
       </c>
       <c r="E17">
         <v>0.03489685635609984</v>
@@ -1394,7 +1394,7 @@
         <v>0.9989161131222927</v>
       </c>
       <c r="D18">
-        <v>0.4232285316898127</v>
+        <v>0.5717315737760162</v>
       </c>
       <c r="E18">
         <v>0.02853296468677686</v>
@@ -1420,7 +1420,7 @@
         <v>0.9991556243403276</v>
       </c>
       <c r="D19">
-        <v>0.4272236886540166</v>
+        <v>0.5723784555065514</v>
       </c>
       <c r="E19">
         <v>0.02518388760889691</v>
@@ -1446,7 +1446,7 @@
         <v>0.9992244352813723</v>
       </c>
       <c r="D20">
-        <v>0.4259943864355081</v>
+        <v>0.5721977839265444</v>
       </c>
       <c r="E20">
         <v>0.02413592467614002</v>
@@ -1472,7 +1472,7 @@
         <v>0.9992345523827513</v>
       </c>
       <c r="D21">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E21">
         <v>0.02397798352245212</v>
@@ -1498,7 +1498,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D22">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E22">
         <v>0.02397438301374079</v>
@@ -1524,7 +1524,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D23">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E23">
         <v>0.02397438301374079</v>
@@ -1550,7 +1550,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D24">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E24">
         <v>0.02397438301374079</v>
@@ -1576,7 +1576,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D25">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E25">
         <v>0.02397438301374079</v>
@@ -1602,7 +1602,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D26">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E26">
         <v>0.02397438301374079</v>
@@ -1628,7 +1628,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D27">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E27">
         <v>0.02397438301374079</v>
@@ -1654,7 +1654,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D28">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E28">
         <v>0.02397438301374079</v>
@@ -1680,7 +1680,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D29">
-        <v>0.4274949971412348</v>
+        <v>0.5702395432942153</v>
       </c>
       <c r="E29">
         <v>0.02397438301374079</v>
@@ -1706,7 +1706,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D30">
-        <v>-0.1487922002875566</v>
+        <v>0.4755111072690434</v>
       </c>
       <c r="E30">
         <v>0.5185502625102221</v>
@@ -1732,7 +1732,7 @@
         <v>0.7869111777284128</v>
       </c>
       <c r="D31">
-        <v>0.4045625282701435</v>
+        <v>0.5783988198847942</v>
       </c>
       <c r="E31">
         <v>0.4000693256883591</v>
@@ -1758,7 +1758,7 @@
         <v>0.8309441369384027</v>
       </c>
       <c r="D32">
-        <v>0.2657845436319684</v>
+        <v>0.5354870830078982</v>
       </c>
       <c r="E32">
         <v>0.3563444821295179</v>
@@ -1784,7 +1784,7 @@
         <v>0.8622148513182929</v>
       </c>
       <c r="D33">
-        <v>0.369557729783905</v>
+        <v>0.511448588028972</v>
       </c>
       <c r="E33">
         <v>0.3217037506747276</v>
@@ -1810,7 +1810,7 @@
         <v>0.8888732612758653</v>
       </c>
       <c r="D34">
-        <v>-0.06904325309512727</v>
+        <v>0.2846885289117476</v>
       </c>
       <c r="E34">
         <v>0.288911084322736</v>
@@ -1836,7 +1836,7 @@
         <v>0.918551458327997</v>
       </c>
       <c r="D35">
-        <v>0.2312976637819333</v>
+        <v>0.454224184137207</v>
       </c>
       <c r="E35">
         <v>0.2473412641019973</v>
@@ -1862,7 +1862,7 @@
         <v>0.9532058371640554</v>
       </c>
       <c r="D36">
-        <v>0.07724176636130886</v>
+        <v>0.4351552107460023</v>
       </c>
       <c r="E36">
         <v>0.187478193749039</v>
@@ -1888,7 +1888,7 @@
         <v>0.9829808664644165</v>
       </c>
       <c r="D37">
-        <v>0.147986726486023</v>
+        <v>0.4570938234666627</v>
       </c>
       <c r="E37">
         <v>0.1130638168919796</v>
@@ -1914,7 +1914,7 @@
         <v>0.9941527753191302</v>
       </c>
       <c r="D38">
-        <v>0.1586077211705087</v>
+        <v>0.431745006407022</v>
       </c>
       <c r="E38">
         <v>0.06627195932849224</v>
@@ -1940,7 +1940,7 @@
         <v>0.9982840271263277</v>
       </c>
       <c r="D39">
-        <v>0.1675958556000207</v>
+        <v>0.4389442904881364</v>
       </c>
       <c r="E39">
         <v>0.03590129619175046</v>
@@ -1966,7 +1966,7 @@
         <v>0.9990587160010822</v>
       </c>
       <c r="D40">
-        <v>0.1698084184516931</v>
+        <v>0.4339060447349394</v>
       </c>
       <c r="E40">
         <v>0.02658981144918263</v>
@@ -1992,7 +1992,7 @@
         <v>0.9992152579845206</v>
       </c>
       <c r="D41">
-        <v>0.2342486471025148</v>
+        <v>0.4089734065437947</v>
       </c>
       <c r="E41">
         <v>0.02427830552841</v>
@@ -2018,7 +2018,7 @@
         <v>0.9992341112712183</v>
       </c>
       <c r="D42">
-        <v>0.1137418195289042</v>
+        <v>0.4090344452231485</v>
       </c>
       <c r="E42">
         <v>0.02398489153382205</v>
@@ -2044,7 +2044,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D43">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E43">
         <v>0.02397438301374079</v>
@@ -2070,7 +2070,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D44">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E44">
         <v>0.02397438301374079</v>
@@ -2096,7 +2096,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D45">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E45">
         <v>0.02397438301374079</v>
@@ -2122,7 +2122,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D46">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E46">
         <v>0.02397438301374079</v>
@@ -2148,7 +2148,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D47">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E47">
         <v>0.02397438301374079</v>
@@ -2174,7 +2174,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D48">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E48">
         <v>0.02397438301374079</v>
@@ -2200,7 +2200,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D49">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E49">
         <v>0.02397438301374079</v>
@@ -2226,7 +2226,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D50">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E50">
         <v>0.02397438301374079</v>
@@ -2252,7 +2252,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D51">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E51">
         <v>0.02397438301374079</v>
@@ -2278,7 +2278,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D52">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E52">
         <v>0.02397438301374079</v>
@@ -2304,7 +2304,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D53">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E53">
         <v>0.02397438301374079</v>
@@ -2330,7 +2330,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D54">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E54">
         <v>0.02397438301374079</v>
@@ -2356,7 +2356,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D55">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E55">
         <v>0.02397438301374079</v>
@@ -2382,7 +2382,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D56">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E56">
         <v>0.02397438301374079</v>
@@ -2408,7 +2408,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D57">
-        <v>0.2071475535628747</v>
+        <v>0.4440753190258724</v>
       </c>
       <c r="E57">
         <v>0.02397438301374079</v>
@@ -2434,7 +2434,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D58">
-        <v>-0.148792200287559</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E58">
         <v>0.5185502625102221</v>
@@ -2460,7 +2460,7 @@
         <v>0.7869111777284128</v>
       </c>
       <c r="D59">
-        <v>0.4045625282701465</v>
+        <v>0.5783988198847945</v>
       </c>
       <c r="E59">
         <v>0.4000693256883591</v>
@@ -2486,7 +2486,7 @@
         <v>0.8309441369384027</v>
       </c>
       <c r="D60">
-        <v>0.1648205658060694</v>
+        <v>0.4583772739854541</v>
       </c>
       <c r="E60">
         <v>0.3563444821295179</v>
@@ -2512,7 +2512,7 @@
         <v>0.8622148513182929</v>
       </c>
       <c r="D61">
-        <v>-0.02918705970137858</v>
+        <v>0.3361552357159776</v>
       </c>
       <c r="E61">
         <v>0.3217037506747276</v>
@@ -2538,7 +2538,7 @@
         <v>0.8884327424037243</v>
       </c>
       <c r="D62">
-        <v>0.3253036595626334</v>
+        <v>0.4479285730329005</v>
       </c>
       <c r="E62">
         <v>0.2894831559363298</v>
@@ -2564,7 +2564,7 @@
         <v>0.9184097292907536</v>
       </c>
       <c r="D63">
-        <v>-0.0235695093491497</v>
+        <v>0.2724848041724423</v>
       </c>
       <c r="E63">
         <v>0.2475563704852895</v>
@@ -2590,7 +2590,7 @@
         <v>0.953243137068075</v>
       </c>
       <c r="D64">
-        <v>-0.03565525032418382</v>
+        <v>0.2888631026936823</v>
       </c>
       <c r="E64">
         <v>0.1874034588645086</v>
@@ -2616,7 +2616,7 @@
         <v>0.9829906050519344</v>
       </c>
       <c r="D65">
-        <v>0.02673647520648115</v>
+        <v>0.2827943436552801</v>
       </c>
       <c r="E65">
         <v>0.1130314639101925</v>
@@ -2642,7 +2642,7 @@
         <v>0.9941527753191302</v>
       </c>
       <c r="D66">
-        <v>0.001926992953455775</v>
+        <v>0.2891586015902514</v>
       </c>
       <c r="E66">
         <v>0.06627195932849222</v>
@@ -2668,7 +2668,7 @@
         <v>0.9982840271263277</v>
       </c>
       <c r="D67">
-        <v>-0.06018105107779181</v>
+        <v>0.2699465472443506</v>
       </c>
       <c r="E67">
         <v>0.03590129619175046</v>
@@ -2694,7 +2694,7 @@
         <v>0.9990587160010822</v>
       </c>
       <c r="D68">
-        <v>-0.03629102308165888</v>
+        <v>0.2899566193275366</v>
       </c>
       <c r="E68">
         <v>0.02658981144918263</v>
@@ -2720,7 +2720,7 @@
         <v>0.9992152579845206</v>
       </c>
       <c r="D69">
-        <v>-0.05135742239498087</v>
+        <v>0.2578014391229586</v>
       </c>
       <c r="E69">
         <v>0.02427830552841</v>
@@ -2746,7 +2746,7 @@
         <v>0.9992341112712183</v>
       </c>
       <c r="D70">
-        <v>0.06206513704415628</v>
+        <v>0.2707517492358903</v>
       </c>
       <c r="E70">
         <v>0.02398489153382205</v>
@@ -2772,7 +2772,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D71">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E71">
         <v>0.02397438301374079</v>
@@ -2798,7 +2798,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D72">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E72">
         <v>0.02397438301374079</v>
@@ -2824,7 +2824,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D73">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E73">
         <v>0.02397438301374079</v>
@@ -2850,7 +2850,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D74">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E74">
         <v>0.02397438301374079</v>
@@ -2876,7 +2876,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D75">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E75">
         <v>0.02397438301374079</v>
@@ -2902,7 +2902,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D76">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E76">
         <v>0.02397438301374079</v>
@@ -2928,7 +2928,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D77">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E77">
         <v>0.02397438301374079</v>
@@ -2954,7 +2954,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D78">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E78">
         <v>0.02397438301374079</v>
@@ -2980,7 +2980,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D79">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E79">
         <v>0.02397438301374079</v>
@@ -3006,7 +3006,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D80">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E80">
         <v>0.02397438301374079</v>
@@ -3032,7 +3032,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D81">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E81">
         <v>0.02397438301374079</v>
@@ -3058,7 +3058,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D82">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E82">
         <v>0.02397438301374079</v>
@@ -3084,7 +3084,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D83">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E83">
         <v>0.02397438301374079</v>
@@ -3110,7 +3110,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D84">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E84">
         <v>0.02397438301374079</v>
@@ -3136,7 +3136,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D85">
-        <v>0.1106726372552107</v>
+        <v>0.3073311392116624</v>
       </c>
       <c r="E85">
         <v>0.02397438301374079</v>
@@ -3162,7 +3162,7 @@
         <v>0.6420091903572321</v>
       </c>
       <c r="D86">
-        <v>-0.148792200287555</v>
+        <v>0.4755111072690436</v>
       </c>
       <c r="E86">
         <v>0.518550262510222</v>
@@ -3188,7 +3188,7 @@
         <v>0.7869111777284129</v>
       </c>
       <c r="D87">
-        <v>0.2200257952545198</v>
+        <v>0.4884512649298303</v>
       </c>
       <c r="E87">
         <v>0.400069325688359</v>
@@ -3214,7 +3214,7 @@
         <v>0.8295663381593104</v>
       </c>
       <c r="D88">
-        <v>0.4124383847694651</v>
+        <v>0.5571498307074316</v>
       </c>
       <c r="E88">
         <v>0.3577936324003868</v>
@@ -3240,7 +3240,7 @@
         <v>0.8620825405532171</v>
       </c>
       <c r="D89">
-        <v>0.3560258890703319</v>
+        <v>0.5121592480179762</v>
       </c>
       <c r="E89">
         <v>0.3218581746321063</v>
@@ -3266,7 +3266,7 @@
         <v>0.8884205263547756</v>
       </c>
       <c r="D90">
-        <v>0.3463542235742523</v>
+        <v>0.4491215011675872</v>
       </c>
       <c r="E90">
         <v>0.2894990039713239</v>
@@ -3292,7 +3292,7 @@
         <v>0.9184097292907536</v>
       </c>
       <c r="D91">
-        <v>0.3309527894268367</v>
+        <v>0.452403364845739</v>
       </c>
       <c r="E91">
         <v>0.2475563704852895</v>
@@ -3318,7 +3318,7 @@
         <v>0.953243137068075</v>
       </c>
       <c r="D92">
-        <v>0.2791950158995008</v>
+        <v>0.4684445868138042</v>
       </c>
       <c r="E92">
         <v>0.1874034588645086</v>
@@ -3344,7 +3344,7 @@
         <v>0.9829906050519344</v>
       </c>
       <c r="D93">
-        <v>0.3485596831931553</v>
+        <v>0.4232360444348137</v>
       </c>
       <c r="E93">
         <v>0.1130314639101926</v>
@@ -3370,7 +3370,7 @@
         <v>0.9941527753191302</v>
       </c>
       <c r="D94">
-        <v>0.3295862889006244</v>
+        <v>0.4646947900652725</v>
       </c>
       <c r="E94">
         <v>0.06627195932849222</v>
@@ -3396,7 +3396,7 @@
         <v>0.9982840271263277</v>
       </c>
       <c r="D95">
-        <v>0.3658164119606331</v>
+        <v>0.4248156472802707</v>
       </c>
       <c r="E95">
         <v>0.03590129619175046</v>
@@ -3422,7 +3422,7 @@
         <v>0.9990587160010822</v>
       </c>
       <c r="D96">
-        <v>0.3697976528921922</v>
+        <v>0.4253992969623402</v>
       </c>
       <c r="E96">
         <v>0.02658981144918263</v>
@@ -3448,7 +3448,7 @@
         <v>0.9992152579845206</v>
       </c>
       <c r="D97">
-        <v>0.3611977322662265</v>
+        <v>0.4328108591678523</v>
       </c>
       <c r="E97">
         <v>0.02427830552841</v>
@@ -3474,7 +3474,7 @@
         <v>0.9992341112712183</v>
       </c>
       <c r="D98">
-        <v>0.3505799315800254</v>
+        <v>0.4230592250964511</v>
       </c>
       <c r="E98">
         <v>0.02398489153382205</v>
@@ -3500,7 +3500,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D99">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E99">
         <v>0.02397438301374079</v>
@@ -3526,7 +3526,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D100">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E100">
         <v>0.02397438301374079</v>
@@ -3552,7 +3552,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D101">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E101">
         <v>0.02397438301374079</v>
@@ -3578,7 +3578,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D102">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E102">
         <v>0.02397438301374079</v>
@@ -3604,7 +3604,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D103">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E103">
         <v>0.02397438301374079</v>
@@ -3630,7 +3630,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D104">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E104">
         <v>0.02397438301374079</v>
@@ -3656,7 +3656,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D105">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E105">
         <v>0.02397438301374079</v>
@@ -3682,7 +3682,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D106">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E106">
         <v>0.02397438301374079</v>
@@ -3708,7 +3708,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D107">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E107">
         <v>0.02397438301374079</v>
@@ -3734,7 +3734,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D108">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E108">
         <v>0.02397438301374079</v>
@@ -3760,7 +3760,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D109">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E109">
         <v>0.02397438301374079</v>
@@ -3786,7 +3786,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D110">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E110">
         <v>0.02397438301374079</v>
@@ -3812,7 +3812,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D111">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E111">
         <v>0.02397438301374079</v>
@@ -3838,7 +3838,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D112">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E112">
         <v>0.02397438301374079</v>
@@ -3864,7 +3864,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D113">
-        <v>0.3642031270444663</v>
+        <v>0.4179289595302896</v>
       </c>
       <c r="E113">
         <v>0.02397438301374079</v>
@@ -3890,7 +3890,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D114">
-        <v>-0.1487922002875592</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E114">
         <v>0.5185502625102221</v>
@@ -3916,7 +3916,7 @@
         <v>0.7869111777284128</v>
       </c>
       <c r="D115">
-        <v>0.2200257952545178</v>
+        <v>0.48845126492983</v>
       </c>
       <c r="E115">
         <v>0.4000693256883591</v>
@@ -3942,7 +3942,7 @@
         <v>0.8255702751730262</v>
       </c>
       <c r="D116">
-        <v>0.2830655411360729</v>
+        <v>0.4318518195531893</v>
       </c>
       <c r="E116">
         <v>0.3619638238333669</v>
@@ -3968,7 +3968,7 @@
         <v>0.8729451326150162</v>
       </c>
       <c r="D117">
-        <v>0.253086725974642</v>
+        <v>0.3189425190975164</v>
       </c>
       <c r="E117">
         <v>0.3089232344526052</v>
@@ -3994,7 +3994,7 @@
         <v>0.9080256921798391</v>
       </c>
       <c r="D118">
-        <v>0.1620135194898268</v>
+        <v>0.3620365649910037</v>
       </c>
       <c r="E118">
         <v>0.2628380180665477</v>
@@ -4020,7 +4020,7 @@
         <v>0.9490834919632016</v>
       </c>
       <c r="D119">
-        <v>0.148518981004496</v>
+        <v>0.3210184713886117</v>
       </c>
       <c r="E119">
         <v>0.1955618897390997</v>
@@ -4046,7 +4046,7 @@
         <v>0.9738472556237306</v>
       </c>
       <c r="D120">
-        <v>0.1522846239741388</v>
+        <v>0.2617317549229966</v>
       </c>
       <c r="E120">
         <v>0.1401566001774775</v>
@@ -4072,7 +4072,7 @@
         <v>0.9905458544552406</v>
       </c>
       <c r="D121">
-        <v>0.2054569625223029</v>
+        <v>0.247801471450221</v>
       </c>
       <c r="E121">
         <v>0.08426865487598809</v>
@@ -4098,7 +4098,7 @@
         <v>0.9959138556936735</v>
       </c>
       <c r="D122">
-        <v>0.176829814302814</v>
+        <v>0.2057503303423129</v>
       </c>
       <c r="E122">
         <v>0.05540025576556993</v>
@@ -4124,7 +4124,7 @@
         <v>0.9974167267049022</v>
       </c>
       <c r="D123">
-        <v>0.1317859100581682</v>
+        <v>0.2346094072996461</v>
       </c>
       <c r="E123">
         <v>0.04404941010666327</v>
@@ -4150,7 +4150,7 @@
         <v>0.9985077263562102</v>
       </c>
       <c r="D124">
-        <v>0.06029988795154173</v>
+        <v>0.2598891782775189</v>
       </c>
       <c r="E124">
         <v>0.03347951469341886</v>
@@ -4176,7 +4176,7 @@
         <v>0.999046695542479</v>
       </c>
       <c r="D125">
-        <v>0.1526556543267502</v>
+        <v>0.2147645990197879</v>
       </c>
       <c r="E125">
         <v>0.02675905249519035</v>
@@ -4202,7 +4202,7 @@
         <v>0.999178289847647</v>
       </c>
       <c r="D126">
-        <v>0.1228767866983915</v>
+        <v>0.1633074617861177</v>
       </c>
       <c r="E126">
         <v>0.02484358386220171</v>
@@ -4228,7 +4228,7 @@
         <v>0.9992226244977813</v>
       </c>
       <c r="D127">
-        <v>0.1291100963766121</v>
+        <v>0.2653608989083178</v>
       </c>
       <c r="E127">
         <v>0.02416408445090993</v>
@@ -4254,7 +4254,7 @@
         <v>0.9992340067838602</v>
       </c>
       <c r="D128">
-        <v>0.141234937589573</v>
+        <v>0.1824038760070702</v>
       </c>
       <c r="E128">
         <v>0.0239865275629138</v>
@@ -4280,7 +4280,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D129">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E129">
         <v>0.02397438301374079</v>
@@ -4306,7 +4306,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D130">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E130">
         <v>0.02397438301374079</v>
@@ -4332,7 +4332,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D131">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E131">
         <v>0.02397438301374079</v>
@@ -4358,7 +4358,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D132">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E132">
         <v>0.02397438301374079</v>
@@ -4384,7 +4384,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D133">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E133">
         <v>0.02397438301374079</v>
@@ -4410,7 +4410,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D134">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E134">
         <v>0.02397438301374079</v>
@@ -4436,7 +4436,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D135">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E135">
         <v>0.02397438301374079</v>
@@ -4462,7 +4462,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D136">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E136">
         <v>0.02397438301374079</v>
@@ -4488,7 +4488,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D137">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E137">
         <v>0.02397438301374079</v>
@@ -4514,7 +4514,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D138">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E138">
         <v>0.02397438301374079</v>
@@ -4540,7 +4540,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D139">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E139">
         <v>0.02397438301374079</v>
@@ -4566,7 +4566,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D140">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E140">
         <v>0.02397438301374079</v>
@@ -4592,7 +4592,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D141">
-        <v>0.1378967180621006</v>
+        <v>0.225227971774559</v>
       </c>
       <c r="E141">
         <v>0.02397438301374079</v>
@@ -4618,7 +4618,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D142">
-        <v>-0.1487922002875599</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E142">
         <v>0.5185502625102221</v>
@@ -4644,7 +4644,7 @@
         <v>0.7869111777284128</v>
       </c>
       <c r="D143">
-        <v>0.2200257952545179</v>
+        <v>0.4884512649298302</v>
       </c>
       <c r="E143">
         <v>0.4000693256883591</v>
@@ -4670,7 +4670,7 @@
         <v>0.8255702751730262</v>
       </c>
       <c r="D144">
-        <v>0.2830655411360725</v>
+        <v>0.4318518195531891</v>
       </c>
       <c r="E144">
         <v>0.3619638238333669</v>
@@ -4696,7 +4696,7 @@
         <v>0.8729451326150162</v>
       </c>
       <c r="D145">
-        <v>0.1722454609082408</v>
+        <v>0.2841424258696289</v>
       </c>
       <c r="E145">
         <v>0.3089232344526052</v>
@@ -4722,7 +4722,7 @@
         <v>0.9080256921798391</v>
       </c>
       <c r="D146">
-        <v>0.05069144787233526</v>
+        <v>0.3531984338178781</v>
       </c>
       <c r="E146">
         <v>0.2628380180665477</v>
@@ -4748,7 +4748,7 @@
         <v>0.9490834919632016</v>
       </c>
       <c r="D147">
-        <v>0.1894746694327369</v>
+        <v>0.2816822792201571</v>
       </c>
       <c r="E147">
         <v>0.1955618897390997</v>
@@ -4774,7 +4774,7 @@
         <v>0.9738472556237306</v>
       </c>
       <c r="D148">
-        <v>0.1227611285036074</v>
+        <v>0.2522632115176454</v>
       </c>
       <c r="E148">
         <v>0.1401566001774775</v>
@@ -4800,7 +4800,7 @@
         <v>0.9905458544552406</v>
       </c>
       <c r="D149">
-        <v>0.1817032577812666</v>
+        <v>0.1943475430771689</v>
       </c>
       <c r="E149">
         <v>0.08426865487598807</v>
@@ -4826,7 +4826,7 @@
         <v>0.9959138556936735</v>
       </c>
       <c r="D150">
-        <v>0.1985345305592896</v>
+        <v>0.2172901677365936</v>
       </c>
       <c r="E150">
         <v>0.05540025576556993</v>
@@ -4852,7 +4852,7 @@
         <v>0.9974167267049022</v>
       </c>
       <c r="D151">
-        <v>0.1637865434776591</v>
+        <v>0.2648947645124397</v>
       </c>
       <c r="E151">
         <v>0.04404941010666327</v>
@@ -4878,7 +4878,7 @@
         <v>0.9985077263562102</v>
       </c>
       <c r="D152">
-        <v>0.2074751013167633</v>
+        <v>0.2510280062042168</v>
       </c>
       <c r="E152">
         <v>0.03347951469341886</v>
@@ -4904,7 +4904,7 @@
         <v>0.999046695542479</v>
       </c>
       <c r="D153">
-        <v>0.1904854355084084</v>
+        <v>0.2179869571491823</v>
       </c>
       <c r="E153">
         <v>0.02675905249519035</v>
@@ -4930,7 +4930,7 @@
         <v>0.999178289847647</v>
       </c>
       <c r="D154">
-        <v>0.1708534827446589</v>
+        <v>0.2937309341260842</v>
       </c>
       <c r="E154">
         <v>0.02484358386220171</v>
@@ -4956,7 +4956,7 @@
         <v>0.9992226244977813</v>
       </c>
       <c r="D155">
-        <v>0.2092697084184868</v>
+        <v>0.2050018475576384</v>
       </c>
       <c r="E155">
         <v>0.02416408445090993</v>
@@ -4982,7 +4982,7 @@
         <v>0.9992340067838602</v>
       </c>
       <c r="D156">
-        <v>0.2059893345793766</v>
+        <v>0.2223644539220382</v>
       </c>
       <c r="E156">
         <v>0.0239865275629138</v>
@@ -5008,7 +5008,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D157">
-        <v>0.1892803225048102</v>
+        <v>0.2242458150391353</v>
       </c>
       <c r="E157">
         <v>0.02397438301374079</v>
@@ -5034,7 +5034,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D158">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E158">
         <v>0.02397438301374079</v>
@@ -5060,7 +5060,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D159">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E159">
         <v>0.02397438301374079</v>
@@ -5086,7 +5086,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D160">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E160">
         <v>0.02397438301374079</v>
@@ -5112,7 +5112,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D161">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E161">
         <v>0.02397438301374079</v>
@@ -5138,7 +5138,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D162">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E162">
         <v>0.02397438301374079</v>
@@ -5164,7 +5164,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D163">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E163">
         <v>0.02397438301374079</v>
@@ -5190,7 +5190,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D164">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E164">
         <v>0.02397438301374079</v>
@@ -5216,7 +5216,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D165">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E165">
         <v>0.02397438301374079</v>
@@ -5242,7 +5242,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D166">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E166">
         <v>0.02397438301374079</v>
@@ -5268,7 +5268,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D167">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E167">
         <v>0.02397438301374079</v>
@@ -5294,7 +5294,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D168">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E168">
         <v>0.02397438301374079</v>
@@ -5320,7 +5320,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D169">
-        <v>0.2004558652682376</v>
+        <v>0.2546844247796459</v>
       </c>
       <c r="E169">
         <v>0.02397438301374079</v>
@@ -5346,7 +5346,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D170">
-        <v>-0.1487922002875577</v>
+        <v>0.4755111072690434</v>
       </c>
       <c r="E170">
         <v>0.518550262510222</v>
@@ -5372,7 +5372,7 @@
         <v>0.7869111777284129</v>
       </c>
       <c r="D171">
-        <v>0.2200257952545202</v>
+        <v>0.4884512649298302</v>
       </c>
       <c r="E171">
         <v>0.400069325688359</v>
@@ -5398,7 +5398,7 @@
         <v>0.8255439011585076</v>
       </c>
       <c r="D172">
-        <v>0.07943333696323829</v>
+        <v>0.4273880689278403</v>
       </c>
       <c r="E172">
         <v>0.361991187513276</v>
@@ -5424,7 +5424,7 @@
         <v>0.8671458651049813</v>
       </c>
       <c r="D173">
-        <v>-0.01698892870218338</v>
+        <v>0.3286112250199341</v>
       </c>
       <c r="E173">
         <v>0.3158947858784069</v>
@@ -5450,7 +5450,7 @@
         <v>0.8911513433731894</v>
       </c>
       <c r="D174">
-        <v>0.06913816663727401</v>
+        <v>0.3525283282036958</v>
       </c>
       <c r="E174">
         <v>0.285934432339309</v>
@@ -5476,7 +5476,7 @@
         <v>0.9200244255513048</v>
       </c>
       <c r="D175">
-        <v>0.224928692333104</v>
+        <v>0.4281090347056059</v>
       </c>
       <c r="E175">
         <v>0.2450945215200843</v>
@@ -5502,7 +5502,7 @@
         <v>0.9382943284456929</v>
       </c>
       <c r="D176">
-        <v>0.2732699629008258</v>
+        <v>0.4477840126158564</v>
       </c>
       <c r="E176">
         <v>0.2152868291322196</v>
@@ -5528,7 +5528,7 @@
         <v>0.9552860136898109</v>
       </c>
       <c r="D177">
-        <v>0.3391570651674494</v>
+        <v>0.4669138073630301</v>
       </c>
       <c r="E177">
         <v>0.1832637691762218</v>
@@ -5554,7 +5554,7 @@
         <v>0.9677384051273523</v>
       </c>
       <c r="D178">
-        <v>0.26980694157284</v>
+        <v>0.4378522506343452</v>
       </c>
       <c r="E178">
         <v>0.1556674589673537</v>
@@ -5580,7 +5580,7 @@
         <v>0.9753413051880931</v>
       </c>
       <c r="D179">
-        <v>0.2878990594623716</v>
+        <v>0.4479544533204162</v>
       </c>
       <c r="E179">
         <v>0.1360943082504383</v>
@@ -5606,7 +5606,7 @@
         <v>0.9851566982953643</v>
       </c>
       <c r="D180">
-        <v>0.2563878587974326</v>
+        <v>0.4172137915875637</v>
       </c>
       <c r="E180">
         <v>0.1055893647755362</v>
@@ -5632,7 +5632,7 @@
         <v>0.9948246360336599</v>
       </c>
       <c r="D181">
-        <v>0.2466957442006565</v>
+        <v>0.3358359779263504</v>
       </c>
       <c r="E181">
         <v>0.06234840797396134</v>
@@ -5658,7 +5658,7 @@
         <v>0.9981705149564157</v>
       </c>
       <c r="D182">
-        <v>0.2437196530529905</v>
+        <v>0.3244223181746718</v>
       </c>
       <c r="E182">
         <v>0.03706972390083099</v>
@@ -5684,7 +5684,7 @@
         <v>0.9989054757932667</v>
       </c>
       <c r="D183">
-        <v>0.2570315876481718</v>
+        <v>0.3990650343899343</v>
       </c>
       <c r="E183">
         <v>0.0286726349301595</v>
@@ -5710,7 +5710,7 @@
         <v>0.9992241143726606</v>
       </c>
       <c r="D184">
-        <v>0.2385727793747607</v>
+        <v>0.3798582986446992</v>
       </c>
       <c r="E184">
         <v>0.02414091757180741</v>
@@ -5736,7 +5736,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D185">
-        <v>0.209684084044253</v>
+        <v>0.3515818415438832</v>
       </c>
       <c r="E185">
         <v>0.02397438301374079</v>
@@ -5762,7 +5762,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D186">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E186">
         <v>0.02397438301374079</v>
@@ -5788,7 +5788,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D187">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E187">
         <v>0.02397438301374079</v>
@@ -5814,7 +5814,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D188">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E188">
         <v>0.02397438301374079</v>
@@ -5840,7 +5840,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D189">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E189">
         <v>0.02397438301374079</v>
@@ -5866,7 +5866,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D190">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E190">
         <v>0.02397438301374079</v>
@@ -5892,7 +5892,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D191">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E191">
         <v>0.02397438301374079</v>
@@ -5918,7 +5918,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D192">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E192">
         <v>0.02397438301374079</v>
@@ -5944,7 +5944,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D193">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E193">
         <v>0.02397438301374079</v>
@@ -5970,7 +5970,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D194">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E194">
         <v>0.02397438301374079</v>
@@ -5996,7 +5996,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D195">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E195">
         <v>0.02397438301374079</v>
@@ -6022,7 +6022,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D196">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E196">
         <v>0.02397438301374079</v>
@@ -6048,7 +6048,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D197">
-        <v>0.2548832785684839</v>
+        <v>0.4057311210440105</v>
       </c>
       <c r="E197">
         <v>0.02397438301374079</v>
@@ -6074,7 +6074,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D198">
-        <v>-0.1487922002875599</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E198">
         <v>0.5185502625102221</v>
@@ -6100,7 +6100,7 @@
         <v>0.7803782297072218</v>
       </c>
       <c r="D199">
-        <v>0.1110391690209276</v>
+        <v>0.4996843395565745</v>
       </c>
       <c r="E199">
         <v>0.4061557571598815</v>
@@ -6126,7 +6126,7 @@
         <v>0.8255664357638582</v>
       </c>
       <c r="D200">
-        <v>0.007890611647727419</v>
+        <v>0.441582480621127</v>
       </c>
       <c r="E200">
         <v>0.3619678074421749</v>
@@ -6152,7 +6152,7 @@
         <v>0.8760390956867796</v>
       </c>
       <c r="D201">
-        <v>-0.04149430673444021</v>
+        <v>0.396741235252759</v>
       </c>
       <c r="E201">
         <v>0.3051386971452397</v>
@@ -6178,7 +6178,7 @@
         <v>0.9180556933396412</v>
       </c>
       <c r="D202">
-        <v>-0.2521047953850784</v>
+        <v>0.2948612865808552</v>
       </c>
       <c r="E202">
         <v>0.2480928865682146</v>
@@ -6204,7 +6204,7 @@
         <v>0.9411033030890091</v>
       </c>
       <c r="D203">
-        <v>-0.1950445069270537</v>
+        <v>0.3197463309064801</v>
       </c>
       <c r="E203">
         <v>0.2103295967523773</v>
@@ -6230,7 +6230,7 @@
         <v>0.9606850903449773</v>
       </c>
       <c r="D204">
-        <v>-0.2009588970827498</v>
+        <v>0.3195442728611732</v>
       </c>
       <c r="E204">
         <v>0.1718436785056503</v>
@@ -6256,7 +6256,7 @@
         <v>0.9712102518780716</v>
       </c>
       <c r="D205">
-        <v>-0.08869160916807028</v>
+        <v>0.4153241540421</v>
       </c>
       <c r="E205">
         <v>0.1470529876193603</v>
@@ -6282,7 +6282,7 @@
         <v>0.9842309640039081</v>
       </c>
       <c r="D206">
-        <v>0.005202961394351169</v>
+        <v>0.4304572255383546</v>
       </c>
       <c r="E206">
         <v>0.1088322209482626</v>
@@ -6308,7 +6308,7 @@
         <v>0.9906105507122979</v>
       </c>
       <c r="D207">
-        <v>0.0175012879895351</v>
+        <v>0.4320395440577725</v>
       </c>
       <c r="E207">
         <v>0.08397982784319477</v>
@@ -6334,7 +6334,7 @@
         <v>0.9970602314168736</v>
       </c>
       <c r="D208">
-        <v>-0.002977982677565105</v>
+        <v>0.4211407152069496</v>
       </c>
       <c r="E208">
         <v>0.04699065426201254</v>
@@ -6360,7 +6360,7 @@
         <v>0.999018077729743</v>
       </c>
       <c r="D209">
-        <v>-0.001239486946330581</v>
+        <v>0.4222434625179833</v>
       </c>
       <c r="E209">
         <v>0.02715773052647159</v>
@@ -6386,7 +6386,7 @@
         <v>0.9991774744586176</v>
       </c>
       <c r="D210">
-        <v>0.03155729812090691</v>
+        <v>0.431758947845766</v>
       </c>
       <c r="E210">
         <v>0.02485590704138204</v>
@@ -6412,7 +6412,7 @@
         <v>0.9992171956686128</v>
       </c>
       <c r="D211">
-        <v>-0.04478308652670715</v>
+        <v>0.4326778247165776</v>
       </c>
       <c r="E211">
         <v>0.02424831302040064</v>
@@ -6438,7 +6438,7 @@
         <v>0.9992337067632513</v>
       </c>
       <c r="D212">
-        <v>0.03303815409560407</v>
+        <v>0.4334492788921424</v>
       </c>
       <c r="E212">
         <v>0.02399122456800691</v>
@@ -6464,7 +6464,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D213">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E213">
         <v>0.02397438301374079</v>
@@ -6490,7 +6490,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D214">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E214">
         <v>0.02397438301374079</v>
@@ -6516,7 +6516,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D215">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E215">
         <v>0.02397438301374079</v>
@@ -6542,7 +6542,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D216">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E216">
         <v>0.02397438301374079</v>
@@ -6568,7 +6568,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D217">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E217">
         <v>0.02397438301374079</v>
@@ -6594,7 +6594,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D218">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E218">
         <v>0.02397438301374079</v>
@@ -6620,7 +6620,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D219">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E219">
         <v>0.02397438301374079</v>
@@ -6646,7 +6646,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D220">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E220">
         <v>0.02397438301374079</v>
@@ -6672,7 +6672,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D221">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E221">
         <v>0.02397438301374079</v>
@@ -6698,7 +6698,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D222">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E222">
         <v>0.02397438301374079</v>
@@ -6724,7 +6724,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D223">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E223">
         <v>0.02397438301374079</v>
@@ -6750,7 +6750,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D224">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E224">
         <v>0.02397438301374079</v>
@@ -6776,7 +6776,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D225">
-        <v>-0.03761369643525803</v>
+        <v>0.4322434292041004</v>
       </c>
       <c r="E225">
         <v>0.02397438301374079</v>
@@ -6802,7 +6802,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D226">
-        <v>-0.1487922002875592</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E226">
         <v>0.5185502625102221</v>
@@ -6828,7 +6828,7 @@
         <v>0.7637893966744718</v>
       </c>
       <c r="D227">
-        <v>0.07729677658288525</v>
+        <v>0.5067325221182994</v>
       </c>
       <c r="E227">
         <v>0.4212157618947885</v>
@@ -6854,7 +6854,7 @@
         <v>0.8177062042085496</v>
       </c>
       <c r="D228">
-        <v>0.1377331170408637</v>
+        <v>0.4594462632875852</v>
       </c>
       <c r="E228">
         <v>0.3700333467788163</v>
@@ -6880,7 +6880,7 @@
         <v>0.8770082075624767</v>
       </c>
       <c r="D229">
-        <v>0.08771726484731501</v>
+        <v>0.3358266072931335</v>
       </c>
       <c r="E229">
         <v>0.3039435874024656</v>
@@ -6906,7 +6906,7 @@
         <v>0.9181458766782046</v>
       </c>
       <c r="D230">
-        <v>-0.03622502081763734</v>
+        <v>0.3844719896341589</v>
       </c>
       <c r="E230">
         <v>0.2479563303818355</v>
@@ -6932,7 +6932,7 @@
         <v>0.9411264877348336</v>
       </c>
       <c r="D231">
-        <v>-0.07963906037803348</v>
+        <v>0.3958417377978567</v>
       </c>
       <c r="E231">
         <v>0.2102881946241003</v>
@@ -6958,7 +6958,7 @@
         <v>0.9606856994851091</v>
       </c>
       <c r="D232">
-        <v>-0.07777746962359688</v>
+        <v>0.3910595585744572</v>
       </c>
       <c r="E232">
         <v>0.1718423472386151</v>
@@ -6984,7 +6984,7 @@
         <v>0.9712102518780716</v>
       </c>
       <c r="D233">
-        <v>0.02282859865702969</v>
+        <v>0.3821726771703946</v>
       </c>
       <c r="E233">
         <v>0.1470529876193603</v>
@@ -7010,7 +7010,7 @@
         <v>0.9842309640039081</v>
       </c>
       <c r="D234">
-        <v>-0.0334779290315701</v>
+        <v>0.4274899269151458</v>
       </c>
       <c r="E234">
         <v>0.1088322209482626</v>
@@ -7036,7 +7036,7 @@
         <v>0.9906105507122979</v>
       </c>
       <c r="D235">
-        <v>-0.01293616336344816</v>
+        <v>0.4342103472302237</v>
       </c>
       <c r="E235">
         <v>0.08397982784319477</v>
@@ -7062,7 +7062,7 @@
         <v>0.9970602314168736</v>
       </c>
       <c r="D236">
-        <v>0.02990120644181171</v>
+        <v>0.3840600183774474</v>
       </c>
       <c r="E236">
         <v>0.04699065426201254</v>
@@ -7088,7 +7088,7 @@
         <v>0.999018077729743</v>
       </c>
       <c r="D237">
-        <v>-0.0148548981991985</v>
+        <v>0.4317765318981697</v>
       </c>
       <c r="E237">
         <v>0.02715773052647159</v>
@@ -7114,7 +7114,7 @@
         <v>0.9991774744586176</v>
       </c>
       <c r="D238">
-        <v>-0.006641468786845017</v>
+        <v>0.4324378378802</v>
       </c>
       <c r="E238">
         <v>0.02485590704138204</v>
@@ -7140,7 +7140,7 @@
         <v>0.9992171956686128</v>
       </c>
       <c r="D239">
-        <v>0.002321201044619303</v>
+        <v>0.435264020887085</v>
       </c>
       <c r="E239">
         <v>0.02424831302040064</v>
@@ -7166,7 +7166,7 @@
         <v>0.9992337067632513</v>
       </c>
       <c r="D240">
-        <v>0.009666167830819083</v>
+        <v>0.4322698306012945</v>
       </c>
       <c r="E240">
         <v>0.02399122456800691</v>
@@ -7192,7 +7192,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D241">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E241">
         <v>0.02397438301374079</v>
@@ -7218,7 +7218,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D242">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E242">
         <v>0.02397438301374079</v>
@@ -7244,7 +7244,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D243">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E243">
         <v>0.02397438301374079</v>
@@ -7270,7 +7270,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D244">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E244">
         <v>0.02397438301374079</v>
@@ -7296,7 +7296,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D245">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E245">
         <v>0.02397438301374079</v>
@@ -7322,7 +7322,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D246">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E246">
         <v>0.02397438301374079</v>
@@ -7348,7 +7348,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D247">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E247">
         <v>0.02397438301374079</v>
@@ -7374,7 +7374,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D248">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E248">
         <v>0.02397438301374079</v>
@@ -7400,7 +7400,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D249">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E249">
         <v>0.02397438301374079</v>
@@ -7426,7 +7426,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D250">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E250">
         <v>0.02397438301374079</v>
@@ -7452,7 +7452,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D251">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E251">
         <v>0.02397438301374079</v>
@@ -7478,7 +7478,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D252">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E252">
         <v>0.02397438301374079</v>
@@ -7504,7 +7504,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D253">
-        <v>-0.05518787723093621</v>
+        <v>0.4102767305381233</v>
       </c>
       <c r="E253">
         <v>0.02397438301374079</v>
@@ -7530,7 +7530,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D254">
-        <v>-0.1487922002875599</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E254">
         <v>0.5185502625102221</v>
@@ -7556,7 +7556,7 @@
         <v>0.7637893966744718</v>
       </c>
       <c r="D255">
-        <v>0.07729677658288869</v>
+        <v>0.5067325221182996</v>
       </c>
       <c r="E255">
         <v>0.4212157618947885</v>
@@ -7582,7 +7582,7 @@
         <v>0.8166809145768626</v>
       </c>
       <c r="D256">
-        <v>0.4568653545760364</v>
+        <v>0.6165746915491765</v>
       </c>
       <c r="E256">
         <v>0.371072491821608</v>
@@ -7608,7 +7608,7 @@
         <v>0.8679115007355813</v>
       </c>
       <c r="D257">
-        <v>0.04472826974487221</v>
+        <v>0.4477220074243002</v>
       </c>
       <c r="E257">
         <v>0.3149832230938756</v>
@@ -7634,7 +7634,7 @@
         <v>0.8920699942614456</v>
       </c>
       <c r="D258">
-        <v>0.2099966654961114</v>
+        <v>0.4593754538453325</v>
       </c>
       <c r="E258">
         <v>0.2847252741266093</v>
@@ -7660,7 +7660,7 @@
         <v>0.9037994654366183</v>
       </c>
       <c r="D259">
-        <v>0.4354897014664518</v>
+        <v>0.5964925402865153</v>
       </c>
       <c r="E259">
         <v>0.2688089115420122</v>
@@ -7686,7 +7686,7 @@
         <v>0.9316113139426092</v>
       </c>
       <c r="D260">
-        <v>0.4831454320378312</v>
+        <v>0.6007401605372638</v>
       </c>
       <c r="E260">
         <v>0.2266454733372946</v>
@@ -7712,7 +7712,7 @@
         <v>0.9516649421480068</v>
       </c>
       <c r="D261">
-        <v>0.5275243168505592</v>
+        <v>0.6119107982712746</v>
       </c>
       <c r="E261">
         <v>0.1905399474225923</v>
@@ -7738,7 +7738,7 @@
         <v>0.9774541230378813</v>
       </c>
       <c r="D262">
-        <v>0.4955474786592967</v>
+        <v>0.5390712323696054</v>
       </c>
       <c r="E262">
         <v>0.1301333128724296</v>
@@ -7764,7 +7764,7 @@
         <v>0.990135976458123</v>
       </c>
       <c r="D263">
-        <v>0.4841710852603279</v>
+        <v>0.5679146369128547</v>
       </c>
       <c r="E263">
         <v>0.08607597876107709</v>
@@ -7790,7 +7790,7 @@
         <v>0.9957135104862643</v>
       </c>
       <c r="D264">
-        <v>0.4927534631358428</v>
+        <v>0.5411178120039688</v>
       </c>
       <c r="E264">
         <v>0.05674215195900271</v>
@@ -7816,7 +7816,7 @@
         <v>0.9976922810619114</v>
       </c>
       <c r="D265">
-        <v>0.4967987866408078</v>
+        <v>0.5760131675833768</v>
       </c>
       <c r="E265">
         <v>0.04163383116507145</v>
@@ -7842,7 +7842,7 @@
         <v>0.9991393878950777</v>
       </c>
       <c r="D266">
-        <v>0.4925711290090043</v>
+        <v>0.5751343362936999</v>
       </c>
       <c r="E266">
         <v>0.02542486437068471</v>
@@ -7868,7 +7868,7 @@
         <v>0.9992341112712183</v>
       </c>
       <c r="D267">
-        <v>0.4944664563040053</v>
+        <v>0.5852525369966641</v>
       </c>
       <c r="E267">
         <v>0.02398489153382205</v>
@@ -7894,7 +7894,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D268">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E268">
         <v>0.02397438301374079</v>
@@ -7920,7 +7920,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D269">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E269">
         <v>0.02397438301374079</v>
@@ -7946,7 +7946,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D270">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E270">
         <v>0.02397438301374079</v>
@@ -7972,7 +7972,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D271">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E271">
         <v>0.02397438301374079</v>
@@ -7998,7 +7998,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D272">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E272">
         <v>0.02397438301374079</v>
@@ -8024,7 +8024,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D273">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E273">
         <v>0.02397438301374079</v>
@@ -8050,7 +8050,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D274">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E274">
         <v>0.02397438301374079</v>
@@ -8076,7 +8076,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D275">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E275">
         <v>0.02397438301374079</v>
@@ -8102,7 +8102,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D276">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E276">
         <v>0.02397438301374079</v>
@@ -8128,7 +8128,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D277">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E277">
         <v>0.02397438301374079</v>
@@ -8154,7 +8154,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D278">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E278">
         <v>0.02397438301374079</v>
@@ -8180,7 +8180,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D279">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E279">
         <v>0.02397438301374079</v>
@@ -8206,7 +8206,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D280">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E280">
         <v>0.02397438301374079</v>
@@ -8232,7 +8232,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D281">
-        <v>0.5009741092222511</v>
+        <v>0.554107706594859</v>
       </c>
       <c r="E281">
         <v>0.02397438301374079</v>
@@ -8258,7 +8258,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D282">
-        <v>-0.1487922002875599</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E282">
         <v>0.5185502625102221</v>
@@ -8284,7 +8284,7 @@
         <v>0.7637893966744718</v>
       </c>
       <c r="D283">
-        <v>0.07729677658288736</v>
+        <v>0.5067325221182997</v>
       </c>
       <c r="E283">
         <v>0.4212157618947885</v>
@@ -8310,7 +8310,7 @@
         <v>0.8166809145768626</v>
       </c>
       <c r="D284">
-        <v>0.007347650538210293</v>
+        <v>0.4421966865000398</v>
       </c>
       <c r="E284">
         <v>0.371072491821608</v>
@@ -8336,7 +8336,7 @@
         <v>0.8664142250518392</v>
       </c>
       <c r="D285">
-        <v>0.2731594359279208</v>
+        <v>0.4545385056513606</v>
       </c>
       <c r="E285">
         <v>0.3167634225591753</v>
@@ -8362,7 +8362,7 @@
         <v>0.8889942977727276</v>
       </c>
       <c r="D286">
-        <v>0.09156287527679186</v>
+        <v>0.4007725710878415</v>
       </c>
       <c r="E286">
         <v>0.2887537040516783</v>
@@ -8388,7 +8388,7 @@
         <v>0.8973345535509436</v>
       </c>
       <c r="D287">
-        <v>0.100623893183246</v>
+        <v>0.3933639821659016</v>
       </c>
       <c r="E287">
         <v>0.2776943666682323</v>
@@ -8414,7 +8414,7 @@
         <v>0.9254814541442267</v>
       </c>
       <c r="D288">
-        <v>0.09764226482165828</v>
+        <v>0.3963670287517681</v>
       </c>
       <c r="E288">
         <v>0.2365849452477957</v>
@@ -8440,7 +8440,7 @@
         <v>0.9619491514359326</v>
       </c>
       <c r="D289">
-        <v>0.1507650433752197</v>
+        <v>0.4068633510133828</v>
       </c>
       <c r="E289">
         <v>0.1690585317383593</v>
@@ -8466,7 +8466,7 @@
         <v>0.9789269979664698</v>
       </c>
       <c r="D290">
-        <v>0.1432666096788177</v>
+        <v>0.4244770027700892</v>
       </c>
       <c r="E290">
         <v>0.1258108580180193</v>
@@ -8492,7 +8492,7 @@
         <v>0.9904015548478824</v>
       </c>
       <c r="D291">
-        <v>0.1341919577705056</v>
+        <v>0.4090301231050228</v>
       </c>
       <c r="E291">
         <v>0.08490932012324066</v>
@@ -8518,7 +8518,7 @@
         <v>0.9945931750287996</v>
       </c>
       <c r="D292">
-        <v>0.1390716552172211</v>
+        <v>0.4021094954833802</v>
       </c>
       <c r="E292">
         <v>0.06372738165294688</v>
@@ -8544,7 +8544,7 @@
         <v>0.9963356388256753</v>
       </c>
       <c r="D293">
-        <v>0.160254036044877</v>
+        <v>0.4019470612781525</v>
       </c>
       <c r="E293">
         <v>0.05246311293030961</v>
@@ -8570,7 +8570,7 @@
         <v>0.9974950453879682</v>
       </c>
       <c r="D294">
-        <v>0.1413711627861364</v>
+        <v>0.4024654862717131</v>
       </c>
       <c r="E294">
         <v>0.04337653434741175</v>
@@ -8596,7 +8596,7 @@
         <v>0.9985585876101438</v>
       </c>
       <c r="D295">
-        <v>0.1436516715281437</v>
+        <v>0.405849913464695</v>
       </c>
       <c r="E295">
         <v>0.03290402640862586</v>
@@ -8622,7 +8622,7 @@
         <v>0.9989490417464215</v>
       </c>
       <c r="D296">
-        <v>0.1387044715914318</v>
+        <v>0.4045697323777555</v>
       </c>
       <c r="E296">
         <v>0.02809620430642524</v>
@@ -8648,7 +8648,7 @@
         <v>0.9990997878666891</v>
       </c>
       <c r="D297">
-        <v>0.142616267129502</v>
+        <v>0.4074447873273448</v>
       </c>
       <c r="E297">
         <v>0.02600323319793931</v>
@@ -8674,7 +8674,7 @@
         <v>0.999203608522461</v>
       </c>
       <c r="D298">
-        <v>0.1488654008470441</v>
+        <v>0.410000292858802</v>
       </c>
       <c r="E298">
         <v>0.0244578468720153</v>
@@ -8700,7 +8700,7 @@
         <v>0.9992346098478398</v>
       </c>
       <c r="D299">
-        <v>0.1465855384040748</v>
+        <v>0.4088488416990341</v>
       </c>
       <c r="E299">
         <v>0.02397708344596199</v>
@@ -8726,7 +8726,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D300">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E300">
         <v>0.02397438301374079</v>
@@ -8752,7 +8752,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D301">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E301">
         <v>0.02397438301374079</v>
@@ -8778,7 +8778,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D302">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E302">
         <v>0.02397438301374079</v>
@@ -8804,7 +8804,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D303">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E303">
         <v>0.02397438301374079</v>
@@ -8830,7 +8830,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D304">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E304">
         <v>0.02397438301374079</v>
@@ -8856,7 +8856,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D305">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E305">
         <v>0.02397438301374079</v>
@@ -8882,7 +8882,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D306">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E306">
         <v>0.02397438301374079</v>
@@ -8908,7 +8908,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D307">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E307">
         <v>0.02397438301374079</v>
@@ -8934,7 +8934,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D308">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E308">
         <v>0.02397438301374079</v>
@@ -8960,7 +8960,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D309">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E309">
         <v>0.02397438301374079</v>
@@ -8986,7 +8986,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D310">
-        <v>-0.1487922002875599</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E310">
         <v>0.5185502625102221</v>
@@ -9012,7 +9012,7 @@
         <v>0.7637893966744718</v>
       </c>
       <c r="D311">
-        <v>0.07729677658288736</v>
+        <v>0.5067325221182997</v>
       </c>
       <c r="E311">
         <v>0.4212157618947885</v>
@@ -9038,7 +9038,7 @@
         <v>0.8166809145768626</v>
       </c>
       <c r="D312">
-        <v>0.007347650538210293</v>
+        <v>0.4421966865000398</v>
       </c>
       <c r="E312">
         <v>0.371072491821608</v>
@@ -9064,7 +9064,7 @@
         <v>0.8664142250518392</v>
       </c>
       <c r="D313">
-        <v>0.2731594359279208</v>
+        <v>0.4545385056513606</v>
       </c>
       <c r="E313">
         <v>0.3167634225591753</v>
@@ -9090,7 +9090,7 @@
         <v>0.8889942977727276</v>
       </c>
       <c r="D314">
-        <v>0.09156287527679186</v>
+        <v>0.4007725710878415</v>
       </c>
       <c r="E314">
         <v>0.2887537040516783</v>
@@ -9116,7 +9116,7 @@
         <v>0.8973345535509436</v>
       </c>
       <c r="D315">
-        <v>0.100623893183246</v>
+        <v>0.3933639821659016</v>
       </c>
       <c r="E315">
         <v>0.2776943666682323</v>
@@ -9142,7 +9142,7 @@
         <v>0.9254814541442267</v>
       </c>
       <c r="D316">
-        <v>0.09764226482165828</v>
+        <v>0.3963670287517681</v>
       </c>
       <c r="E316">
         <v>0.2365849452477957</v>
@@ -9168,7 +9168,7 @@
         <v>0.9619491514359326</v>
       </c>
       <c r="D317">
-        <v>0.1507650433752197</v>
+        <v>0.4068633510133828</v>
       </c>
       <c r="E317">
         <v>0.1690585317383593</v>
@@ -9194,7 +9194,7 @@
         <v>0.9789269979664698</v>
       </c>
       <c r="D318">
-        <v>0.1432666096788177</v>
+        <v>0.4244770027700892</v>
       </c>
       <c r="E318">
         <v>0.1258108580180193</v>
@@ -9220,7 +9220,7 @@
         <v>0.9904015548478824</v>
       </c>
       <c r="D319">
-        <v>0.1341919577705056</v>
+        <v>0.4090301231050228</v>
       </c>
       <c r="E319">
         <v>0.08490932012324066</v>
@@ -9246,7 +9246,7 @@
         <v>0.9945931750287996</v>
       </c>
       <c r="D320">
-        <v>0.1390716552172211</v>
+        <v>0.4021094954833802</v>
       </c>
       <c r="E320">
         <v>0.06372738165294688</v>
@@ -9272,7 +9272,7 @@
         <v>0.9963356388256753</v>
       </c>
       <c r="D321">
-        <v>0.160254036044877</v>
+        <v>0.4019470612781525</v>
       </c>
       <c r="E321">
         <v>0.05246311293030961</v>
@@ -9298,7 +9298,7 @@
         <v>0.9974950453879682</v>
       </c>
       <c r="D322">
-        <v>0.1413711627861364</v>
+        <v>0.4024654862717131</v>
       </c>
       <c r="E322">
         <v>0.04337653434741175</v>
@@ -9324,7 +9324,7 @@
         <v>0.9985585876101438</v>
       </c>
       <c r="D323">
-        <v>0.1436516715281437</v>
+        <v>0.405849913464695</v>
       </c>
       <c r="E323">
         <v>0.03290402640862586</v>
@@ -9350,7 +9350,7 @@
         <v>0.9989490417464215</v>
       </c>
       <c r="D324">
-        <v>0.1387044715914318</v>
+        <v>0.4045697323777555</v>
       </c>
       <c r="E324">
         <v>0.02809620430642524</v>
@@ -9376,7 +9376,7 @@
         <v>0.9990997878666891</v>
       </c>
       <c r="D325">
-        <v>0.142616267129502</v>
+        <v>0.4074447873273448</v>
       </c>
       <c r="E325">
         <v>0.02600323319793931</v>
@@ -9402,7 +9402,7 @@
         <v>0.999203608522461</v>
       </c>
       <c r="D326">
-        <v>0.1488654008470441</v>
+        <v>0.410000292858802</v>
       </c>
       <c r="E326">
         <v>0.0244578468720153</v>
@@ -9428,7 +9428,7 @@
         <v>0.9992346098478398</v>
       </c>
       <c r="D327">
-        <v>0.1465855384040748</v>
+        <v>0.4088488416990341</v>
       </c>
       <c r="E327">
         <v>0.02397708344596199</v>
@@ -9454,7 +9454,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D328">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E328">
         <v>0.02397438301374079</v>
@@ -9480,7 +9480,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D329">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E329">
         <v>0.02397438301374079</v>
@@ -9506,7 +9506,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D330">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E330">
         <v>0.02397438301374079</v>
@@ -9532,7 +9532,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D331">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E331">
         <v>0.02397438301374079</v>
@@ -9558,7 +9558,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D332">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E332">
         <v>0.02397438301374079</v>
@@ -9584,7 +9584,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D333">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E333">
         <v>0.02397438301374079</v>
@@ -9610,7 +9610,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D334">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E334">
         <v>0.02397438301374079</v>
@@ -9636,7 +9636,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D335">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E335">
         <v>0.02397438301374079</v>
@@ -9662,7 +9662,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D336">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E336">
         <v>0.02397438301374079</v>
@@ -9688,7 +9688,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D337">
-        <v>0.1423013371213967</v>
+        <v>0.416075781745741</v>
       </c>
       <c r="E337">
         <v>0.02397438301374079</v>
@@ -9714,7 +9714,7 @@
         <v>0.6420091903572321</v>
       </c>
       <c r="D338">
-        <v>-0.148792200287555</v>
+        <v>0.4755111072690436</v>
       </c>
       <c r="E338">
         <v>0.518550262510222</v>
@@ -9740,7 +9740,7 @@
         <v>0.7637893966744718</v>
       </c>
       <c r="D339">
-        <v>0.07729677658288869</v>
+        <v>0.5067325221182996</v>
       </c>
       <c r="E339">
         <v>0.4212157618947885</v>
@@ -9766,7 +9766,7 @@
         <v>0.8166809145768626</v>
       </c>
       <c r="D340">
-        <v>0.2806296208724244</v>
+        <v>0.5849776463248366</v>
       </c>
       <c r="E340">
         <v>0.371072491821608</v>
@@ -9792,7 +9792,7 @@
         <v>0.861733286636213</v>
       </c>
       <c r="D341">
-        <v>0.08226320145219324</v>
+        <v>0.4319988636530724</v>
       </c>
       <c r="E341">
         <v>0.3222654441445837</v>
@@ -9818,7 +9818,7 @@
         <v>0.88808671068514</v>
       </c>
       <c r="D342">
-        <v>0.3106372234459436</v>
+        <v>0.5277993475957607</v>
       </c>
       <c r="E342">
         <v>0.2899317320034394</v>
@@ -9844,7 +9844,7 @@
         <v>0.9249017532500239</v>
       </c>
       <c r="D343">
-        <v>0.1330767931963003</v>
+        <v>0.380996190898416</v>
       </c>
       <c r="E343">
         <v>0.2375033931719552</v>
@@ -9870,7 +9870,7 @@
         <v>0.9502183269019622</v>
       </c>
       <c r="D344">
-        <v>0.147118678396437</v>
+        <v>0.3732743262924461</v>
       </c>
       <c r="E344">
         <v>0.1933702523442085</v>
@@ -9896,7 +9896,7 @@
         <v>0.9765092540315632</v>
       </c>
       <c r="D345">
-        <v>0.1633389653212417</v>
+        <v>0.3826143956995368</v>
       </c>
       <c r="E345">
         <v>0.1328321872363691</v>
@@ -9922,7 +9922,7 @@
         <v>0.9877226683446836</v>
       </c>
       <c r="D346">
-        <v>0.1777406831657706</v>
+        <v>0.4041805123386462</v>
       </c>
       <c r="E346">
         <v>0.09602999662754649</v>
@@ -9948,7 +9948,7 @@
         <v>0.9951567629624567</v>
       </c>
       <c r="D347">
-        <v>0.2220917384906644</v>
+        <v>0.3845573415311645</v>
       </c>
       <c r="E347">
         <v>0.0603146458439411</v>
@@ -9974,7 +9974,7 @@
         <v>0.9976281968188188</v>
       </c>
       <c r="D348">
-        <v>0.1276627037873413</v>
+        <v>0.3323080284270203</v>
       </c>
       <c r="E348">
         <v>0.04220794843444743</v>
@@ -10000,7 +10000,7 @@
         <v>0.9984857771457134</v>
       </c>
       <c r="D349">
-        <v>0.1905698927329308</v>
+        <v>0.4047718513638726</v>
       </c>
       <c r="E349">
         <v>0.03372483379619311</v>
@@ -10026,7 +10026,7 @@
         <v>0.9990879258788826</v>
       </c>
       <c r="D350">
-        <v>0.1857573173264416</v>
+        <v>0.4035380926569033</v>
       </c>
       <c r="E350">
         <v>0.02617399326732859</v>
@@ -10052,7 +10052,7 @@
         <v>0.9992076405940625</v>
       </c>
       <c r="D351">
-        <v>0.1855615221520077</v>
+        <v>0.4065885803491039</v>
       </c>
       <c r="E351">
         <v>0.02439585416447129</v>
@@ -10078,7 +10078,7 @@
         <v>0.9992234931654227</v>
       </c>
       <c r="D352">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E352">
         <v>0.02415057976407129</v>
@@ -10104,7 +10104,7 @@
         <v>0.9992342366442145</v>
       </c>
       <c r="D353">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E353">
         <v>0.02398292833690209</v>
@@ -10130,7 +10130,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D354">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E354">
         <v>0.02397438301374079</v>
@@ -10156,7 +10156,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D355">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E355">
         <v>0.02397438301374079</v>
@@ -10182,7 +10182,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D356">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E356">
         <v>0.02397438301374079</v>
@@ -10208,7 +10208,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D357">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E357">
         <v>0.02397438301374079</v>
@@ -10234,7 +10234,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D358">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E358">
         <v>0.02397438301374079</v>
@@ -10260,7 +10260,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D359">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E359">
         <v>0.02397438301374079</v>
@@ -10286,7 +10286,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D360">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E360">
         <v>0.02397438301374079</v>
@@ -10312,7 +10312,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D361">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E361">
         <v>0.02397438301374079</v>
@@ -10338,7 +10338,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D362">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E362">
         <v>0.02397438301374079</v>
@@ -10364,7 +10364,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D363">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E363">
         <v>0.02397438301374079</v>
@@ -10390,7 +10390,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D364">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E364">
         <v>0.02397438301374079</v>
@@ -10416,7 +10416,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D365">
-        <v>0.1902056388969013</v>
+        <v>0.4089557344681088</v>
       </c>
       <c r="E365">
         <v>0.02397438301374079</v>
@@ -10442,7 +10442,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D366">
-        <v>-0.148792200287559</v>
+        <v>0.4755111072690433</v>
       </c>
       <c r="E366">
         <v>0.518550262510222</v>
@@ -10468,7 +10468,7 @@
         <v>0.7601088288510354</v>
       </c>
       <c r="D367">
-        <v>-0.03531899321057397</v>
+        <v>0.4536272606000388</v>
       </c>
       <c r="E367">
         <v>0.4244847104898055</v>
@@ -10494,7 +10494,7 @@
         <v>0.8022586504129966</v>
       </c>
       <c r="D368">
-        <v>0.01184748090935861</v>
+        <v>0.4294666950539766</v>
       </c>
       <c r="E368">
         <v>0.3853928619590595</v>
@@ -10520,7 +10520,7 @@
         <v>0.8531860627890149</v>
       </c>
       <c r="D369">
-        <v>-0.04349558795720054</v>
+        <v>0.4016311426650443</v>
       </c>
       <c r="E369">
         <v>0.33207682071128</v>
@@ -10546,7 +10546,7 @@
         <v>0.8843090985861207</v>
       </c>
       <c r="D370">
-        <v>0.03711685979270463</v>
+        <v>0.3700728244075782</v>
       </c>
       <c r="E370">
         <v>0.2947844171185937</v>
@@ -10572,7 +10572,7 @@
         <v>0.9242641233143241</v>
       </c>
       <c r="D371">
-        <v>-0.004389674670062238</v>
+        <v>0.3459678039032189</v>
       </c>
       <c r="E371">
         <v>0.238509536353494</v>
@@ -10598,7 +10598,7 @@
         <v>0.9552050557039516</v>
       </c>
       <c r="D372">
-        <v>0.0782826441418657</v>
+        <v>0.3668241526128695</v>
       </c>
       <c r="E372">
         <v>0.1834296004653709</v>
@@ -10624,7 +10624,7 @@
         <v>0.9790964560925018</v>
       </c>
       <c r="D373">
-        <v>0.1038927239551757</v>
+        <v>0.3758764951708625</v>
       </c>
       <c r="E373">
         <v>0.1253039842030834</v>
@@ -10650,7 +10650,7 @@
         <v>0.9876042392351543</v>
       </c>
       <c r="D374">
-        <v>0.1290949255895912</v>
+        <v>0.3913920085960689</v>
       </c>
       <c r="E374">
         <v>0.09649204542434106</v>
@@ -10676,7 +10676,7 @@
         <v>0.9951480292247494</v>
       </c>
       <c r="D375">
-        <v>0.1757461562189512</v>
+        <v>0.3832437480458983</v>
       </c>
       <c r="E375">
         <v>0.0603690036036725</v>
@@ -10702,7 +10702,7 @@
         <v>0.9975698087333004</v>
       </c>
       <c r="D376">
-        <v>0.1271783031041895</v>
+        <v>0.3519816164648172</v>
       </c>
       <c r="E376">
         <v>0.04272431885559197</v>
@@ -10728,7 +10728,7 @@
         <v>0.9983298525739634</v>
       </c>
       <c r="D377">
-        <v>0.1125477842137482</v>
+        <v>0.3502902957359151</v>
       </c>
       <c r="E377">
         <v>0.03541867610932896</v>
@@ -10754,7 +10754,7 @@
         <v>0.9990586618562178</v>
       </c>
       <c r="D378">
-        <v>0.1070168199508056</v>
+        <v>0.3490565370289458</v>
       </c>
       <c r="E378">
         <v>0.02659057619235855</v>
@@ -10780,7 +10780,7 @@
         <v>0.9992008804107113</v>
       </c>
       <c r="D379">
-        <v>0.1010174942555183</v>
+        <v>0.3593339647678533</v>
       </c>
       <c r="E379">
         <v>0.02449970235195387</v>
@@ -10806,7 +10806,7 @@
         <v>0.9992234931654227</v>
       </c>
       <c r="D380">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E380">
         <v>0.02415057976407129</v>
@@ -10832,7 +10832,7 @@
         <v>0.9992342366442145</v>
       </c>
       <c r="D381">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E381">
         <v>0.02398292833690209</v>
@@ -10858,7 +10858,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D382">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E382">
         <v>0.02397438301374079</v>
@@ -10884,7 +10884,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D383">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E383">
         <v>0.02397438301374079</v>
@@ -10910,7 +10910,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D384">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E384">
         <v>0.02397438301374079</v>
@@ -10936,7 +10936,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D385">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E385">
         <v>0.02397438301374079</v>
@@ -10962,7 +10962,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D386">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E386">
         <v>0.02397438301374079</v>
@@ -10988,7 +10988,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D387">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E387">
         <v>0.02397438301374079</v>
@@ -11014,7 +11014,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D388">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E388">
         <v>0.02397438301374079</v>
@@ -11040,7 +11040,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D389">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E389">
         <v>0.02397438301374079</v>
@@ -11066,7 +11066,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D390">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E390">
         <v>0.02397438301374079</v>
@@ -11092,7 +11092,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D391">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E391">
         <v>0.02397438301374079</v>
@@ -11118,7 +11118,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D392">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E392">
         <v>0.02397438301374079</v>
@@ -11144,7 +11144,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D393">
-        <v>0.1107163330268562</v>
+        <v>0.3544741788401513</v>
       </c>
       <c r="E393">
         <v>0.02397438301374079</v>
@@ -11170,7 +11170,7 @@
         <v>0.642009190357232</v>
       </c>
       <c r="D394">
-        <v>-0.1487922002875603</v>
+        <v>0.475511107269043</v>
       </c>
       <c r="E394">
         <v>0.5185502625102221</v>
@@ -11196,7 +11196,7 @@
         <v>0.7601088288510354</v>
       </c>
       <c r="D395">
-        <v>-0.03531899321057175</v>
+        <v>0.4536272606000391</v>
       </c>
       <c r="E395">
         <v>0.4244847104898055</v>
@@ -11222,7 +11222,7 @@
         <v>0.8022586504129966</v>
       </c>
       <c r="D396">
-        <v>0.01184748090935861</v>
+        <v>0.4294666950539766</v>
       </c>
       <c r="E396">
         <v>0.3853928619590595</v>
@@ -11248,7 +11248,7 @@
         <v>0.8521723100019816</v>
       </c>
       <c r="D397">
-        <v>-0.06230500759149193</v>
+        <v>0.3922711850851625</v>
       </c>
       <c r="E397">
         <v>0.3332213464757008</v>
@@ -11274,7 +11274,7 @@
         <v>0.890237909086692</v>
       </c>
       <c r="D398">
-        <v>0.06464141729545347</v>
+        <v>0.3736941069918717</v>
       </c>
       <c r="E398">
         <v>0.2871316756636035</v>
@@ -11300,7 +11300,7 @@
         <v>0.9226858705707078</v>
       </c>
       <c r="D399">
-        <v>0.04771810466874971</v>
+        <v>0.3508637381167958</v>
       </c>
       <c r="E399">
         <v>0.2409818614200166</v>
@@ -11326,7 +11326,7 @@
         <v>0.9431885129787733</v>
       </c>
       <c r="D400">
-        <v>0.1368239960764474</v>
+        <v>0.4018102728430119</v>
       </c>
       <c r="E400">
         <v>0.2065727343248582</v>
@@ -11352,7 +11352,7 @@
         <v>0.9597192230086686</v>
       </c>
       <c r="D401">
-        <v>0.1792048136504286</v>
+        <v>0.4214200194882047</v>
       </c>
       <c r="E401">
         <v>0.1739417516683718</v>
@@ -11378,7 +11378,7 @@
         <v>0.976502976558876</v>
       </c>
       <c r="D402">
-        <v>0.1715979982944431</v>
+        <v>0.3558879104460916</v>
       </c>
       <c r="E402">
         <v>0.1328499345383937</v>
@@ -11404,7 +11404,7 @@
         <v>0.9877638878333675</v>
       </c>
       <c r="D403">
-        <v>0.1621318479798163</v>
+        <v>0.3491699625103446</v>
       </c>
       <c r="E403">
         <v>0.09586865720011525</v>
@@ -11430,7 +11430,7 @@
         <v>0.9920271496379661</v>
       </c>
       <c r="D404">
-        <v>0.1599126135091943</v>
+        <v>0.338581905590387</v>
       </c>
       <c r="E404">
         <v>0.07738588011984109</v>
@@ -11456,7 +11456,7 @@
         <v>0.9952633966927865</v>
       </c>
       <c r="D405">
-        <v>0.1784188510413832</v>
+        <v>0.3544240406991219</v>
       </c>
       <c r="E405">
         <v>0.05964697545634128</v>
@@ -11482,7 +11482,7 @@
         <v>0.9978117796661393</v>
       </c>
       <c r="D406">
-        <v>0.1742379963096116</v>
+        <v>0.3522497340504182</v>
       </c>
       <c r="E406">
         <v>0.04054155892152782</v>
@@ -11508,7 +11508,7 @@
         <v>0.9989993002900244</v>
       </c>
       <c r="D407">
-        <v>0.1716451211894837</v>
+        <v>0.3601217203863235</v>
       </c>
       <c r="E407">
         <v>0.02741617140557343</v>
@@ -11534,7 +11534,7 @@
         <v>0.9991894166085806</v>
       </c>
       <c r="D408">
-        <v>0.1710634216596304</v>
+        <v>0.3438116088042665</v>
       </c>
       <c r="E408">
         <v>0.0246748073258509</v>
@@ -11560,7 +11560,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D409">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E409">
         <v>0.02397438301374079</v>
@@ -11586,7 +11586,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D410">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E410">
         <v>0.02397438301374079</v>
@@ -11612,7 +11612,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D411">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E411">
         <v>0.02397438301374079</v>
@@ -11638,7 +11638,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D412">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E412">
         <v>0.02397438301374079</v>
@@ -11664,7 +11664,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D413">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E413">
         <v>0.02397438301374079</v>
@@ -11690,7 +11690,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D414">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E414">
         <v>0.02397438301374079</v>
@@ -11716,7 +11716,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D415">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E415">
         <v>0.02397438301374079</v>
@@ -11742,7 +11742,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D416">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E416">
         <v>0.02397438301374079</v>
@@ -11768,7 +11768,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D417">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E417">
         <v>0.02397438301374079</v>
@@ -11794,7 +11794,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D418">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E418">
         <v>0.02397438301374079</v>
@@ -11820,7 +11820,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D419">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E419">
         <v>0.02397438301374079</v>
@@ -11846,7 +11846,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D420">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E420">
         <v>0.02397438301374079</v>
@@ -11872,7 +11872,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D421">
-        <v>0.1723775207447437</v>
+        <v>0.3512574067165806</v>
       </c>
       <c r="E421">
         <v>0.02397438301374079</v>
@@ -11898,7 +11898,7 @@
         <v>0.5988431291201763</v>
       </c>
       <c r="D422">
-        <v>-0.1743746156451604</v>
+        <v>0.4735440187475364</v>
       </c>
       <c r="E422">
         <v>0.5489237697412775</v>
@@ -11924,7 +11924,7 @@
         <v>0.7368999550328967</v>
       </c>
       <c r="D423">
-        <v>-0.02269140440960049</v>
+        <v>0.448913820651163</v>
       </c>
       <c r="E423">
         <v>0.4445446426916474</v>
@@ -11950,7 +11950,7 @@
         <v>0.7999702272369265</v>
       </c>
       <c r="D424">
-        <v>0.05511053590408832</v>
+        <v>0.4393110167683543</v>
       </c>
       <c r="E424">
         <v>0.3876164863580742</v>
@@ -11976,7 +11976,7 @@
         <v>0.8646646583558713</v>
       </c>
       <c r="D425">
-        <v>-0.04981629222507267</v>
+        <v>0.3783224984307695</v>
       </c>
       <c r="E425">
         <v>0.3188309927865804</v>
@@ -12002,7 +12002,7 @@
         <v>0.9071532495708122</v>
       </c>
       <c r="D426">
-        <v>0.07085983558992315</v>
+        <v>0.3532431831842276</v>
       </c>
       <c r="E426">
         <v>0.2640816798041172</v>
@@ -12028,7 +12028,7 @@
         <v>0.9550656382362889</v>
       </c>
       <c r="D427">
-        <v>0.1628813053977138</v>
+        <v>0.4028443103513066</v>
       </c>
       <c r="E427">
         <v>0.1837148271070299</v>
@@ -12054,7 +12054,7 @@
         <v>0.9792174479143287</v>
       </c>
       <c r="D428">
-        <v>0.1690978153147062</v>
+        <v>0.4156193003739896</v>
       </c>
       <c r="E428">
         <v>0.1249408218819773</v>
@@ -12080,7 +12080,7 @@
         <v>0.9898588058048032</v>
       </c>
       <c r="D429">
-        <v>0.1548327385674569</v>
+        <v>0.3956568851978063</v>
       </c>
       <c r="E429">
         <v>0.08727693158481444</v>
@@ -12106,7 +12106,7 @@
         <v>0.9944113601241985</v>
       </c>
       <c r="D430">
-        <v>0.1447925297321093</v>
+        <v>0.392849919065692</v>
       </c>
       <c r="E430">
         <v>0.06479000034644779</v>
@@ -12132,7 +12132,7 @@
         <v>0.9965507398659803</v>
       </c>
       <c r="D431">
-        <v>0.202337956372147</v>
+        <v>0.4106896324769288</v>
       </c>
       <c r="E431">
         <v>0.05090001310398672</v>
@@ -12158,7 +12158,7 @@
         <v>0.9976924845512801</v>
       </c>
       <c r="D432">
-        <v>0.1762349827385747</v>
+        <v>0.3966747795259919</v>
       </c>
       <c r="E432">
         <v>0.04163199553668302</v>
@@ -12184,7 +12184,7 @@
         <v>0.9982918078747677</v>
       </c>
       <c r="D433">
-        <v>0.1608967375166847</v>
+        <v>0.4000862294009279</v>
       </c>
       <c r="E433">
         <v>0.03581980996002205</v>
@@ -12210,7 +12210,7 @@
         <v>0.9989774977264244</v>
       </c>
       <c r="D434">
-        <v>0.1686293120886335</v>
+        <v>0.3943401748394239</v>
       </c>
       <c r="E434">
         <v>0.02771322455916063</v>
@@ -12236,7 +12236,7 @@
         <v>0.9991961081405938</v>
       </c>
       <c r="D435">
-        <v>0.1745201094503457</v>
+        <v>0.3961648615374024</v>
       </c>
       <c r="E435">
         <v>0.02457274846454128</v>
@@ -12262,7 +12262,7 @@
         <v>0.9992188441877627</v>
       </c>
       <c r="D436">
-        <v>0.1736553505468164</v>
+        <v>0.4039940704542353</v>
       </c>
       <c r="E436">
         <v>0.0242227671245026</v>
@@ -12288,7 +12288,7 @@
         <v>0.9992346098478398</v>
       </c>
       <c r="D437">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E437">
         <v>0.02397708344596199</v>
@@ -12314,7 +12314,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D438">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E438">
         <v>0.02397438301374079</v>
@@ -12340,7 +12340,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D439">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E439">
         <v>0.02397438301374079</v>
@@ -12366,7 +12366,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D440">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E440">
         <v>0.02397438301374079</v>
@@ -12392,7 +12392,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D441">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E441">
         <v>0.02397438301374079</v>
@@ -12418,7 +12418,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D442">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E442">
         <v>0.02397438301374079</v>
@@ -12444,7 +12444,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D443">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E443">
         <v>0.02397438301374079</v>
@@ -12470,7 +12470,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D444">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E444">
         <v>0.02397438301374079</v>
@@ -12496,7 +12496,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D445">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E445">
         <v>0.02397438301374079</v>
@@ -12522,7 +12522,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D446">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E446">
         <v>0.02397438301374079</v>
@@ -12548,7 +12548,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D447">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E447">
         <v>0.02397438301374079</v>
@@ -12574,7 +12574,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D448">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E448">
         <v>0.02397438301374079</v>
@@ -12600,7 +12600,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D449">
-        <v>0.1809186298888842</v>
+        <v>0.3980167363417781</v>
       </c>
       <c r="E449">
         <v>0.02397438301374079</v>
@@ -12626,7 +12626,7 @@
         <v>0.5988431291201761</v>
       </c>
       <c r="D450">
-        <v>-0.1743746156451631</v>
+        <v>0.4735440187475362</v>
       </c>
       <c r="E450">
         <v>0.5489237697412777</v>
@@ -12652,7 +12652,7 @@
         <v>0.7063035323071677</v>
       </c>
       <c r="D451">
-        <v>-0.06212730999013916</v>
+        <v>0.453084418119084</v>
       </c>
       <c r="E451">
         <v>0.4696823943325187</v>
@@ -12678,7 +12678,7 @@
         <v>0.7588430145007727</v>
       </c>
       <c r="D452">
-        <v>-0.04629667806197646</v>
+        <v>0.3951390031529819</v>
       </c>
       <c r="E452">
         <v>0.4256031591026138</v>
@@ -12704,7 +12704,7 @@
         <v>0.8318545988389252</v>
       </c>
       <c r="D453">
-        <v>0.1022349938069642</v>
+        <v>0.319005986807629</v>
       </c>
       <c r="E453">
         <v>0.3553836279194085</v>
@@ -12730,7 +12730,7 @@
         <v>0.9113007198238035</v>
       </c>
       <c r="D454">
-        <v>0.3065278250069847</v>
+        <v>0.3125005595720407</v>
       </c>
       <c r="E454">
         <v>0.2581160244343077</v>
@@ -12756,7 +12756,7 @@
         <v>0.9572729316433601</v>
       </c>
       <c r="D455">
-        <v>0.3683910747137618</v>
+        <v>0.4083356396624245</v>
       </c>
       <c r="E455">
         <v>0.1791457326187144</v>
@@ -12782,7 +12782,7 @@
         <v>0.9814267732721154</v>
       </c>
       <c r="D456">
-        <v>0.3111845470222069</v>
+        <v>0.3185833522545135</v>
       </c>
       <c r="E456">
         <v>0.11811324459369</v>
@@ -12808,7 +12808,7 @@
         <v>0.9891493604766384</v>
       </c>
       <c r="D457">
-        <v>0.21858923696208</v>
+        <v>0.2478866251432655</v>
       </c>
       <c r="E457">
         <v>0.09027813684148572</v>
@@ -12834,7 +12834,7 @@
         <v>0.9963801380429785</v>
       </c>
       <c r="D458">
-        <v>0.2345554757068408</v>
+        <v>0.2539931818366225</v>
       </c>
       <c r="E458">
         <v>0.05214358950756014</v>
@@ -12860,7 +12860,7 @@
         <v>0.9985506906836663</v>
       </c>
       <c r="D459">
-        <v>0.240876070795694</v>
+        <v>0.2570226196327452</v>
       </c>
       <c r="E459">
         <v>0.03299403734503997</v>
@@ -12886,7 +12886,7 @@
         <v>0.9992254629987566</v>
       </c>
       <c r="D460">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E460">
         <v>0.02411992786013733</v>
@@ -12912,7 +12912,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D461">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E461">
         <v>0.02397438301374079</v>
@@ -12938,7 +12938,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D462">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E462">
         <v>0.02397438301374079</v>
@@ -12964,7 +12964,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D463">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E463">
         <v>0.02397438301374079</v>
@@ -12990,7 +12990,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D464">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E464">
         <v>0.02397438301374079</v>
@@ -13016,7 +13016,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D465">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E465">
         <v>0.02397438301374079</v>
@@ -13042,7 +13042,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D466">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E466">
         <v>0.02397438301374079</v>
@@ -13068,7 +13068,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D467">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E467">
         <v>0.02397438301374079</v>
@@ -13094,7 +13094,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D468">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E468">
         <v>0.02397438301374079</v>
@@ -13120,7 +13120,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D469">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E469">
         <v>0.02397438301374079</v>
@@ -13146,7 +13146,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D470">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E470">
         <v>0.02397438301374079</v>
@@ -13172,7 +13172,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D471">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E471">
         <v>0.02397438301374079</v>
@@ -13198,7 +13198,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D472">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E472">
         <v>0.02397438301374079</v>
@@ -13224,7 +13224,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D473">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E473">
         <v>0.02397438301374079</v>
@@ -13250,7 +13250,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D474">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E474">
         <v>0.02397438301374079</v>
@@ -13276,7 +13276,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D475">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E475">
         <v>0.02397438301374079</v>
@@ -13302,7 +13302,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D476">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E476">
         <v>0.02397438301374079</v>
@@ -13328,7 +13328,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D477">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E477">
         <v>0.02397438301374079</v>
@@ -13354,7 +13354,7 @@
         <v>0.5988431291201761</v>
       </c>
       <c r="D478">
-        <v>-0.1743746156451631</v>
+        <v>0.4735440187475362</v>
       </c>
       <c r="E478">
         <v>0.5489237697412777</v>
@@ -13380,7 +13380,7 @@
         <v>0.7063035323071677</v>
       </c>
       <c r="D479">
-        <v>-0.06212730999013916</v>
+        <v>0.453084418119084</v>
       </c>
       <c r="E479">
         <v>0.4696823943325187</v>
@@ -13406,7 +13406,7 @@
         <v>0.7588430145007727</v>
       </c>
       <c r="D480">
-        <v>-0.04629667806197646</v>
+        <v>0.3951390031529819</v>
       </c>
       <c r="E480">
         <v>0.4256031591026138</v>
@@ -13432,7 +13432,7 @@
         <v>0.8318545988389252</v>
       </c>
       <c r="D481">
-        <v>0.1022349938069642</v>
+        <v>0.319005986807629</v>
       </c>
       <c r="E481">
         <v>0.3553836279194085</v>
@@ -13458,7 +13458,7 @@
         <v>0.9113007198238035</v>
       </c>
       <c r="D482">
-        <v>0.3065278250069847</v>
+        <v>0.3125005595720407</v>
       </c>
       <c r="E482">
         <v>0.2581160244343077</v>
@@ -13484,7 +13484,7 @@
         <v>0.9572729316433601</v>
       </c>
       <c r="D483">
-        <v>0.3683910747137618</v>
+        <v>0.4083356396624245</v>
       </c>
       <c r="E483">
         <v>0.1791457326187144</v>
@@ -13510,7 +13510,7 @@
         <v>0.9814267732721154</v>
       </c>
       <c r="D484">
-        <v>0.3111845470222069</v>
+        <v>0.3185833522545135</v>
       </c>
       <c r="E484">
         <v>0.11811324459369</v>
@@ -13536,7 +13536,7 @@
         <v>0.9891493604766384</v>
       </c>
       <c r="D485">
-        <v>0.21858923696208</v>
+        <v>0.2478866251432655</v>
       </c>
       <c r="E485">
         <v>0.09027813684148572</v>
@@ -13562,7 +13562,7 @@
         <v>0.9963801380429785</v>
       </c>
       <c r="D486">
-        <v>0.2345554757068408</v>
+        <v>0.2539931818366225</v>
       </c>
       <c r="E486">
         <v>0.05214358950756014</v>
@@ -13588,7 +13588,7 @@
         <v>0.9985506906836663</v>
       </c>
       <c r="D487">
-        <v>0.240876070795694</v>
+        <v>0.2570226196327452</v>
       </c>
       <c r="E487">
         <v>0.03299403734503997</v>
@@ -13614,7 +13614,7 @@
         <v>0.9992254629987566</v>
       </c>
       <c r="D488">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E488">
         <v>0.02411992786013733</v>
@@ -13640,7 +13640,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D489">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E489">
         <v>0.02397438301374079</v>
@@ -13666,7 +13666,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D490">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E490">
         <v>0.02397438301374079</v>
@@ -13692,7 +13692,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D491">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E491">
         <v>0.02397438301374079</v>
@@ -13718,7 +13718,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D492">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E492">
         <v>0.02397438301374079</v>
@@ -13744,7 +13744,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D493">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E493">
         <v>0.02397438301374079</v>
@@ -13770,7 +13770,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D494">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E494">
         <v>0.02397438301374079</v>
@@ -13796,7 +13796,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D495">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E495">
         <v>0.02397438301374079</v>
@@ -13822,7 +13822,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D496">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E496">
         <v>0.02397438301374079</v>
@@ -13848,7 +13848,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D497">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E497">
         <v>0.02397438301374079</v>
@@ -13874,7 +13874,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D498">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E498">
         <v>0.02397438301374079</v>
@@ -13900,7 +13900,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D499">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E499">
         <v>0.02397438301374079</v>
@@ -13926,7 +13926,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D500">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E500">
         <v>0.02397438301374079</v>
@@ -13952,7 +13952,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D501">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E501">
         <v>0.02397438301374079</v>
@@ -13978,7 +13978,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D502">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E502">
         <v>0.02397438301374079</v>
@@ -14004,7 +14004,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D503">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E503">
         <v>0.02397438301374079</v>
@@ -14030,7 +14030,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D504">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E504">
         <v>0.02397438301374079</v>
@@ -14056,7 +14056,7 @@
         <v>0.9992347822431057</v>
       </c>
       <c r="D505">
-        <v>0.236633625724453</v>
+        <v>0.2507802900875752</v>
       </c>
       <c r="E505">
         <v>0.02397438301374079</v>
@@ -14082,7 +14082,7 @@
         <v>0.5988431291201763</v>
       </c>
       <c r="D506">
-        <v>-0.1743746156451687</v>
+        <v>0.4735440187475355</v>
       </c>
       <c r="E506">
         <v>0.5489237697412777</v>
@@ -14108,7 +14108,7 @@
         <v>0.7063035323071677</v>
       </c>
       <c r="D507">
-        <v>-0.06212730999013916</v>
+        <v>0.453084418119084</v>
       </c>
       <c r="E507">
         <v>0.4696823943325187</v>
@@ -14134,7 +14134,7 @@
         <v>0.7587022020763211</v>
       </c>
       <c r="D508">
-        <v>-0.1111760144737881</v>
+        <v>0.3550872041080435</v>
       </c>
       <c r="E508">
         <v>0.4257273965713116</v>
@@ -14160,7 +14160,7 @@
         <v>0.8068712230790474</v>
       </c>
       <c r="D509">
-        <v>0.1383272746583019</v>
+        <v>0.3649421745966926</v>
       </c>
       <c r="E509">
         <v>0.3808714459935335</v>
@@ -14186,7 +14186,7 @@
         <v>0.8758160062347562</v>
       </c>
       <c r="D510">
-        <v>0.1409316229869948</v>
+        <v>0.2078887140630729</v>
       </c>
       <c r="E510">
         <v>0.3054131490992954</v>
@@ -14212,7 +14212,7 @@
         <v>0.9100316738790775</v>
       </c>
       <c r="D511">
-        <v>0.1808476447657307</v>
+        <v>0.1864069100573501</v>
       </c>
       <c r="E511">
         <v>0.2599559366246232</v>
@@ -14238,7 +14238,7 @@
         <v>0.9348960286078394</v>
       </c>
       <c r="D512">
-        <v>0.2459207064254439</v>
+        <v>0.2350896981564428</v>
       </c>
       <c r="E512">
         <v>0.221135598194625</v>
@@ -14264,7 +14264,7 @@
         <v>0.9483856865739744</v>
       </c>
       <c r="D513">
-        <v>0.237411017487047</v>
+        <v>0.2218542408607459</v>
       </c>
       <c r="E513">
         <v>0.1968974070976281</v>
@@ -14290,7 +14290,7 @@
         <v>0.9603007607268623</v>
       </c>
       <c r="D514">
-        <v>0.2422789018874756</v>
+        <v>0.2145754162900947</v>
       </c>
       <c r="E514">
         <v>0.1726815793485367</v>
@@ -14316,7 +14316,7 @@
         <v>0.9623095316300834</v>
       </c>
       <c r="D515">
-        <v>0.2564486891831006</v>
+        <v>0.2286066384521009</v>
       </c>
       <c r="E515">
         <v>0.1682560491101809</v>
@@ -14342,7 +14342,7 @@
         <v>0.9625161655253712</v>
       </c>
       <c r="D516">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E516">
         <v>0.1677941924719009</v>
@@ -14368,7 +14368,7 @@
         <v>0.9625546991356728</v>
       </c>
       <c r="D517">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E517">
         <v>0.1677079235686821</v>
@@ -14394,7 +14394,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D518">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E518">
         <v>0.1677042211825983</v>
@@ -14420,7 +14420,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D519">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E519">
         <v>0.1677042211825983</v>
@@ -14446,7 +14446,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D520">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E520">
         <v>0.1677042211825983</v>
@@ -14472,7 +14472,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D521">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E521">
         <v>0.1677042211825983</v>
@@ -14498,7 +14498,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D522">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E522">
         <v>0.1677042211825983</v>
@@ -14524,7 +14524,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D523">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E523">
         <v>0.1677042211825983</v>
@@ -14550,7 +14550,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D524">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E524">
         <v>0.1677042211825983</v>
@@ -14576,7 +14576,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D525">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E525">
         <v>0.1677042211825983</v>
@@ -14602,7 +14602,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D526">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E526">
         <v>0.1677042211825983</v>
@@ -14628,7 +14628,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D527">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E527">
         <v>0.1677042211825983</v>
@@ -14654,7 +14654,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D528">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E528">
         <v>0.1677042211825983</v>
@@ -14680,7 +14680,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D529">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E529">
         <v>0.1677042211825983</v>
@@ -14706,7 +14706,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D530">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E530">
         <v>0.1677042211825983</v>
@@ -14732,7 +14732,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D531">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E531">
         <v>0.1677042211825983</v>
@@ -14758,7 +14758,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D532">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E532">
         <v>0.1677042211825983</v>
@@ -14784,7 +14784,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D533">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E533">
         <v>0.1677042211825983</v>
@@ -14810,7 +14810,7 @@
         <v>0.5988431291201763</v>
       </c>
       <c r="D534">
-        <v>-0.1743746156451687</v>
+        <v>0.4735440187475355</v>
       </c>
       <c r="E534">
         <v>0.5489237697412777</v>
@@ -14836,7 +14836,7 @@
         <v>0.7063035323071677</v>
       </c>
       <c r="D535">
-        <v>-0.06212730999013916</v>
+        <v>0.453084418119084</v>
       </c>
       <c r="E535">
         <v>0.4696823943325187</v>
@@ -14862,7 +14862,7 @@
         <v>0.7587022020763211</v>
       </c>
       <c r="D536">
-        <v>-0.1111760144737881</v>
+        <v>0.3550872041080435</v>
       </c>
       <c r="E536">
         <v>0.4257273965713116</v>
@@ -14888,7 +14888,7 @@
         <v>0.8068712230790474</v>
       </c>
       <c r="D537">
-        <v>0.1383272746583019</v>
+        <v>0.3649421745966926</v>
       </c>
       <c r="E537">
         <v>0.3808714459935335</v>
@@ -14914,7 +14914,7 @@
         <v>0.8758160062347562</v>
       </c>
       <c r="D538">
-        <v>0.1409316229869948</v>
+        <v>0.2078887140630729</v>
       </c>
       <c r="E538">
         <v>0.3054131490992954</v>
@@ -14940,7 +14940,7 @@
         <v>0.9100316738790775</v>
       </c>
       <c r="D539">
-        <v>0.1808476447657307</v>
+        <v>0.1864069100573501</v>
       </c>
       <c r="E539">
         <v>0.2599559366246232</v>
@@ -14966,7 +14966,7 @@
         <v>0.9348960286078394</v>
       </c>
       <c r="D540">
-        <v>0.2459207064254439</v>
+        <v>0.2350896981564428</v>
       </c>
       <c r="E540">
         <v>0.221135598194625</v>
@@ -14992,7 +14992,7 @@
         <v>0.9483856865739744</v>
       </c>
       <c r="D541">
-        <v>0.237411017487047</v>
+        <v>0.2218542408607459</v>
       </c>
       <c r="E541">
         <v>0.1968974070976281</v>
@@ -15018,7 +15018,7 @@
         <v>0.9603007607268623</v>
       </c>
       <c r="D542">
-        <v>0.2422789018874756</v>
+        <v>0.2145754162900947</v>
       </c>
       <c r="E542">
         <v>0.1726815793485367</v>
@@ -15044,7 +15044,7 @@
         <v>0.9623095316300834</v>
       </c>
       <c r="D543">
-        <v>0.2564486891831006</v>
+        <v>0.2286066384521009</v>
       </c>
       <c r="E543">
         <v>0.1682560491101809</v>
@@ -15070,7 +15070,7 @@
         <v>0.9625161655253712</v>
       </c>
       <c r="D544">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E544">
         <v>0.1677941924719009</v>
@@ -15096,7 +15096,7 @@
         <v>0.9625546991356728</v>
       </c>
       <c r="D545">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E545">
         <v>0.1677079235686821</v>
@@ -15122,7 +15122,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D546">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E546">
         <v>0.1677042211825983</v>
@@ -15148,7 +15148,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D547">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E547">
         <v>0.1677042211825983</v>
@@ -15174,7 +15174,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D548">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E548">
         <v>0.1677042211825983</v>
@@ -15200,7 +15200,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D549">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E549">
         <v>0.1677042211825983</v>
@@ -15226,7 +15226,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D550">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E550">
         <v>0.1677042211825983</v>
@@ -15252,7 +15252,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D551">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E551">
         <v>0.1677042211825983</v>
@@ -15278,7 +15278,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D552">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E552">
         <v>0.1677042211825983</v>
@@ -15304,7 +15304,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D553">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E553">
         <v>0.1677042211825983</v>
@@ -15330,7 +15330,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D554">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E554">
         <v>0.1677042211825983</v>
@@ -15356,7 +15356,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D555">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E555">
         <v>0.1677042211825983</v>
@@ -15382,7 +15382,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D556">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E556">
         <v>0.1677042211825983</v>
@@ -15408,7 +15408,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D557">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E557">
         <v>0.1677042211825983</v>
@@ -15434,7 +15434,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D558">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E558">
         <v>0.1677042211825983</v>
@@ -15460,7 +15460,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D559">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E559">
         <v>0.1677042211825983</v>
@@ -15486,7 +15486,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D560">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E560">
         <v>0.1677042211825983</v>
@@ -15512,7 +15512,7 @@
         <v>0.962556352431803</v>
       </c>
       <c r="D561">
-        <v>0.2575989161745292</v>
+        <v>0.2237289504615079</v>
       </c>
       <c r="E561">
         <v>0.1677042211825983</v>
@@ -15538,7 +15538,7 @@
         <v>0.5678531138601541</v>
       </c>
       <c r="D562">
-        <v>-1.817882366492515</v>
+        <v>0.2193620225783365</v>
       </c>
       <c r="E562">
         <v>0.5697320008221698</v>
@@ -15564,7 +15564,7 @@
         <v>0.6195701269936087</v>
       </c>
       <c r="D563">
-        <v>-1.232019437812338</v>
+        <v>0.319875039938017</v>
       </c>
       <c r="E563">
         <v>0.5345547904037966</v>
@@ -15590,7 +15590,7 @@
         <v>0.7011963024882915</v>
       </c>
       <c r="D564">
-        <v>-1.347097094678875</v>
+        <v>0.2183475180246038</v>
       </c>
       <c r="E564">
         <v>0.4737485604637603</v>
@@ -15616,7 +15616,7 @@
         <v>0.7681834607498136</v>
       </c>
       <c r="D565">
-        <v>-1.318639304259071</v>
+        <v>0.1613820914999263</v>
       </c>
       <c r="E565">
         <v>0.4172795762548827</v>
@@ -15642,7 +15642,7 @@
         <v>0.8056310519932302</v>
       </c>
       <c r="D566">
-        <v>-1.207436876313519</v>
+        <v>0.0805152317779757</v>
       </c>
       <c r="E566">
         <v>0.3820923668174497</v>
@@ -15668,7 +15668,7 @@
         <v>0.8224333714950613</v>
       </c>
       <c r="D567">
-        <v>-1.587640794713901</v>
+        <v>-0.004113503725573286</v>
       </c>
       <c r="E567">
         <v>0.3652040575342622</v>
@@ -15694,7 +15694,7 @@
         <v>0.8413077380917646</v>
       </c>
       <c r="D568">
-        <v>-1.283528404416983</v>
+        <v>0.1226223561554687</v>
       </c>
       <c r="E568">
         <v>0.3452492905791878</v>
@@ -15720,7 +15720,7 @@
         <v>0.8543841848359865</v>
       </c>
       <c r="D569">
-        <v>-1.678279895409471</v>
+        <v>0.07004855318120451</v>
       </c>
       <c r="E569">
         <v>0.3307190353731446</v>
@@ -15746,7 +15746,7 @@
         <v>0.865737994244526</v>
       </c>
       <c r="D570">
-        <v>-1.520095620488103</v>
+        <v>-0.1191132792565754</v>
       </c>
       <c r="E570">
         <v>0.31756416195113</v>
@@ -15772,7 +15772,7 @@
         <v>0.873592379306811</v>
       </c>
       <c r="D571">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E571">
         <v>0.3081353668031593</v>
@@ -15798,7 +15798,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D572">
-        <v>-1.498050162197964</v>
+        <v>0.124652814514066</v>
       </c>
       <c r="E572">
         <v>0.3052530836139106</v>
@@ -15824,7 +15824,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D573">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E573">
         <v>0.3052530836139106</v>
@@ -15850,7 +15850,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D574">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E574">
         <v>0.3052530836139106</v>
@@ -15876,7 +15876,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D575">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E575">
         <v>0.3052530836139106</v>
@@ -15902,7 +15902,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D576">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E576">
         <v>0.3052530836139106</v>
@@ -15928,7 +15928,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D577">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E577">
         <v>0.3052530836139106</v>
@@ -15954,7 +15954,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D578">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E578">
         <v>0.3052530836139106</v>
@@ -15980,7 +15980,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D579">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E579">
         <v>0.3052530836139106</v>
@@ -16006,7 +16006,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D580">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E580">
         <v>0.3052530836139106</v>
@@ -16032,7 +16032,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D581">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E581">
         <v>0.3052530836139106</v>
@@ -16058,7 +16058,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D582">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E582">
         <v>0.3052530836139106</v>
@@ -16084,7 +16084,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D583">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E583">
         <v>0.3052530836139106</v>
@@ -16110,7 +16110,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D584">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E584">
         <v>0.3052530836139106</v>
@@ -16136,7 +16136,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D585">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E585">
         <v>0.3052530836139106</v>
@@ -16162,7 +16162,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D586">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E586">
         <v>0.3052530836139106</v>
@@ -16188,7 +16188,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D587">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E587">
         <v>0.3052530836139106</v>
@@ -16214,7 +16214,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D588">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E588">
         <v>0.3052530836139106</v>
@@ -16240,7 +16240,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D589">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E589">
         <v>0.3052530836139106</v>
@@ -16266,7 +16266,7 @@
         <v>0.5678531138601541</v>
       </c>
       <c r="D590">
-        <v>-1.817882366492515</v>
+        <v>0.2193620225783365</v>
       </c>
       <c r="E590">
         <v>0.5697320008221698</v>
@@ -16292,7 +16292,7 @@
         <v>0.6195701269936087</v>
       </c>
       <c r="D591">
-        <v>-1.232019437812338</v>
+        <v>0.319875039938017</v>
       </c>
       <c r="E591">
         <v>0.5345547904037966</v>
@@ -16318,7 +16318,7 @@
         <v>0.7011963024882915</v>
       </c>
       <c r="D592">
-        <v>-1.347097094678875</v>
+        <v>0.2183475180246038</v>
       </c>
       <c r="E592">
         <v>0.4737485604637603</v>
@@ -16344,7 +16344,7 @@
         <v>0.7681834607498136</v>
       </c>
       <c r="D593">
-        <v>-1.318639304259071</v>
+        <v>0.1613820914999263</v>
       </c>
       <c r="E593">
         <v>0.4172795762548827</v>
@@ -16370,7 +16370,7 @@
         <v>0.8056310519932302</v>
       </c>
       <c r="D594">
-        <v>-1.207436876313519</v>
+        <v>0.0805152317779757</v>
       </c>
       <c r="E594">
         <v>0.3820923668174497</v>
@@ -16396,7 +16396,7 @@
         <v>0.8224333714950613</v>
       </c>
       <c r="D595">
-        <v>-1.587640794713901</v>
+        <v>-0.004113503725573286</v>
       </c>
       <c r="E595">
         <v>0.3652040575342622</v>
@@ -16422,7 +16422,7 @@
         <v>0.8413077380917646</v>
       </c>
       <c r="D596">
-        <v>-1.283528404416983</v>
+        <v>0.1226223561554687</v>
       </c>
       <c r="E596">
         <v>0.3452492905791878</v>
@@ -16448,7 +16448,7 @@
         <v>0.8543841848359865</v>
       </c>
       <c r="D597">
-        <v>-1.678279895409471</v>
+        <v>0.07004855318120451</v>
       </c>
       <c r="E597">
         <v>0.3307190353731446</v>
@@ -16474,7 +16474,7 @@
         <v>0.865737994244526</v>
       </c>
       <c r="D598">
-        <v>-1.520095620488103</v>
+        <v>-0.1191132792565754</v>
       </c>
       <c r="E598">
         <v>0.31756416195113</v>
@@ -16500,7 +16500,7 @@
         <v>0.873592379306811</v>
       </c>
       <c r="D599">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E599">
         <v>0.3081353668031593</v>
@@ -16526,7 +16526,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D600">
-        <v>-1.498050162197964</v>
+        <v>0.124652814514066</v>
       </c>
       <c r="E600">
         <v>0.3052530836139106</v>
@@ -16552,7 +16552,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D601">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E601">
         <v>0.3052530836139106</v>
@@ -16578,7 +16578,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D602">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E602">
         <v>0.3052530836139106</v>
@@ -16604,7 +16604,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D603">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E603">
         <v>0.3052530836139106</v>
@@ -16630,7 +16630,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D604">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E604">
         <v>0.3052530836139106</v>
@@ -16656,7 +16656,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D605">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E605">
         <v>0.3052530836139106</v>
@@ -16682,7 +16682,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D606">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E606">
         <v>0.3052530836139106</v>
@@ -16708,7 +16708,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D607">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E607">
         <v>0.3052530836139106</v>
@@ -16734,7 +16734,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D608">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E608">
         <v>0.3052530836139106</v>
@@ -16760,7 +16760,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D609">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E609">
         <v>0.3052530836139106</v>
@@ -16786,7 +16786,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D610">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E610">
         <v>0.3052530836139106</v>
@@ -16812,7 +16812,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D611">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E611">
         <v>0.3052530836139106</v>
@@ -16838,7 +16838,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D612">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E612">
         <v>0.3052530836139106</v>
@@ -16864,7 +16864,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D613">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E613">
         <v>0.3052530836139106</v>
@@ -16890,7 +16890,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D614">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E614">
         <v>0.3052530836139106</v>
@@ -16916,7 +16916,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D615">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E615">
         <v>0.3052530836139106</v>
@@ -16942,7 +16942,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D616">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E616">
         <v>0.3052530836139106</v>
@@ -16968,7 +16968,7 @@
         <v>0.8759461405294349</v>
       </c>
       <c r="D617">
-        <v>-1.298565945858505</v>
+        <v>-0.10334533244836</v>
       </c>
       <c r="E617">
         <v>0.3052530836139106</v>
@@ -17030,7 +17030,7 @@
         <v>0.8289653648369854</v>
       </c>
       <c r="D2">
-        <v>0.4011152634756291</v>
+        <v>0.5584790585511303</v>
       </c>
       <c r="E2">
         <v>0.3584238929000814</v>
@@ -17056,7 +17056,7 @@
         <v>0.8622771313736535</v>
       </c>
       <c r="D3">
-        <v>0.336355607837419</v>
+        <v>0.5391198959348613</v>
       </c>
       <c r="E3">
         <v>0.3216310360455206</v>
@@ -17082,7 +17082,7 @@
         <v>0.8796361273055593</v>
       </c>
       <c r="D4">
-        <v>0.1946123881387299</v>
+        <v>0.5533199609858788</v>
       </c>
       <c r="E4">
         <v>0.3006789299446994</v>
@@ -17108,7 +17108,7 @@
         <v>0.8880130942179826</v>
       </c>
       <c r="D5">
-        <v>0.08164890630545718</v>
+        <v>0.5558447998200267</v>
       </c>
       <c r="E5">
         <v>0.2900270747510987</v>
@@ -17134,7 +17134,7 @@
         <v>0.883985873306631</v>
       </c>
       <c r="D6">
-        <v>0.08660646015468398</v>
+        <v>0.5399200012119607</v>
       </c>
       <c r="E6">
         <v>0.2951959244888492</v>
@@ -17160,7 +17160,7 @@
         <v>0.8819356663076874</v>
       </c>
       <c r="D7">
-        <v>0.09719301540502734</v>
+        <v>0.5376118064764015</v>
       </c>
       <c r="E7">
         <v>0.2977928594442254</v>
@@ -17186,7 +17186,7 @@
         <v>0.8998694804644025</v>
       </c>
       <c r="D8">
-        <v>0.1839966451581573</v>
+        <v>0.5723784374917699</v>
       </c>
       <c r="E8">
         <v>0.2742446439324245</v>
@@ -17212,7 +17212,7 @@
         <v>0.9007215301197323</v>
       </c>
       <c r="D9">
-        <v>0.1307572752825545</v>
+        <v>0.566615957613114</v>
       </c>
       <c r="E9">
         <v>0.2730753237333866</v>
@@ -17238,7 +17238,7 @@
         <v>0.9091194701066847</v>
       </c>
       <c r="D10">
-        <v>0.238375006223681</v>
+        <v>0.5995494837918753</v>
       </c>
       <c r="E10">
         <v>0.2612704810990412</v>
@@ -17264,7 +17264,7 @@
         <v>0.912609214287792</v>
       </c>
       <c r="D11">
-        <v>0.2365652893471072</v>
+        <v>0.6095395759390021</v>
       </c>
       <c r="E11">
         <v>0.2562050829830466</v>
@@ -17290,7 +17290,7 @@
         <v>0.9128005628512981</v>
       </c>
       <c r="D12">
-        <v>0.1974727380244984</v>
+        <v>0.6066880984421055</v>
       </c>
       <c r="E12">
         <v>0.2559244393242996</v>
@@ -17316,7 +17316,7 @@
         <v>0.9138417392961108</v>
       </c>
       <c r="D13">
-        <v>0.2493521310986788</v>
+        <v>0.6144253113884566</v>
       </c>
       <c r="E13">
         <v>0.2543919599120868</v>
@@ -17342,7 +17342,7 @@
         <v>0.9186890295978042</v>
       </c>
       <c r="D14">
-        <v>0.2495683825388165</v>
+        <v>0.6093385220758114</v>
       </c>
       <c r="E14">
         <v>0.2471322890139327</v>
@@ -17368,7 +17368,7 @@
         <v>0.9179920564462933</v>
       </c>
       <c r="D15">
-        <v>0.2349820953096573</v>
+        <v>0.6004566285796396</v>
       </c>
       <c r="E15">
         <v>0.2481892007432532</v>
@@ -17394,7 +17394,7 @@
         <v>0.9135744012083697</v>
       </c>
       <c r="D16">
-        <v>0.1882716749293185</v>
+        <v>0.5876967815504701</v>
       </c>
       <c r="E16">
         <v>0.2547863271247288</v>
@@ -17420,7 +17420,7 @@
         <v>0.9149733532489518</v>
       </c>
       <c r="D17">
-        <v>0.1867133407162811</v>
+        <v>0.5958060546734938</v>
       </c>
       <c r="E17">
         <v>0.2527158293242655</v>
@@ -17446,7 +17446,7 @@
         <v>0.9175791142220432</v>
       </c>
       <c r="D18">
-        <v>0.1862532540057391</v>
+        <v>0.5966340567856889</v>
       </c>
       <c r="E18">
         <v>0.2488132811882194</v>
@@ -17472,7 +17472,7 @@
         <v>0.9178136393580429</v>
       </c>
       <c r="D19">
-        <v>0.1925088683434779</v>
+        <v>0.5972130644949112</v>
       </c>
       <c r="E19">
         <v>0.2484590351894922</v>
@@ -17498,7 +17498,7 @@
         <v>0.9136711986470961</v>
       </c>
       <c r="D20">
-        <v>0.2292345646790187</v>
+        <v>0.6102545025750765</v>
       </c>
       <c r="E20">
         <v>0.2546436056758545</v>
@@ -17524,7 +17524,7 @@
         <v>0.8209364440854572</v>
       </c>
       <c r="D21">
-        <v>0.6190245739342466</v>
+        <v>0.6830589208716598</v>
       </c>
       <c r="E21">
         <v>0.3667402038014178</v>
@@ -17550,7 +17550,7 @@
         <v>0.8346801559641142</v>
       </c>
       <c r="D22">
-        <v>0.4201885404146982</v>
+        <v>0.6606897097251061</v>
       </c>
       <c r="E22">
         <v>0.3523849997046797</v>
@@ -17576,7 +17576,7 @@
         <v>0.8580168820735251</v>
       </c>
       <c r="D23">
-        <v>0.327921130366517</v>
+        <v>0.609384064962794</v>
       </c>
       <c r="E23">
         <v>0.3265677350629019</v>
@@ -17602,7 +17602,7 @@
         <v>0.8651198077751072</v>
       </c>
       <c r="D24">
-        <v>0.2225172370953674</v>
+        <v>0.6047715417057862</v>
       </c>
       <c r="E24">
         <v>0.3182944073109606</v>
@@ -17628,7 +17628,7 @@
         <v>0.8590770827955865</v>
       </c>
       <c r="D25">
-        <v>0.3206093384082604</v>
+        <v>0.6334819521021673</v>
       </c>
       <c r="E25">
         <v>0.3253461951161461</v>
@@ -17654,7 +17654,7 @@
         <v>0.8569846858054933</v>
       </c>
       <c r="D26">
-        <v>0.2843543683445154</v>
+        <v>0.6081025513368277</v>
       </c>
       <c r="E26">
         <v>0.3277526350180914</v>
@@ -17680,7 +17680,7 @@
         <v>0.8778520182261168</v>
       </c>
       <c r="D27">
-        <v>0.330884641755931</v>
+        <v>0.6219735865033382</v>
       </c>
       <c r="E27">
         <v>0.3028991589758943</v>
@@ -17706,7 +17706,7 @@
         <v>0.8780263530167136</v>
       </c>
       <c r="D28">
-        <v>0.2721566360636204</v>
+        <v>0.6076155853687191</v>
       </c>
       <c r="E28">
         <v>0.3026829265182019</v>
@@ -17732,7 +17732,7 @@
         <v>0.8881113693584405</v>
       </c>
       <c r="D29">
-        <v>0.3034842001486734</v>
+        <v>0.6153514148316035</v>
       </c>
       <c r="E29">
         <v>0.2898997888545863</v>
@@ -17758,7 +17758,7 @@
         <v>0.8956225431146688</v>
       </c>
       <c r="D30">
-        <v>0.3187975864496576</v>
+        <v>0.6082540314320224</v>
       </c>
       <c r="E30">
         <v>0.2800001572821393</v>
@@ -17784,7 +17784,7 @@
         <v>0.8970018752840222</v>
       </c>
       <c r="D31">
-        <v>0.2504735566384116</v>
+        <v>0.5916786165741694</v>
       </c>
       <c r="E31">
         <v>0.278143924748429</v>
@@ -17810,7 +17810,7 @@
         <v>0.9003858147247853</v>
       </c>
       <c r="D32">
-        <v>0.2763035711522189</v>
+        <v>0.6004208269386118</v>
       </c>
       <c r="E32">
         <v>0.2735366433909391</v>
@@ -17836,7 +17836,7 @@
         <v>0.9070127464558073</v>
       </c>
       <c r="D33">
-        <v>0.2684456717151171</v>
+        <v>0.5946684428213476</v>
       </c>
       <c r="E33">
         <v>0.2642814190075422</v>
@@ -17862,7 +17862,7 @@
         <v>0.9060093155361032</v>
       </c>
       <c r="D34">
-        <v>0.2654385537306161</v>
+        <v>0.5900384231200302</v>
       </c>
       <c r="E34">
         <v>0.2657035309435233</v>
@@ -17888,7 +17888,7 @@
         <v>0.9044453581536762</v>
       </c>
       <c r="D35">
-        <v>0.2358225076340315</v>
+        <v>0.5814902494222047</v>
       </c>
       <c r="E35">
         <v>0.2679049969921537</v>
@@ -17914,7 +17914,7 @@
         <v>0.9085069019535561</v>
       </c>
       <c r="D36">
-        <v>0.2496178584960815</v>
+        <v>0.5834302522977408</v>
       </c>
       <c r="E36">
         <v>0.2621495318109817</v>
@@ -17940,7 +17940,7 @@
         <v>0.9133014605769452</v>
       </c>
       <c r="D37">
-        <v>0.2614188881083329</v>
+        <v>0.592464304310061</v>
       </c>
       <c r="E37">
         <v>0.2551883302564817</v>
@@ -17966,7 +17966,7 @@
         <v>0.9160368707889852</v>
       </c>
       <c r="D38">
-        <v>0.2686441613154199</v>
+        <v>0.5946402060894043</v>
       </c>
       <c r="E38">
         <v>0.2511303648550514</v>
@@ -17992,7 +17992,7 @@
         <v>0.9099282885217912</v>
       </c>
       <c r="D39">
-        <v>0.2287557438991074</v>
+        <v>0.5868521493675607</v>
       </c>
       <c r="E39">
         <v>0.2601052554019845</v>
@@ -18018,7 +18018,7 @@
         <v>0.7903916254775566</v>
       </c>
       <c r="D40">
-        <v>0.5824687793292274</v>
+        <v>0.6987601260657669</v>
       </c>
       <c r="E40">
         <v>0.3967886444362957</v>
@@ -18044,7 +18044,7 @@
         <v>0.8269462305696182</v>
       </c>
       <c r="D41">
-        <v>0.5667810628931704</v>
+        <v>0.6920754669719161</v>
       </c>
       <c r="E41">
         <v>0.3605333561892213</v>
@@ -18070,7 +18070,7 @@
         <v>0.8669255961374249</v>
       </c>
       <c r="D42">
-        <v>0.5158627727581362</v>
+        <v>0.6660290271348379</v>
       </c>
       <c r="E42">
         <v>0.3161565504107447</v>
@@ -18096,7 +18096,7 @@
         <v>0.8764910178107278</v>
       </c>
       <c r="D43">
-        <v>0.4369455099285797</v>
+        <v>0.679125224713671</v>
       </c>
       <c r="E43">
         <v>0.3045819698349775</v>
@@ -18122,7 +18122,7 @@
         <v>0.8786519826243731</v>
       </c>
       <c r="D44">
-        <v>0.4109987869697417</v>
+        <v>0.6533834464728883</v>
       </c>
       <c r="E44">
         <v>0.3019056649672345</v>
@@ -18148,7 +18148,7 @@
         <v>0.8725205993969518</v>
       </c>
       <c r="D45">
-        <v>0.3770223758609634</v>
+        <v>0.6438958774019752</v>
       </c>
       <c r="E45">
         <v>0.3094389124727143</v>
@@ -18174,7 +18174,7 @@
         <v>0.8916664424518694</v>
       </c>
       <c r="D46">
-        <v>0.390681857855844</v>
+        <v>0.6447191750181942</v>
       </c>
       <c r="E46">
         <v>0.2852570733915978</v>
@@ -18200,7 +18200,7 @@
         <v>0.8918191190549779</v>
       </c>
       <c r="D47">
-        <v>0.3177722672221348</v>
+        <v>0.6245686398483514</v>
       </c>
       <c r="E47">
         <v>0.2850559933316122</v>
@@ -18226,7 +18226,7 @@
         <v>0.8970374259136331</v>
       </c>
       <c r="D48">
-        <v>0.3633341077780492</v>
+        <v>0.6426611676308756</v>
       </c>
       <c r="E48">
         <v>0.278095918801384</v>
@@ -18252,7 +18252,7 @@
         <v>0.9037203410282633</v>
       </c>
       <c r="D49">
-        <v>0.3142274735823544</v>
+        <v>0.6291038639338069</v>
       </c>
       <c r="E49">
         <v>0.268919435742842</v>
@@ -18278,7 +18278,7 @@
         <v>0.9027301632154154</v>
       </c>
       <c r="D50">
-        <v>0.2798938642644571</v>
+        <v>0.6187301241349756</v>
       </c>
       <c r="E50">
         <v>0.2702987350286287</v>
@@ -18304,7 +18304,7 @@
         <v>0.9033986208383515</v>
       </c>
       <c r="D51">
-        <v>0.2734742985312986</v>
+        <v>0.6225493873464547</v>
       </c>
       <c r="E51">
         <v>0.2693683605676545</v>
@@ -18330,7 +18330,7 @@
         <v>0.9114249542672332</v>
       </c>
       <c r="D52">
-        <v>0.2780488647562462</v>
+        <v>0.6181943313758289</v>
       </c>
       <c r="E52">
         <v>0.2579351991961015</v>
@@ -18356,7 +18356,7 @@
         <v>0.910967858981067</v>
       </c>
       <c r="D53">
-        <v>0.2254837085544984</v>
+        <v>0.5934531309897432</v>
       </c>
       <c r="E53">
         <v>0.2585998855403255</v>
@@ -18382,7 +18382,7 @@
         <v>0.9105864898526254</v>
       </c>
       <c r="D54">
-        <v>0.1639496070243965</v>
+        <v>0.5726139786552367</v>
       </c>
       <c r="E54">
         <v>0.2591531499322157</v>
@@ -18408,7 +18408,7 @@
         <v>0.9125382619749653</v>
       </c>
       <c r="D55">
-        <v>0.200728271698716</v>
+        <v>0.5835195963325102</v>
       </c>
       <c r="E55">
         <v>0.2563090679444425</v>
@@ -18434,7 +18434,7 @@
         <v>0.91525481805543</v>
       </c>
       <c r="D56">
-        <v>0.1805205805182583</v>
+        <v>0.5727263885078346</v>
       </c>
       <c r="E56">
         <v>0.2522971983509442</v>
@@ -18460,7 +18460,7 @@
         <v>0.9167518853158123</v>
       </c>
       <c r="D57">
-        <v>0.1966270317744115</v>
+        <v>0.5797243809182279</v>
       </c>
       <c r="E57">
         <v>0.2500587886999341</v>
@@ -18486,7 +18486,7 @@
         <v>0.9109258108122362</v>
       </c>
       <c r="D58">
-        <v>0.1836689025802936</v>
+        <v>0.5828117215038464</v>
       </c>
       <c r="E58">
         <v>0.2586609442095392</v>
@@ -18512,7 +18512,7 @@
         <v>0.7934692071407007</v>
       </c>
       <c r="D59">
-        <v>0.6768460087262655</v>
+        <v>0.7618754553916375</v>
       </c>
       <c r="E59">
         <v>0.3938649419313847</v>
@@ -18538,7 +18538,7 @@
         <v>0.836911987538691</v>
       </c>
       <c r="D60">
-        <v>0.6507331727275509</v>
+        <v>0.748459243767702</v>
       </c>
       <c r="E60">
         <v>0.3499983038576561</v>
@@ -18564,7 +18564,7 @@
         <v>0.8697363662227029</v>
       </c>
       <c r="D61">
-        <v>0.5771668867827587</v>
+        <v>0.6895892310657419</v>
       </c>
       <c r="E61">
         <v>0.3127998341525675</v>
@@ -18590,7 +18590,7 @@
         <v>0.8824090816342351</v>
       </c>
       <c r="D62">
-        <v>0.5509576576538527</v>
+        <v>0.7265826632634822</v>
       </c>
       <c r="E62">
         <v>0.2971952136149095</v>
@@ -18616,7 +18616,7 @@
         <v>0.8871326434289811</v>
       </c>
       <c r="D63">
-        <v>0.513484266676431</v>
+        <v>0.6945813502245884</v>
       </c>
       <c r="E63">
         <v>0.2911649516458748</v>
@@ -18642,7 +18642,7 @@
         <v>0.8774134008510953</v>
       </c>
       <c r="D64">
-        <v>0.4571532213883535</v>
+        <v>0.682040813836051</v>
       </c>
       <c r="E64">
         <v>0.3034425072075729</v>
@@ -18668,7 +18668,7 @@
         <v>0.8954546237313612</v>
       </c>
       <c r="D65">
-        <v>0.436019535132493</v>
+        <v>0.6653243722946202</v>
       </c>
       <c r="E65">
         <v>0.2802252947795492</v>
@@ -18694,7 +18694,7 @@
         <v>0.8933965942447759</v>
       </c>
       <c r="D66">
-        <v>0.3774952729178361</v>
+        <v>0.6485641109766371</v>
       </c>
       <c r="E66">
         <v>0.2829700421763566</v>
@@ -18720,7 +18720,7 @@
         <v>0.9007389342881765</v>
       </c>
       <c r="D67">
-        <v>0.4355660633200376</v>
+        <v>0.672829369092323</v>
       </c>
       <c r="E67">
         <v>0.2730513867345143</v>
@@ -18746,7 +18746,7 @@
         <v>0.9070284312381696</v>
       </c>
       <c r="D68">
-        <v>0.4089200262535143</v>
+        <v>0.6660462899756462</v>
       </c>
       <c r="E68">
         <v>0.2642591290097426</v>
@@ -18772,7 +18772,7 @@
         <v>0.9051920428571354</v>
       </c>
       <c r="D69">
-        <v>0.3761319672707421</v>
+        <v>0.6513839270045538</v>
       </c>
       <c r="E69">
         <v>0.2668562102257047</v>
@@ -18798,7 +18798,7 @@
         <v>0.9064118081990967</v>
       </c>
       <c r="D70">
-        <v>0.3887819663459302</v>
+        <v>0.6549746729579283</v>
       </c>
       <c r="E70">
         <v>0.2651340146218711</v>
@@ -18824,7 +18824,7 @@
         <v>0.9128256218942203</v>
       </c>
       <c r="D71">
-        <v>0.3617015695549913</v>
+        <v>0.63825834811377</v>
       </c>
       <c r="E71">
         <v>0.2558876633854998</v>
@@ -18850,7 +18850,7 @@
         <v>0.9120443639126835</v>
       </c>
       <c r="D72">
-        <v>0.3508526177555785</v>
+        <v>0.6298574289975705</v>
       </c>
       <c r="E72">
         <v>0.2570317401831023</v>
@@ -18876,7 +18876,7 @@
         <v>0.9069763675509216</v>
       </c>
       <c r="D73">
-        <v>0.2869403412794072</v>
+        <v>0.6131582724345743</v>
       </c>
       <c r="E73">
         <v>0.2643331106539127</v>
@@ -18902,7 +18902,7 @@
         <v>0.9104611116366735</v>
       </c>
       <c r="D74">
-        <v>0.3227749619576405</v>
+        <v>0.6253177303998341</v>
       </c>
       <c r="E74">
         <v>0.2593347823117083</v>
@@ -18928,7 +18928,7 @@
         <v>0.9136233930772428</v>
       </c>
       <c r="D75">
-        <v>0.3049453373130138</v>
+        <v>0.6176200584972315</v>
       </c>
       <c r="E75">
         <v>0.254714101835113</v>
@@ -18954,7 +18954,7 @@
         <v>0.9162678405968255</v>
       </c>
       <c r="D76">
-        <v>0.3300360943616664</v>
+        <v>0.6255459479599026</v>
       </c>
       <c r="E76">
         <v>0.2507847162510506</v>
@@ -18980,7 +18980,7 @@
         <v>0.9116951854234565</v>
       </c>
       <c r="D77">
-        <v>0.3033389721176832</v>
+        <v>0.6218133659677287</v>
       </c>
       <c r="E77">
         <v>0.2575414349543957</v>
@@ -19006,7 +19006,7 @@
         <v>0.8200148895065723</v>
       </c>
       <c r="D78">
-        <v>0.2533018224765602</v>
+        <v>0.4931020564087488</v>
       </c>
       <c r="E78">
         <v>0.3676827110127949</v>
@@ -19032,7 +19032,7 @@
         <v>0.8398300372672978</v>
       </c>
       <c r="D79">
-        <v>0.07600685291917741</v>
+        <v>0.51154979211468</v>
       </c>
       <c r="E79">
         <v>0.346853001429355</v>
@@ -19058,7 +19058,7 @@
         <v>0.8598177616778215</v>
       </c>
       <c r="D80">
-        <v>0.09854210577505174</v>
+        <v>0.5100110484891651</v>
       </c>
       <c r="E80">
         <v>0.3244900727248564</v>
@@ -19084,7 +19084,7 @@
         <v>0.8626732890326007</v>
       </c>
       <c r="D81">
-        <v>-0.1782269494125275</v>
+        <v>0.4600628946031348</v>
       </c>
       <c r="E81">
         <v>0.3211681196121946</v>
@@ -19110,7 +19110,7 @@
         <v>0.862077944612485</v>
       </c>
       <c r="D82">
-        <v>-0.09358043202133337</v>
+        <v>0.4580282392063229</v>
       </c>
       <c r="E82">
         <v>0.3218635373641976</v>
@@ -19136,7 +19136,7 @@
         <v>0.8596207693518602</v>
       </c>
       <c r="D83">
-        <v>-0.112741344918293</v>
+        <v>0.4783777356421079</v>
       </c>
       <c r="E83">
         <v>0.3247179889500133</v>
@@ -19162,7 +19162,7 @@
         <v>0.8787938160649713</v>
       </c>
       <c r="D84">
-        <v>-0.02323483260818504</v>
+        <v>0.4810541968566696</v>
       </c>
       <c r="E84">
         <v>0.3017291773751614</v>
@@ -19188,7 +19188,7 @@
         <v>0.8747359939768157</v>
       </c>
       <c r="D85">
-        <v>-0.09633322365115915</v>
+        <v>0.4717612884649728</v>
       </c>
       <c r="E85">
         <v>0.3067383435580336</v>
@@ -19214,7 +19214,7 @@
         <v>0.8862919890768229</v>
       </c>
       <c r="D86">
-        <v>-0.01045821690346815</v>
+        <v>0.483326746226694</v>
       </c>
       <c r="E86">
         <v>0.2922472619379666</v>
@@ -19240,7 +19240,7 @@
         <v>0.8936357144845193</v>
       </c>
       <c r="D87">
-        <v>0.05897881777518155</v>
+        <v>0.4986468192657514</v>
       </c>
       <c r="E87">
         <v>0.2826525014262762</v>
@@ -19266,7 +19266,7 @@
         <v>0.8959614731890503</v>
       </c>
       <c r="D88">
-        <v>0.001521729628166213</v>
+        <v>0.486068828621152</v>
       </c>
       <c r="E88">
         <v>0.2795451852915091</v>
@@ -19292,7 +19292,7 @@
         <v>0.8962195544298341</v>
       </c>
       <c r="D89">
-        <v>0.05760837613321745</v>
+        <v>0.5047220997117632</v>
       </c>
       <c r="E89">
         <v>0.2791982457125617</v>
@@ -19318,7 +19318,7 @@
         <v>0.9026492455837767</v>
       </c>
       <c r="D90">
-        <v>0.1030173870949112</v>
+        <v>0.5180368319466858</v>
       </c>
       <c r="E90">
         <v>0.270411140823356</v>
@@ -19344,7 +19344,7 @@
         <v>0.9020771900705036</v>
       </c>
       <c r="D91">
-        <v>0.09681303976723377</v>
+        <v>0.5201640315331754</v>
       </c>
       <c r="E91">
         <v>0.2712044762284861</v>
@@ -19370,7 +19370,7 @@
         <v>0.9006407872466915</v>
       </c>
       <c r="D92">
-        <v>0.05549022686880833</v>
+        <v>0.5154848706580917</v>
       </c>
       <c r="E92">
         <v>0.2731863468231396</v>
@@ -19396,7 +19396,7 @@
         <v>0.9055241876384359</v>
       </c>
       <c r="D93">
-        <v>0.07087707247750674</v>
+        <v>0.5299608030829956</v>
       </c>
       <c r="E93">
         <v>0.2663883557009007</v>
@@ -19422,7 +19422,7 @@
         <v>0.9089258845738329</v>
       </c>
       <c r="D94">
-        <v>0.08552111549059371</v>
+        <v>0.5356289199652269</v>
       </c>
       <c r="E94">
         <v>0.2615486005143553</v>
@@ -19448,7 +19448,7 @@
         <v>0.9109298519242169</v>
       </c>
       <c r="D95">
-        <v>0.1340145963630724</v>
+        <v>0.5563003268305129</v>
       </c>
       <c r="E95">
         <v>0.2586550766866019</v>
@@ -19474,7 +19474,7 @@
         <v>0.9061392398454876</v>
       </c>
       <c r="D96">
-        <v>0.1091395046607107</v>
+        <v>0.5513552875380949</v>
       </c>
       <c r="E96">
         <v>0.2655198250474889</v>
@@ -19500,7 +19500,7 @@
         <v>0.8125499635777003</v>
       </c>
       <c r="D97">
-        <v>0.4114242680292</v>
+        <v>0.5606759304381679</v>
       </c>
       <c r="E97">
         <v>0.3752301130886065</v>
@@ -19526,7 +19526,7 @@
         <v>0.829900546380999</v>
       </c>
       <c r="D98">
-        <v>0.4252641111124826</v>
+        <v>0.5964495917617945</v>
       </c>
       <c r="E98">
         <v>0.3574426563941286</v>
@@ -19552,7 +19552,7 @@
         <v>0.8376579570986593</v>
       </c>
       <c r="D99">
-        <v>0.3354340529641002</v>
+        <v>0.5982466746981212</v>
       </c>
       <c r="E99">
         <v>0.3491969349595004</v>
@@ -19578,7 +19578,7 @@
         <v>0.849662207201376</v>
       </c>
       <c r="D100">
-        <v>0.07991562750355896</v>
+        <v>0.5450278024629076</v>
       </c>
       <c r="E100">
         <v>0.3360384745695693</v>
@@ -19604,7 +19604,7 @@
         <v>0.8579344479710901</v>
       </c>
       <c r="D101">
-        <v>0.1445590950214635</v>
+        <v>0.5486946093628249</v>
       </c>
       <c r="E101">
         <v>0.3266625224299791</v>
@@ -19630,7 +19630,7 @@
         <v>0.8675166403438749</v>
       </c>
       <c r="D102">
-        <v>0.1491036876703488</v>
+        <v>0.539894189863146</v>
       </c>
       <c r="E102">
         <v>0.3154536712713401</v>
@@ -19656,7 +19656,7 @@
         <v>0.8857134536108193</v>
       </c>
       <c r="D103">
-        <v>0.1895860248946583</v>
+        <v>0.5353006144330028</v>
       </c>
       <c r="E103">
         <v>0.2929897817041829</v>
@@ -19682,7 +19682,7 @@
         <v>0.88469669575529</v>
       </c>
       <c r="D104">
-        <v>0.1257356383629176</v>
+        <v>0.5257156165031429</v>
       </c>
       <c r="E104">
         <v>0.2942901973327496</v>
@@ -19708,7 +19708,7 @@
         <v>0.8937731880063779</v>
       </c>
       <c r="D105">
-        <v>0.1392419221062136</v>
+        <v>0.5231017811668114</v>
       </c>
       <c r="E105">
         <v>0.282469781266508</v>
@@ -19734,7 +19734,7 @@
         <v>0.8987842926574436</v>
       </c>
       <c r="D106">
-        <v>0.1425512924820677</v>
+        <v>0.5162223294988342</v>
       </c>
       <c r="E106">
         <v>0.2757267342035834</v>
@@ -19760,7 +19760,7 @@
         <v>0.8987485996305949</v>
       </c>
       <c r="D107">
-        <v>0.1143555353547118</v>
+        <v>0.5074200311674978</v>
       </c>
       <c r="E107">
         <v>0.2757753464916451</v>
@@ -19786,7 +19786,7 @@
         <v>0.8988667363280598</v>
       </c>
       <c r="D108">
-        <v>0.1582317685676946</v>
+        <v>0.5238782948955192</v>
       </c>
       <c r="E108">
         <v>0.2756144168789252</v>
@@ -19812,7 +19812,7 @@
         <v>0.9044633867359846</v>
       </c>
       <c r="D109">
-        <v>0.1883616241387444</v>
+        <v>0.5350041794915621</v>
       </c>
       <c r="E109">
         <v>0.267879722578282</v>
@@ -19838,7 +19838,7 @@
         <v>0.9034190680917937</v>
       </c>
       <c r="D110">
-        <v>0.1938184828593472</v>
+        <v>0.5317127597130638</v>
       </c>
       <c r="E110">
         <v>0.269339850961101</v>
@@ -19864,7 +19864,7 @@
         <v>0.9037020865917381</v>
       </c>
       <c r="D111">
-        <v>0.1983633713946644</v>
+        <v>0.5391718761792352</v>
       </c>
       <c r="E111">
         <v>0.2689449278361964</v>
@@ -19890,7 +19890,7 @@
         <v>0.9082822993118331</v>
       </c>
       <c r="D112">
-        <v>0.2081584360993021</v>
+        <v>0.5518989320465582</v>
       </c>
       <c r="E112">
         <v>0.2624711046274646</v>
@@ -19916,7 +19916,7 @@
         <v>0.9112294760760421</v>
       </c>
       <c r="D113">
-        <v>0.231760827833642</v>
+        <v>0.5591973488641565</v>
       </c>
       <c r="E113">
         <v>0.2582196637300074</v>
@@ -19942,7 +19942,7 @@
         <v>0.9122844905882472</v>
       </c>
       <c r="D114">
-        <v>0.246697943347705</v>
+        <v>0.5710711575112395</v>
       </c>
       <c r="E114">
         <v>0.2566806406798711</v>
@@ -19968,7 +19968,7 @@
         <v>0.9058800735842296</v>
       </c>
       <c r="D115">
-        <v>0.2447851373052615</v>
+        <v>0.5732930966587293</v>
       </c>
       <c r="E115">
         <v>0.2658861460954354</v>
@@ -19994,7 +19994,7 @@
         <v>0.8567314293486522</v>
       </c>
       <c r="D116">
-        <v>0.4806912022965981</v>
+        <v>0.5887693044527337</v>
       </c>
       <c r="E116">
         <v>0.3280427045004903</v>
@@ -20020,7 +20020,7 @@
         <v>0.8843220408210424</v>
       </c>
       <c r="D117">
-        <v>0.5487113782912727</v>
+        <v>0.6671574490193827</v>
       </c>
       <c r="E117">
         <v>0.2947679280263798</v>
@@ -20046,7 +20046,7 @@
         <v>0.8896096063260104</v>
       </c>
       <c r="D118">
-        <v>0.4780055042659513</v>
+        <v>0.6704835757725559</v>
       </c>
       <c r="E118">
         <v>0.2879523059410622</v>
@@ -20072,7 +20072,7 @@
         <v>0.8941837579157637</v>
       </c>
       <c r="D119">
-        <v>0.2612764145284495</v>
+        <v>0.612445496280851</v>
       </c>
       <c r="E119">
         <v>0.2819233755720211</v>
@@ -20098,7 +20098,7 @@
         <v>0.8874045444141639</v>
       </c>
       <c r="D120">
-        <v>0.341246480857463</v>
+        <v>0.6243602846241044</v>
       </c>
       <c r="E120">
         <v>0.290814027442919</v>
@@ -20124,7 +20124,7 @@
         <v>0.8850915474793797</v>
       </c>
       <c r="D121">
-        <v>0.3027103113664831</v>
+        <v>0.6389715441729698</v>
       </c>
       <c r="E121">
         <v>0.2937858724796278</v>
@@ -20150,7 +20150,7 @@
         <v>0.9023188044245668</v>
       </c>
       <c r="D122">
-        <v>0.2746826799557103</v>
+        <v>0.6215646471598647</v>
       </c>
       <c r="E122">
         <v>0.2708696851592065</v>
@@ -20176,7 +20176,7 @@
         <v>0.8995409233796927</v>
       </c>
       <c r="D123">
-        <v>0.2258879539267397</v>
+        <v>0.61711977526573</v>
       </c>
       <c r="E123">
         <v>0.2746942132895593</v>
@@ -20202,7 +20202,7 @@
         <v>0.9033022005632433</v>
       </c>
       <c r="D124">
-        <v>0.2526177511945791</v>
+        <v>0.6168234369472296</v>
       </c>
       <c r="E124">
         <v>0.2695027587197271</v>
@@ -20228,7 +20228,7 @@
         <v>0.9087631784693139</v>
       </c>
       <c r="D125">
-        <v>0.2657533850964569</v>
+        <v>0.6165688503176434</v>
       </c>
       <c r="E125">
         <v>0.2617821277029593</v>
@@ -20254,7 +20254,7 @@
         <v>0.9096209671338381</v>
       </c>
       <c r="D126">
-        <v>0.2041096837522701</v>
+        <v>0.605092029339798</v>
       </c>
       <c r="E126">
         <v>0.2605486123576157</v>
@@ -20280,7 +20280,7 @@
         <v>0.9115269572036721</v>
       </c>
       <c r="D127">
-        <v>0.2000583069627665</v>
+        <v>0.6164071238969175</v>
       </c>
       <c r="E127">
         <v>0.257786637450742</v>
@@ -20306,7 +20306,7 @@
         <v>0.9177016274784867</v>
       </c>
       <c r="D128">
-        <v>0.1953762718546705</v>
+        <v>0.6059665346018079</v>
       </c>
       <c r="E128">
         <v>0.2486282900832195</v>
@@ -20332,7 +20332,7 @@
         <v>0.915347577376413</v>
       </c>
       <c r="D129">
-        <v>0.2248519860307658</v>
+        <v>0.6023975162893388</v>
       </c>
       <c r="E129">
         <v>0.2521590823908801</v>
@@ -20358,7 +20358,7 @@
         <v>0.9129507265481849</v>
       </c>
       <c r="D130">
-        <v>0.1830494649602169</v>
+        <v>0.5847091507428244</v>
       </c>
       <c r="E130">
         <v>0.2557039842359558</v>
@@ -20384,7 +20384,7 @@
         <v>0.9155602196247542</v>
       </c>
       <c r="D131">
-        <v>0.1774089607842334</v>
+        <v>0.5923910813591535</v>
       </c>
       <c r="E131">
         <v>0.2518421783535495</v>
@@ -20410,7 +20410,7 @@
         <v>0.9176015406584876</v>
       </c>
       <c r="D132">
-        <v>0.1578550969554398</v>
+        <v>0.5877110627095892</v>
       </c>
       <c r="E132">
         <v>0.2487794282709011</v>
@@ -20436,7 +20436,7 @@
         <v>0.9183206928007008</v>
       </c>
       <c r="D133">
-        <v>0.1810382968547807</v>
+        <v>0.5973981698645986</v>
       </c>
       <c r="E133">
         <v>0.2476914082791358</v>
@@ -20462,7 +20462,7 @@
         <v>0.9162803046791536</v>
       </c>
       <c r="D134">
-        <v>0.1906101473419601</v>
+        <v>0.5984688150844734</v>
       </c>
       <c r="E134">
         <v>0.2507660500796242</v>
@@ -20488,7 +20488,7 @@
         <v>0.8116083506069537</v>
       </c>
       <c r="D135">
-        <v>0.4542105558803361</v>
+        <v>0.6296146662982105</v>
       </c>
       <c r="E135">
         <v>0.3761713744279375</v>
@@ -20514,7 +20514,7 @@
         <v>0.8513078572274881</v>
       </c>
       <c r="D136">
-        <v>0.4413169373445114</v>
+        <v>0.6408707912516393</v>
       </c>
       <c r="E136">
         <v>0.3341942164108838</v>
@@ -20540,7 +20540,7 @@
         <v>0.8733380577340581</v>
       </c>
       <c r="D137">
-        <v>0.3361773492168707</v>
+        <v>0.6480039633009452</v>
       </c>
       <c r="E137">
         <v>0.308445182358909</v>
@@ -20566,7 +20566,7 @@
         <v>0.8709778277260558</v>
       </c>
       <c r="D138">
-        <v>0.06643716413151057</v>
+        <v>0.6110992850163692</v>
       </c>
       <c r="E138">
         <v>0.3113057156226869</v>
@@ -20592,7 +20592,7 @@
         <v>0.8708827334787085</v>
       </c>
       <c r="D139">
-        <v>0.2039910865709917</v>
+        <v>0.6208943530476172</v>
       </c>
       <c r="E139">
         <v>0.3114204165671251</v>
@@ -20618,7 +20618,7 @@
         <v>0.8689194604220299</v>
       </c>
       <c r="D140">
-        <v>0.1952825940775542</v>
+        <v>0.6062409603049232</v>
       </c>
       <c r="E140">
         <v>0.3137791122048962</v>
@@ -20644,7 +20644,7 @@
         <v>0.8908072453683726</v>
       </c>
       <c r="D141">
-        <v>0.1959914961278579</v>
+        <v>0.6103055018309307</v>
       </c>
       <c r="E141">
         <v>0.2863860310770375</v>
@@ -20670,7 +20670,7 @@
         <v>0.8863514745106409</v>
       </c>
       <c r="D142">
-        <v>0.1266933847530414</v>
+        <v>0.6054872441794915</v>
       </c>
       <c r="E142">
         <v>0.2921708085322355</v>
@@ -20696,7 +20696,7 @@
         <v>0.8944586955045549</v>
       </c>
       <c r="D143">
-        <v>0.1519590376781927</v>
+        <v>0.5983560128500133</v>
       </c>
       <c r="E143">
         <v>0.2815568829351379</v>
@@ -20722,7 +20722,7 @@
         <v>0.9041875369376289</v>
       </c>
       <c r="D144">
-        <v>0.160498399675881</v>
+        <v>0.5917244426055726</v>
       </c>
       <c r="E144">
         <v>0.2682661781031057</v>
@@ -20748,7 +20748,7 @@
         <v>0.9025269452439195</v>
       </c>
       <c r="D145">
-        <v>0.1658184355288099</v>
+        <v>0.589545116536818</v>
       </c>
       <c r="E145">
         <v>0.2705809443054628</v>
@@ -20774,7 +20774,7 @@
         <v>0.9050860597781466</v>
       </c>
       <c r="D146">
-        <v>0.161851424627123</v>
+        <v>0.5981697048917972</v>
       </c>
       <c r="E146">
         <v>0.2670053239926188</v>
@@ -20800,7 +20800,7 @@
         <v>0.9112377097799922</v>
       </c>
       <c r="D147">
-        <v>0.1554461298890861</v>
+        <v>0.5843776477863585</v>
       </c>
       <c r="E147">
         <v>0.2582076881694609</v>
@@ -20826,7 +20826,7 @@
         <v>0.9103786729472648</v>
       </c>
       <c r="D148">
-        <v>0.1512056244922086</v>
+        <v>0.5716074853943918</v>
       </c>
       <c r="E148">
         <v>0.2594541399520072</v>
@@ -20852,7 +20852,7 @@
         <v>0.9057305018895375</v>
       </c>
       <c r="D149">
-        <v>0.1382263509757823</v>
+        <v>0.5770803571919185</v>
       </c>
       <c r="E149">
         <v>0.2660973301436607</v>
@@ -20878,7 +20878,7 @@
         <v>0.9079447427477403</v>
       </c>
       <c r="D150">
-        <v>0.1489284459701934</v>
+        <v>0.5859196591435242</v>
       </c>
       <c r="E150">
         <v>0.2629536585606915</v>
@@ -20904,7 +20904,7 @@
         <v>0.9114959814844849</v>
       </c>
       <c r="D151">
-        <v>0.1709493084409476</v>
+        <v>0.5784892018631733</v>
       </c>
       <c r="E151">
         <v>0.2578317609563555</v>
@@ -20930,7 +20930,7 @@
         <v>0.913964237336035</v>
       </c>
       <c r="D152">
-        <v>0.1897736454189889</v>
+        <v>0.5828390212388923</v>
       </c>
       <c r="E152">
         <v>0.2542110509624155</v>
@@ -20956,7 +20956,7 @@
         <v>0.9108171312866151</v>
       </c>
       <c r="D153">
-        <v>0.1982876418407706</v>
+        <v>0.5836522544168693</v>
       </c>
       <c r="E153">
         <v>0.2588186923719699</v>
@@ -20982,7 +20982,7 @@
         <v>0.850301359040855</v>
       </c>
       <c r="D154">
-        <v>0.335709825872944</v>
+        <v>0.5427535512875019</v>
       </c>
       <c r="E154">
         <v>0.3353233903174054</v>
@@ -21008,7 +21008,7 @@
         <v>0.859324330704772</v>
       </c>
       <c r="D155">
-        <v>0.257114905814481</v>
+        <v>0.5953104497088522</v>
       </c>
       <c r="E155">
         <v>0.3250606614272307</v>
@@ -21034,7 +21034,7 @@
         <v>0.8624276048269996</v>
       </c>
       <c r="D156">
-        <v>0.2451512036340829</v>
+        <v>0.5780048057507103</v>
       </c>
       <c r="E156">
         <v>0.3214552839725194</v>
@@ -21060,7 +21060,7 @@
         <v>0.8709991170249113</v>
       </c>
       <c r="D157">
-        <v>0.1078934266287258</v>
+        <v>0.5852704863454036</v>
       </c>
       <c r="E157">
         <v>0.311280031068967</v>
@@ -21086,7 +21086,7 @@
         <v>0.8790981965769586</v>
       </c>
       <c r="D158">
-        <v>0.2666729425069421</v>
+        <v>0.6186587889300983</v>
       </c>
       <c r="E158">
         <v>0.3013500786777902</v>
@@ -21112,7 +21112,7 @@
         <v>0.8815054451193819</v>
       </c>
       <c r="D159">
-        <v>0.2105072482291847</v>
+        <v>0.5888773039906801</v>
       </c>
       <c r="E159">
         <v>0.2983349380425668</v>
@@ -21138,7 +21138,7 @@
         <v>0.8991846780668675</v>
       </c>
       <c r="D160">
-        <v>0.0844422801332233</v>
+        <v>0.551203528524163</v>
       </c>
       <c r="E160">
         <v>0.2751808389230619</v>
@@ -21164,7 +21164,7 @@
         <v>0.8943631546561027</v>
       </c>
       <c r="D161">
-        <v>0.009275171008403915</v>
+        <v>0.5459198388847619</v>
       </c>
       <c r="E161">
         <v>0.2816842932345675</v>
@@ -21190,7 +21190,7 @@
         <v>0.9037755429456482</v>
       </c>
       <c r="D162">
-        <v>0.05480770417618808</v>
+        <v>0.5572490830694093</v>
       </c>
       <c r="E162">
         <v>0.2688423322452329</v>
@@ -21216,7 +21216,7 @@
         <v>0.9126287873035153</v>
       </c>
       <c r="D163">
-        <v>0.02330305940639321</v>
+        <v>0.5498677844937596</v>
       </c>
       <c r="E163">
         <v>0.2561763901014367</v>
@@ -21242,7 +21242,7 @@
         <v>0.9091228276328829</v>
       </c>
       <c r="D164">
-        <v>0.01248266230667883</v>
+        <v>0.5392381861827011</v>
       </c>
       <c r="E164">
         <v>0.2612656548145311</v>
@@ -21268,7 +21268,7 @@
         <v>0.9095848431784548</v>
       </c>
       <c r="D165">
-        <v>0.06176773694791682</v>
+        <v>0.5684165054232218</v>
       </c>
       <c r="E165">
         <v>0.2606006770116227</v>
@@ -21294,7 +21294,7 @@
         <v>0.9144506084332771</v>
       </c>
       <c r="D166">
-        <v>0.07824094220728628</v>
+        <v>0.5627864011813957</v>
       </c>
       <c r="E166">
         <v>0.2534914888927707</v>
@@ -21320,7 +21320,7 @@
         <v>0.9139325257740957</v>
       </c>
       <c r="D167">
-        <v>0.07599837502203799</v>
+        <v>0.5490406415640805</v>
       </c>
       <c r="E167">
         <v>0.2542578959402677</v>
@@ -21346,7 +21346,7 @@
         <v>0.9124616689513495</v>
       </c>
       <c r="D168">
-        <v>0.01905744717417568</v>
+        <v>0.533762598993999</v>
       </c>
       <c r="E168">
         <v>0.2564212723828573</v>
@@ -21372,7 +21372,7 @@
         <v>0.9118873871614912</v>
       </c>
       <c r="D169">
-        <v>0.01278670322501707</v>
+        <v>0.5482425999876512</v>
       </c>
       <c r="E169">
         <v>0.2572610036096945</v>
@@ -21398,7 +21398,7 @@
         <v>0.9139965416665323</v>
       </c>
       <c r="D170">
-        <v>0.03413372258330194</v>
+        <v>0.5450224188721413</v>
       </c>
       <c r="E170">
         <v>0.2541633214569209</v>
@@ -21424,7 +21424,7 @@
         <v>0.9166118189763586</v>
       </c>
       <c r="D171">
-        <v>0.05212568440605936</v>
+        <v>0.5503831029347392</v>
       </c>
       <c r="E171">
         <v>0.250269064327404</v>
@@ -21450,7 +21450,7 @@
         <v>0.9109946647735847</v>
       </c>
       <c r="D172">
-        <v>0.05495678318012387</v>
+        <v>0.5559920928070323</v>
       </c>
       <c r="E172">
         <v>0.2585609529894187</v>
@@ -21476,7 +21476,7 @@
         <v>0.83017741953587</v>
       </c>
       <c r="D173">
-        <v>0.5131533656687683</v>
+        <v>0.559506143232555</v>
       </c>
       <c r="E173">
         <v>0.3571516308239499</v>
@@ -21502,7 +21502,7 @@
         <v>0.8365842717325513</v>
       </c>
       <c r="D174">
-        <v>0.408360182806829</v>
+        <v>0.6287672076283624</v>
       </c>
       <c r="E174">
         <v>0.350349777922689</v>
@@ -21528,7 +21528,7 @@
         <v>0.8625728974191156</v>
       </c>
       <c r="D175">
-        <v>0.3147812018984472</v>
+        <v>0.6151405152039028</v>
       </c>
       <c r="E175">
         <v>0.3212854918807846</v>
@@ -21554,7 +21554,7 @@
         <v>0.8587575364094596</v>
       </c>
       <c r="D176">
-        <v>0.1026512119382447</v>
+        <v>0.6068926828581205</v>
       </c>
       <c r="E176">
         <v>0.3257148517365796</v>
@@ -21580,7 +21580,7 @@
         <v>0.8685331215245748</v>
       </c>
       <c r="D177">
-        <v>0.2471232294364172</v>
+        <v>0.6268457078407068</v>
       </c>
       <c r="E177">
         <v>0.3142411788288196</v>
@@ -21606,7 +21606,7 @@
         <v>0.868489434544664</v>
       </c>
       <c r="D178">
-        <v>0.2786316019533582</v>
+        <v>0.6236376604004009</v>
       </c>
       <c r="E178">
         <v>0.3142933863046762</v>
@@ -21632,7 +21632,7 @@
         <v>0.8903307739535499</v>
       </c>
       <c r="D179">
-        <v>0.3074912477467548</v>
+        <v>0.638762285186848</v>
       </c>
       <c r="E179">
         <v>0.2870101852341701</v>
@@ -21658,7 +21658,7 @@
         <v>0.8862443715472493</v>
       </c>
       <c r="D180">
-        <v>0.2382265097874382</v>
+        <v>0.6218801819734679</v>
       </c>
       <c r="E180">
         <v>0.2923084477590834</v>
@@ -21684,7 +21684,7 @@
         <v>0.8970006279856697</v>
       </c>
       <c r="D181">
-        <v>0.2746855145218007</v>
+        <v>0.6278931323620837</v>
       </c>
       <c r="E181">
         <v>0.2781456088927265</v>
@@ -21710,7 +21710,7 @@
         <v>0.9050427660654339</v>
       </c>
       <c r="D182">
-        <v>0.2775355367688139</v>
+        <v>0.6199917761063707</v>
       </c>
       <c r="E182">
         <v>0.2670662124873354</v>
@@ -21736,7 +21736,7 @@
         <v>0.9016614095145606</v>
       </c>
       <c r="D183">
-        <v>0.2671366459229053</v>
+        <v>0.6138511287114601</v>
       </c>
       <c r="E183">
         <v>0.2717796338702764</v>
@@ -21762,7 +21762,7 @@
         <v>0.9037840999913538</v>
       </c>
       <c r="D184">
-        <v>0.2683668288903839</v>
+        <v>0.6295650979013583</v>
       </c>
       <c r="E184">
         <v>0.2688303781779307</v>
@@ -21788,7 +21788,7 @@
         <v>0.9097242798238936</v>
       </c>
       <c r="D185">
-        <v>0.245669725214403</v>
+        <v>0.6149496458947814</v>
       </c>
       <c r="E185">
         <v>0.2603996526149901</v>
@@ -21814,7 +21814,7 @@
         <v>0.9094363443514495</v>
       </c>
       <c r="D186">
-        <v>0.248780127362521</v>
+        <v>0.6022968256746815</v>
       </c>
       <c r="E186">
         <v>0.2608145958908125</v>
@@ -21840,7 +21840,7 @@
         <v>0.9092552812963463</v>
       </c>
       <c r="D187">
-        <v>0.1909079525217823</v>
+        <v>0.5828492305285944</v>
       </c>
       <c r="E187">
         <v>0.2610751877761995</v>
@@ -21866,7 +21866,7 @@
         <v>0.9124306962472635</v>
       </c>
       <c r="D188">
-        <v>0.1773382293936457</v>
+        <v>0.5903355765809688</v>
       </c>
       <c r="E188">
         <v>0.2564666316997847</v>
@@ -21892,7 +21892,7 @@
         <v>0.9158887524172584</v>
       </c>
       <c r="D189">
-        <v>0.1897634363116716</v>
+        <v>0.5844755122566416</v>
       </c>
       <c r="E189">
         <v>0.2513517753171766</v>
@@ -21918,7 +21918,7 @@
         <v>0.9176828866202932</v>
       </c>
       <c r="D190">
-        <v>0.2093095069624048</v>
+        <v>0.5823215794655314</v>
       </c>
       <c r="E190">
         <v>0.2486565970967778</v>
@@ -21944,7 +21944,7 @@
         <v>0.9131352290240098</v>
       </c>
       <c r="D191">
-        <v>0.188654052079519</v>
+        <v>0.5770127460122174</v>
       </c>
       <c r="E191">
         <v>0.2554328559342083</v>
@@ -21970,7 +21970,7 @@
         <v>0.8418442384711657</v>
       </c>
       <c r="D192">
-        <v>0.4472310767664774</v>
+        <v>0.5781259285535252</v>
       </c>
       <c r="E192">
         <v>0.3446651940712495</v>
@@ -21996,7 +21996,7 @@
         <v>0.864091489487617</v>
       </c>
       <c r="D193">
-        <v>0.3417517311865752</v>
+        <v>0.618582633014836</v>
       </c>
       <c r="E193">
         <v>0.3195054319889365</v>
@@ -22022,7 +22022,7 @@
         <v>0.8748429177461027</v>
       </c>
       <c r="D194">
-        <v>0.1575812133443405</v>
+        <v>0.6003250709940025</v>
       </c>
       <c r="E194">
         <v>0.3066074016266022</v>
@@ -22048,7 +22048,7 @@
         <v>0.8679156826952235</v>
       </c>
       <c r="D195">
-        <v>-0.0620830579836813</v>
+        <v>0.603527200129176</v>
       </c>
       <c r="E195">
         <v>0.3149782368249704</v>
@@ -22074,7 +22074,7 @@
         <v>0.8785705931193863</v>
       </c>
       <c r="D196">
-        <v>0.05959586287712915</v>
+        <v>0.60553233098655</v>
       </c>
       <c r="E196">
         <v>0.3020068937897745</v>
@@ -22100,7 +22100,7 @@
         <v>0.8792292936132686</v>
       </c>
       <c r="D197">
-        <v>0.03661560688352594</v>
+        <v>0.5770482155404436</v>
       </c>
       <c r="E197">
         <v>0.3011866534174683</v>
@@ -22126,7 +22126,7 @@
         <v>0.8991838525375678</v>
       </c>
       <c r="D198">
-        <v>0.1052354818282393</v>
+        <v>0.5830818656362219</v>
       </c>
       <c r="E198">
         <v>0.2751819655840487</v>
@@ -22152,7 +22152,7 @@
         <v>0.8923540725663502</v>
       </c>
       <c r="D199">
-        <v>0.0110450517682118</v>
+        <v>0.5805505822302677</v>
       </c>
       <c r="E199">
         <v>0.2843503201649313</v>
@@ -22178,7 +22178,7 @@
         <v>0.9007883561504763</v>
       </c>
       <c r="D200">
-        <v>0.08109804320110647</v>
+        <v>0.5899498219452139</v>
       </c>
       <c r="E200">
         <v>0.2729834024342064</v>
@@ -22204,7 +22204,7 @@
         <v>0.9082965317983269</v>
       </c>
       <c r="D201">
-        <v>0.1413774313837749</v>
+        <v>0.5943589275620491</v>
       </c>
       <c r="E201">
         <v>0.2624507390853972</v>
@@ -22230,7 +22230,7 @@
         <v>0.907071649129595</v>
       </c>
       <c r="D202">
-        <v>0.1283651837278497</v>
+        <v>0.5847771394483559</v>
       </c>
       <c r="E202">
         <v>0.2641977013601994</v>
@@ -22256,7 +22256,7 @@
         <v>0.9043117318361347</v>
       </c>
       <c r="D203">
-        <v>0.1751492370032173</v>
+        <v>0.6177646972871862</v>
       </c>
       <c r="E203">
         <v>0.2680922545162877</v>
@@ -22282,7 +22282,7 @@
         <v>0.9097687945545436</v>
       </c>
       <c r="D204">
-        <v>0.1765311899464702</v>
+        <v>0.6032267532514228</v>
       </c>
       <c r="E204">
         <v>0.2603354434916676</v>
@@ -22308,7 +22308,7 @@
         <v>0.9092686596183465</v>
       </c>
       <c r="D205">
-        <v>0.1923362452660939</v>
+        <v>0.5924349579662873</v>
       </c>
       <c r="E205">
         <v>0.2610559421566195</v>
@@ -22334,7 +22334,7 @@
         <v>0.9077123591622759</v>
       </c>
       <c r="D206">
-        <v>0.145873229896296</v>
+        <v>0.5892598963110641</v>
       </c>
       <c r="E206">
         <v>0.2632853484633508</v>
@@ -22360,7 +22360,7 @@
         <v>0.9099254170321338</v>
       </c>
       <c r="D207">
-        <v>0.1845168051335924</v>
+        <v>0.5999025151078612</v>
       </c>
       <c r="E207">
         <v>0.2601094014517588</v>
@@ -22386,7 +22386,7 @@
         <v>0.9145399774822536</v>
       </c>
       <c r="D208">
-        <v>0.2060324371192472</v>
+        <v>0.5938650475390181</v>
       </c>
       <c r="E208">
         <v>0.2533590495357685</v>
@@ -22412,7 +22412,7 @@
         <v>0.9166272244500888</v>
       </c>
       <c r="D209">
-        <v>0.2349893982641629</v>
+        <v>0.599580844450542</v>
       </c>
       <c r="E209">
         <v>0.2502459453941455</v>
@@ -22438,7 +22438,7 @@
         <v>0.9111352853188479</v>
       </c>
       <c r="D210">
-        <v>0.2387069228801277</v>
+        <v>0.6019325764963707</v>
       </c>
       <c r="E210">
         <v>0.2583566205499692</v>
@@ -22464,7 +22464,7 @@
         <v>0.8418442384711657</v>
       </c>
       <c r="D211">
-        <v>0.4472310767664774</v>
+        <v>0.5781259285535252</v>
       </c>
       <c r="E211">
         <v>0.3446651940712495</v>
@@ -22490,7 +22490,7 @@
         <v>0.864091489487617</v>
       </c>
       <c r="D212">
-        <v>0.3417517311865752</v>
+        <v>0.618582633014836</v>
       </c>
       <c r="E212">
         <v>0.3195054319889365</v>
@@ -22516,7 +22516,7 @@
         <v>0.8748429177461027</v>
       </c>
       <c r="D213">
-        <v>0.1575812133443405</v>
+        <v>0.6003250709940025</v>
       </c>
       <c r="E213">
         <v>0.3066074016266022</v>
@@ -22542,7 +22542,7 @@
         <v>0.8679156826952235</v>
       </c>
       <c r="D214">
-        <v>-0.0620830579836813</v>
+        <v>0.603527200129176</v>
       </c>
       <c r="E214">
         <v>0.3149782368249704</v>
@@ -22568,7 +22568,7 @@
         <v>0.8785705931193863</v>
       </c>
       <c r="D215">
-        <v>0.05959586287712915</v>
+        <v>0.60553233098655</v>
       </c>
       <c r="E215">
         <v>0.3020068937897745</v>
@@ -22594,7 +22594,7 @@
         <v>0.8792292936132686</v>
       </c>
       <c r="D216">
-        <v>0.03661560688352594</v>
+        <v>0.5770482155404436</v>
       </c>
       <c r="E216">
         <v>0.3011866534174683</v>
@@ -22620,7 +22620,7 @@
         <v>0.8991838525375678</v>
       </c>
       <c r="D217">
-        <v>0.1052354818282393</v>
+        <v>0.5830818656362219</v>
       </c>
       <c r="E217">
         <v>0.2751819655840487</v>
@@ -22646,7 +22646,7 @@
         <v>0.8923540725663502</v>
       </c>
       <c r="D218">
-        <v>0.0110450517682118</v>
+        <v>0.5805505822302677</v>
       </c>
       <c r="E218">
         <v>0.2843503201649313</v>
@@ -22672,7 +22672,7 @@
         <v>0.9007883561504763</v>
       </c>
       <c r="D219">
-        <v>0.08109804320110647</v>
+        <v>0.5899498219452139</v>
       </c>
       <c r="E219">
         <v>0.2729834024342064</v>
@@ -22698,7 +22698,7 @@
         <v>0.9082965317983269</v>
       </c>
       <c r="D220">
-        <v>0.1413774313837749</v>
+        <v>0.5943589275620491</v>
       </c>
       <c r="E220">
         <v>0.2624507390853972</v>
@@ -22724,7 +22724,7 @@
         <v>0.907071649129595</v>
       </c>
       <c r="D221">
-        <v>0.1283651837278497</v>
+        <v>0.5847771394483559</v>
       </c>
       <c r="E221">
         <v>0.2641977013601994</v>
@@ -22750,7 +22750,7 @@
         <v>0.9043117318361347</v>
       </c>
       <c r="D222">
-        <v>0.1751492370032173</v>
+        <v>0.6177646972871862</v>
       </c>
       <c r="E222">
         <v>0.2680922545162877</v>
@@ -22776,7 +22776,7 @@
         <v>0.9097687945545436</v>
       </c>
       <c r="D223">
-        <v>0.1765311899464702</v>
+        <v>0.6032267532514228</v>
       </c>
       <c r="E223">
         <v>0.2603354434916676</v>
@@ -22802,7 +22802,7 @@
         <v>0.9092686596183465</v>
       </c>
       <c r="D224">
-        <v>0.1923362452660939</v>
+        <v>0.5924349579662873</v>
       </c>
       <c r="E224">
         <v>0.2610559421566195</v>
@@ -22828,7 +22828,7 @@
         <v>0.9077123591622759</v>
       </c>
       <c r="D225">
-        <v>0.145873229896296</v>
+        <v>0.5892598963110641</v>
       </c>
       <c r="E225">
         <v>0.2632853484633508</v>
@@ -22854,7 +22854,7 @@
         <v>0.9099254170321338</v>
       </c>
       <c r="D226">
-        <v>0.1845168051335924</v>
+        <v>0.5999025151078612</v>
       </c>
       <c r="E226">
         <v>0.2601094014517588</v>
@@ -22880,7 +22880,7 @@
         <v>0.9145399774822536</v>
       </c>
       <c r="D227">
-        <v>0.2060324371192472</v>
+        <v>0.5938650475390181</v>
       </c>
       <c r="E227">
         <v>0.2533590495357685</v>
@@ -22906,7 +22906,7 @@
         <v>0.9166272244500888</v>
       </c>
       <c r="D228">
-        <v>0.2349893982641629</v>
+        <v>0.599580844450542</v>
       </c>
       <c r="E228">
         <v>0.2502459453941455</v>
@@ -22932,7 +22932,7 @@
         <v>0.9111352853188479</v>
       </c>
       <c r="D229">
-        <v>0.2387069228801277</v>
+        <v>0.6019325764963707</v>
       </c>
       <c r="E229">
         <v>0.2583566205499692</v>
@@ -22958,7 +22958,7 @@
         <v>0.7067353848604225</v>
       </c>
       <c r="D230">
-        <v>0.5992971115966013</v>
+        <v>0.6810458334418206</v>
       </c>
       <c r="E230">
         <v>0.4693369557926849</v>
@@ -22984,7 +22984,7 @@
         <v>0.8096843654950956</v>
       </c>
       <c r="D231">
-        <v>0.5130694974408899</v>
+        <v>0.697635688824684</v>
       </c>
       <c r="E231">
         <v>0.3780873554408595</v>
@@ -23010,7 +23010,7 @@
         <v>0.8453567893474693</v>
       </c>
       <c r="D232">
-        <v>0.4373989918686974</v>
+        <v>0.6614906486388292</v>
       </c>
       <c r="E232">
         <v>0.3408162931428818</v>
@@ -23036,7 +23036,7 @@
         <v>0.8605256384351021</v>
       </c>
       <c r="D233">
-        <v>0.2163636541274263</v>
+        <v>0.6233019478779529</v>
       </c>
       <c r="E233">
         <v>0.3236697487851283</v>
@@ -23062,7 +23062,7 @@
         <v>0.8752495067019793</v>
       </c>
       <c r="D234">
-        <v>0.2649647350371238</v>
+        <v>0.6198899768282504</v>
       </c>
       <c r="E234">
         <v>0.3061089696084131</v>
@@ -23088,7 +23088,7 @@
         <v>0.8781520285564002</v>
       </c>
       <c r="D235">
-        <v>0.2533259426622458</v>
+        <v>0.610277736730541</v>
       </c>
       <c r="E235">
         <v>0.3025269516632922</v>
@@ -23114,7 +23114,7 @@
         <v>0.8987857498020003</v>
       </c>
       <c r="D236">
-        <v>0.2815043849312154</v>
+        <v>0.613839135091939</v>
       </c>
       <c r="E236">
         <v>0.2757247494565195</v>
@@ -23140,7 +23140,7 @@
         <v>0.8948928826608967</v>
       </c>
       <c r="D237">
-        <v>0.2035711653705515</v>
+        <v>0.60443477512906</v>
       </c>
       <c r="E237">
         <v>0.2809771365891266</v>
@@ -23166,7 +23166,7 @@
         <v>0.9050151222194244</v>
       </c>
       <c r="D238">
-        <v>0.259709692505836</v>
+        <v>0.6211935965185303</v>
       </c>
       <c r="E238">
         <v>0.2671050836702409</v>
@@ -23192,7 +23192,7 @@
         <v>0.9110981750658312</v>
       </c>
       <c r="D239">
-        <v>0.24677548542779</v>
+        <v>0.6203717618876907</v>
       </c>
       <c r="E239">
         <v>0.258410560287678</v>
@@ -23218,7 +23218,7 @@
         <v>0.9106865187015694</v>
       </c>
       <c r="D240">
-        <v>0.2350299874524511</v>
+        <v>0.6124725134913003</v>
       </c>
       <c r="E240">
         <v>0.259008149219226</v>
@@ -23244,7 +23244,7 @@
         <v>0.9059085548802625</v>
       </c>
       <c r="D241">
-        <v>0.2671502776392892</v>
+        <v>0.6388957550621476</v>
       </c>
       <c r="E241">
         <v>0.2658459136212599</v>
@@ -23270,7 +23270,7 @@
         <v>0.9105246753958367</v>
       </c>
       <c r="D242">
-        <v>0.2586251292984124</v>
+        <v>0.6208562592052349</v>
       </c>
       <c r="E242">
         <v>0.2592427149399748</v>
@@ -23296,7 +23296,7 @@
         <v>0.9111658374280016</v>
       </c>
       <c r="D243">
-        <v>0.2947904906274053</v>
+        <v>0.6247871991851581</v>
       </c>
       <c r="E243">
         <v>0.2583122046180749</v>
@@ -23322,7 +23322,7 @@
         <v>0.9109291609201329</v>
       </c>
       <c r="D244">
-        <v>0.2510017547637349</v>
+        <v>0.6155919188422023</v>
       </c>
       <c r="E244">
         <v>0.2586560800046133</v>
@@ -23348,7 +23348,7 @@
         <v>0.9128069082532002</v>
       </c>
       <c r="D245">
-        <v>0.2239565404232745</v>
+        <v>0.6191187668621662</v>
       </c>
       <c r="E245">
         <v>0.2559151274925872</v>
@@ -23374,7 +23374,7 @@
         <v>0.9150155048123639</v>
       </c>
       <c r="D246">
-        <v>0.230430091469555</v>
+        <v>0.6130030440969422</v>
       </c>
       <c r="E246">
         <v>0.2526531802121647</v>
@@ -23400,7 +23400,7 @@
         <v>0.9173064688994018</v>
       </c>
       <c r="D247">
-        <v>0.2501651280015736</v>
+        <v>0.6122043683639862</v>
       </c>
       <c r="E247">
         <v>0.2492244741040381</v>
@@ -23426,7 +23426,7 @@
         <v>0.9141842764794352</v>
       </c>
       <c r="D248">
-        <v>0.2657858793088175</v>
+        <v>0.6111123252989749</v>
       </c>
       <c r="E248">
         <v>0.2538857665066766</v>
@@ -23452,7 +23452,7 @@
         <v>0.8492413206347038</v>
       </c>
       <c r="D249">
-        <v>0.6424863563056488</v>
+        <v>0.636672354278254</v>
       </c>
       <c r="E249">
         <v>0.3365085334469974</v>
@@ -23478,7 +23478,7 @@
         <v>0.8689711360302682</v>
       </c>
       <c r="D250">
-        <v>0.6058438868329152</v>
+        <v>0.7217387730405855</v>
       </c>
       <c r="E250">
         <v>0.313717255864827</v>
@@ -23504,7 +23504,7 @@
         <v>0.8650405354918529</v>
       </c>
       <c r="D251">
-        <v>0.5300147034872562</v>
+        <v>0.6941953635497824</v>
       </c>
       <c r="E251">
         <v>0.3183879281524483</v>
@@ -23530,7 +23530,7 @@
         <v>0.872276381866022</v>
       </c>
       <c r="D252">
-        <v>0.3550277239431294</v>
+        <v>0.6587279525603621</v>
       </c>
       <c r="E252">
         <v>0.3097351730768321</v>
@@ -23556,7 +23556,7 @@
         <v>0.8766580260912373</v>
       </c>
       <c r="D253">
-        <v>0.4023657444970169</v>
+        <v>0.6590055507324897</v>
       </c>
       <c r="E253">
         <v>0.3043759730015417</v>
@@ -23582,7 +23582,7 @@
         <v>0.8785602975135343</v>
       </c>
       <c r="D254">
-        <v>0.3318559168702436</v>
+        <v>0.6357969880395031</v>
       </c>
       <c r="E254">
         <v>0.3020196966112571</v>
@@ -23608,7 +23608,7 @@
         <v>0.8993404309618291</v>
       </c>
       <c r="D255">
-        <v>0.357103257881052</v>
+        <v>0.6301236604982183</v>
       </c>
       <c r="E255">
         <v>0.2749681888103879</v>
@@ -23634,7 +23634,7 @@
         <v>0.892430874224488</v>
       </c>
       <c r="D256">
-        <v>0.2646699973876524</v>
+        <v>0.6151332259466205</v>
       </c>
       <c r="E256">
         <v>0.2842488649902704</v>
@@ -23660,7 +23660,7 @@
         <v>0.9010460047886028</v>
       </c>
       <c r="D257">
-        <v>0.3088798897580006</v>
+        <v>0.6359967240687927</v>
       </c>
       <c r="E257">
         <v>0.2726287085593807</v>
@@ -23686,7 +23686,7 @@
         <v>0.9073491991116083</v>
       </c>
       <c r="D258">
-        <v>0.2987284263019968</v>
+        <v>0.6348278098116922</v>
       </c>
       <c r="E258">
         <v>0.2638028654414601</v>
@@ -23712,7 +23712,7 @@
         <v>0.9069548241191017</v>
       </c>
       <c r="D259">
-        <v>0.2658086493092519</v>
+        <v>0.6186914629771663</v>
       </c>
       <c r="E259">
         <v>0.2643637174606372</v>
@@ -23738,7 +23738,7 @@
         <v>0.9034811801688476</v>
       </c>
       <c r="D260">
-        <v>0.3060354850982595</v>
+        <v>0.6441219629662742</v>
       </c>
       <c r="E260">
         <v>0.2692532295763426</v>
@@ -23764,7 +23764,7 @@
         <v>0.910892189982066</v>
       </c>
       <c r="D261">
-        <v>0.2687958909857443</v>
+        <v>0.6227576280211704</v>
       </c>
       <c r="E261">
         <v>0.2587097550676726</v>
@@ -23790,7 +23790,7 @@
         <v>0.9111643930775177</v>
       </c>
       <c r="D262">
-        <v>0.2956973032176156</v>
+        <v>0.6190213210277558</v>
       </c>
       <c r="E262">
         <v>0.2583143045525506</v>
@@ -23816,7 +23816,7 @@
         <v>0.9110754081531085</v>
       </c>
       <c r="D263">
-        <v>0.256319905320562</v>
+        <v>0.6107811665219955</v>
       </c>
       <c r="E263">
         <v>0.2584436464142379</v>
@@ -23842,7 +23842,7 @@
         <v>0.9096108424981101</v>
       </c>
       <c r="D264">
-        <v>0.2707997035664785</v>
+        <v>0.6285320658358291</v>
       </c>
       <c r="E264">
         <v>0.2605632058193469</v>
@@ -23868,7 +23868,7 @@
         <v>0.9138043140126368</v>
       </c>
       <c r="D265">
-        <v>0.28115743133593</v>
+        <v>0.6208374487159101</v>
       </c>
       <c r="E265">
         <v>0.2544472050938277</v>
@@ -23894,7 +23894,7 @@
         <v>0.9162491475070781</v>
       </c>
       <c r="D266">
-        <v>0.3088138864091803</v>
+        <v>0.6286776952358459</v>
       </c>
       <c r="E266">
         <v>0.2508127083608127</v>
@@ -23920,7 +23920,7 @@
         <v>0.911013247603777</v>
       </c>
       <c r="D267">
-        <v>0.3025059591299751</v>
+        <v>0.6223442545908706</v>
       </c>
       <c r="E267">
         <v>0.2585339599721577</v>
@@ -23946,7 +23946,7 @@
         <v>0.8513965153028819</v>
       </c>
       <c r="D268">
-        <v>0.338845178457717</v>
+        <v>0.4743228655624493</v>
       </c>
       <c r="E268">
         <v>0.3340945694712615</v>
@@ -23972,7 +23972,7 @@
         <v>0.8741347068979913</v>
       </c>
       <c r="D269">
-        <v>0.3003425027331663</v>
+        <v>0.5904303550845804</v>
       </c>
       <c r="E269">
         <v>0.3074736585354466</v>
@@ -23998,7 +23998,7 @@
         <v>0.8623303161927072</v>
       </c>
       <c r="D270">
-        <v>0.1242751739628453</v>
+        <v>0.5808055095962348</v>
       </c>
       <c r="E270">
         <v>0.3215689274777834</v>
@@ -24024,7 +24024,7 @@
         <v>0.8710351255642307</v>
       </c>
       <c r="D271">
-        <v>-0.06641014245106724</v>
+        <v>0.5598018676360959</v>
       </c>
       <c r="E271">
         <v>0.311236583608477</v>
@@ -24050,7 +24050,7 @@
         <v>0.8786077653257238</v>
       </c>
       <c r="D272">
-        <v>0.04792725050235147</v>
+        <v>0.5529336049409179</v>
       </c>
       <c r="E272">
         <v>0.3019606647825572</v>
@@ -24076,7 +24076,7 @@
         <v>0.8797615955906439</v>
       </c>
       <c r="D273">
-        <v>-0.06252780299784333</v>
+        <v>0.5370027627602236</v>
       </c>
       <c r="E273">
         <v>0.3005221739955485</v>
@@ -24102,7 +24102,7 @@
         <v>0.8998978647889461</v>
       </c>
       <c r="D274">
-        <v>-0.05991990388280866</v>
+        <v>0.5308213729726539</v>
       </c>
       <c r="E274">
         <v>0.2742057706660686</v>
@@ -24128,7 +24128,7 @@
         <v>0.8951403380626135</v>
       </c>
       <c r="D275">
-        <v>-0.1961838324475889</v>
+        <v>0.5220983855055085</v>
       </c>
       <c r="E275">
         <v>0.2806461871552965</v>
@@ -24154,7 +24154,7 @@
         <v>0.9027705143757436</v>
       </c>
       <c r="D276">
-        <v>-0.1940684751135526</v>
+        <v>0.5194121962806826</v>
       </c>
       <c r="E276">
         <v>0.2702426642088714</v>
@@ -24180,7 +24180,7 @@
         <v>0.9092890684995482</v>
       </c>
       <c r="D277">
-        <v>-0.07586479376804034</v>
+        <v>0.5329980586464526</v>
       </c>
       <c r="E277">
         <v>0.2610265798693953</v>
@@ -24206,7 +24206,7 @@
         <v>0.9085295404155497</v>
       </c>
       <c r="D278">
-        <v>-0.09194311617273221</v>
+        <v>0.5260226415508634</v>
       </c>
       <c r="E278">
         <v>0.2621170975099617</v>
@@ -24232,7 +24232,7 @@
         <v>0.906426053004322</v>
       </c>
       <c r="D279">
-        <v>-0.07536219129875477</v>
+        <v>0.549266793196358</v>
       </c>
       <c r="E279">
         <v>0.2651138361888413</v>
@@ -24258,7 +24258,7 @@
         <v>0.914196536622543</v>
       </c>
       <c r="D280">
-        <v>-0.08654994190605203</v>
+        <v>0.5321313448711991</v>
       </c>
       <c r="E280">
         <v>0.2538676300458716</v>
@@ -24284,7 +24284,7 @@
         <v>0.9125561806825574</v>
       </c>
       <c r="D281">
-        <v>-0.01429802842727135</v>
+        <v>0.5352458953400627</v>
       </c>
       <c r="E281">
         <v>0.2562828109628008</v>
@@ -24310,7 +24310,7 @@
         <v>0.9127923035634921</v>
       </c>
       <c r="D282">
-        <v>-0.06268571698210268</v>
+        <v>0.5269173696757923</v>
       </c>
       <c r="E282">
         <v>0.2559365592623418</v>
@@ -24336,7 +24336,7 @@
         <v>0.9133098176391654</v>
       </c>
       <c r="D283">
-        <v>-0.03080686122308851</v>
+        <v>0.5527624541772997</v>
       </c>
       <c r="E283">
         <v>0.2551760308788764</v>
@@ -24362,7 +24362,7 @@
         <v>0.9170135879924217</v>
       </c>
       <c r="D284">
-        <v>0.01588693235815763</v>
+        <v>0.5471598294478046</v>
       </c>
       <c r="E284">
         <v>0.2496654310458173</v>
@@ -24388,7 +24388,7 @@
         <v>0.9199779232293137</v>
       </c>
       <c r="D285">
-        <v>0.08318319127653806</v>
+        <v>0.5596252591429747</v>
       </c>
       <c r="E285">
         <v>0.2451657670730888</v>
@@ -24414,7 +24414,7 @@
         <v>0.9145025707854839</v>
       </c>
       <c r="D286">
-        <v>0.1033534813655622</v>
+        <v>0.5625244977769355</v>
       </c>
       <c r="E286">
         <v>0.2534144923498928</v>
@@ -24440,7 +24440,7 @@
         <v>0.8356530428941762</v>
       </c>
       <c r="D287">
-        <v>0.06967711016936795</v>
+        <v>0.4282395263300568</v>
       </c>
       <c r="E287">
         <v>0.3513465985636791</v>
@@ -24466,7 +24466,7 @@
         <v>0.8596336370012998</v>
       </c>
       <c r="D288">
-        <v>0.1317578092341318</v>
+        <v>0.5562122662431226</v>
       </c>
       <c r="E288">
         <v>0.3247031062177732</v>
@@ -24492,7 +24492,7 @@
         <v>0.8686887092982652</v>
       </c>
       <c r="D289">
-        <v>-0.2106365906830256</v>
+        <v>0.4909429743637128</v>
       </c>
       <c r="E289">
         <v>0.3140551754788114</v>
@@ -24518,7 +24518,7 @@
         <v>0.8543447492728536</v>
       </c>
       <c r="D290">
-        <v>-0.3540295767534685</v>
+        <v>0.4754813887529303</v>
       </c>
       <c r="E290">
         <v>0.3307638148790359</v>
@@ -24544,7 +24544,7 @@
         <v>0.8753640924944096</v>
       </c>
       <c r="D291">
-        <v>-0.1418899997143763</v>
+        <v>0.4947842305605002</v>
       </c>
       <c r="E291">
         <v>0.3059683537436335</v>
@@ -24570,7 +24570,7 @@
         <v>0.8829344719821091</v>
       </c>
       <c r="D292">
-        <v>-0.2991397733206129</v>
+        <v>0.454300734904227</v>
       </c>
       <c r="E292">
         <v>0.2965305436731521</v>
@@ -24596,7 +24596,7 @@
         <v>0.904289555042863</v>
       </c>
       <c r="D293">
-        <v>-0.2880560572746798</v>
+        <v>0.4544316590386428</v>
       </c>
       <c r="E293">
         <v>0.2681233193593499</v>
@@ -24622,7 +24622,7 @@
         <v>0.8959326601106961</v>
       </c>
       <c r="D294">
-        <v>-0.4162400535998045</v>
+        <v>0.4407582878041197</v>
       </c>
       <c r="E294">
         <v>0.2795838921051369</v>
@@ -24648,7 +24648,7 @@
         <v>0.9004302580241258</v>
       </c>
       <c r="D295">
-        <v>-0.3222182184333482</v>
+        <v>0.4597188239359967</v>
       </c>
       <c r="E295">
         <v>0.2734756168054587</v>
@@ -24674,7 +24674,7 @@
         <v>0.9074707754977999</v>
       </c>
       <c r="D296">
-        <v>-0.1838179129082909</v>
+        <v>0.4860592876609896</v>
       </c>
       <c r="E296">
         <v>0.2636297275574171</v>
@@ -24700,7 +24700,7 @@
         <v>0.9021525026248918</v>
       </c>
       <c r="D297">
-        <v>-0.2297054540980286</v>
+        <v>0.4660332937536655</v>
       </c>
       <c r="E297">
         <v>0.2711001643187549</v>
@@ -24726,7 +24726,7 @@
         <v>0.9001797620854428</v>
       </c>
       <c r="D298">
-        <v>-0.1830865555960066</v>
+        <v>0.4965841598909098</v>
       </c>
       <c r="E298">
         <v>0.2738194034742066</v>
@@ -24752,7 +24752,7 @@
         <v>0.9010749951154918</v>
       </c>
       <c r="D299">
-        <v>-0.1197828652063044</v>
+        <v>0.5107827889632647</v>
       </c>
       <c r="E299">
         <v>0.2725887699276812</v>
@@ -24778,7 +24778,7 @@
         <v>0.9009666702126395</v>
       </c>
       <c r="D300">
-        <v>-0.01000240856762979</v>
+        <v>0.5362781773132002</v>
       </c>
       <c r="E300">
         <v>0.2727379742314652</v>
@@ -24804,7 +24804,7 @@
         <v>0.9034181106611711</v>
       </c>
       <c r="D301">
-        <v>-0.07871994030267215</v>
+        <v>0.5157028812661613</v>
       </c>
       <c r="E301">
         <v>0.2693411859740121</v>
@@ -24830,7 +24830,7 @@
         <v>0.9073596491680683</v>
       </c>
       <c r="D302">
-        <v>-0.06986678925623613</v>
+        <v>0.5262051923339812</v>
       </c>
       <c r="E302">
         <v>0.2637879878983114</v>
@@ -24856,7 +24856,7 @@
         <v>0.9103387152992685</v>
       </c>
       <c r="D303">
-        <v>-0.08419159509171426</v>
+        <v>0.511029079310134</v>
       </c>
       <c r="E303">
         <v>0.2595119722908206</v>
@@ -24882,7 +24882,7 @@
         <v>0.9138702375596185</v>
       </c>
       <c r="D304">
-        <v>-0.1310019378879979</v>
+        <v>0.4905816581895767</v>
       </c>
       <c r="E304">
         <v>0.2543498842675718</v>
@@ -24908,7 +24908,7 @@
         <v>0.9123289372716225</v>
       </c>
       <c r="D305">
-        <v>-0.1442578874250602</v>
+        <v>0.4774549349799758</v>
       </c>
       <c r="E305">
         <v>0.2566156005927041</v>
@@ -24934,7 +24934,7 @@
         <v>0.7994950901835556</v>
       </c>
       <c r="D306">
-        <v>0.3469237800543603</v>
+        <v>0.5276900532257646</v>
       </c>
       <c r="E306">
         <v>0.3880765721631692</v>
@@ -24960,7 +24960,7 @@
         <v>0.8498022868351323</v>
       </c>
       <c r="D307">
-        <v>0.3688855757072962</v>
+        <v>0.6300757187097384</v>
       </c>
       <c r="E307">
         <v>0.3358818834831357</v>
@@ -24986,7 +24986,7 @@
         <v>0.8679621136638876</v>
       </c>
       <c r="D308">
-        <v>0.0853179296576968</v>
+        <v>0.5424773596900127</v>
       </c>
       <c r="E308">
         <v>0.3149228705619275</v>
@@ -25012,7 +25012,7 @@
         <v>0.8659277393213423</v>
       </c>
       <c r="D309">
-        <v>0.008861248596713667</v>
+        <v>0.5328289281181843</v>
       </c>
       <c r="E309">
         <v>0.3173396846679862</v>
@@ -25038,7 +25038,7 @@
         <v>0.8579327404927918</v>
       </c>
       <c r="D310">
-        <v>0.2505909891733669</v>
+        <v>0.599577661969215</v>
       </c>
       <c r="E310">
         <v>0.3266644854938043</v>
@@ -25064,7 +25064,7 @@
         <v>0.8675045579499158</v>
       </c>
       <c r="D311">
-        <v>0.1397026941214208</v>
+        <v>0.5399123461444411</v>
       </c>
       <c r="E311">
         <v>0.3154680555255057</v>
@@ -25090,7 +25090,7 @@
         <v>0.8894030353915828</v>
       </c>
       <c r="D312">
-        <v>0.09555433426790294</v>
+        <v>0.5274588100619594</v>
       </c>
       <c r="E312">
         <v>0.2882215991913654</v>
@@ -25116,7 +25116,7 @@
         <v>0.8834535863429971</v>
       </c>
       <c r="D313">
-        <v>-0.04199086223785131</v>
+        <v>0.5024622414108032</v>
       </c>
       <c r="E313">
         <v>0.2958723469530316</v>
@@ -25142,7 +25142,7 @@
         <v>0.8929242101267993</v>
       </c>
       <c r="D314">
-        <v>0.009040459284753277</v>
+        <v>0.5049382372256438</v>
       </c>
       <c r="E314">
         <v>0.2835963017166269</v>
@@ -25168,7 +25168,7 @@
         <v>0.8987180992242862</v>
       </c>
       <c r="D315">
-        <v>0.03166136478848058</v>
+        <v>0.5062813672402207</v>
       </c>
       <c r="E315">
         <v>0.275816879876578</v>
@@ -25194,7 +25194,7 @@
         <v>0.9026786871770149</v>
       </c>
       <c r="D316">
-        <v>0.008835107981544743</v>
+        <v>0.4902931070613592</v>
       </c>
       <c r="E316">
         <v>0.2703702477820712</v>
@@ -25220,7 +25220,7 @@
         <v>0.8988620245275916</v>
       </c>
       <c r="D317">
-        <v>0.1087160744710881</v>
+        <v>0.5206566554092545</v>
       </c>
       <c r="E317">
         <v>0.2756208372443211</v>
@@ -25246,7 +25246,7 @@
         <v>0.9011649839044721</v>
       </c>
       <c r="D318">
-        <v>0.1299436341151264</v>
+        <v>0.5244685512244123</v>
       </c>
       <c r="E318">
         <v>0.2724647592471711</v>
@@ -25272,7 +25272,7 @@
         <v>0.9027955422818565</v>
       </c>
       <c r="D319">
-        <v>0.1605098655161359</v>
+        <v>0.5343600367310015</v>
       </c>
       <c r="E319">
         <v>0.2702078802989478</v>
@@ -25298,7 +25298,7 @@
         <v>0.9035927297285606</v>
       </c>
       <c r="D320">
-        <v>0.1308641912978371</v>
+        <v>0.5247911903417661</v>
       </c>
       <c r="E320">
         <v>0.2690975927669544</v>
@@ -25324,7 +25324,7 @@
         <v>0.9074680115243201</v>
       </c>
       <c r="D321">
-        <v>0.1306736350431018</v>
+        <v>0.5364397933954799</v>
       </c>
       <c r="E321">
         <v>0.2636336650168408</v>
@@ -25350,7 +25350,7 @@
         <v>0.9102294346610267</v>
       </c>
       <c r="D322">
-        <v>0.1750296655374612</v>
+        <v>0.5482289834681477</v>
       </c>
       <c r="E322">
         <v>0.2596700728468396</v>
@@ -25376,7 +25376,7 @@
         <v>0.9131927965412545</v>
       </c>
       <c r="D323">
-        <v>0.146916255358804</v>
+        <v>0.5326083788805627</v>
       </c>
       <c r="E323">
         <v>0.2553482009453895</v>
@@ -25402,7 +25402,7 @@
         <v>0.9117828347059249</v>
       </c>
       <c r="D324">
-        <v>0.1101376508921228</v>
+        <v>0.5118713306137946</v>
       </c>
       <c r="E324">
         <v>0.2574135884360223</v>
@@ -25428,7 +25428,7 @@
         <v>0.7994950901835556</v>
       </c>
       <c r="D325">
-        <v>0.3469237800543603</v>
+        <v>0.5276900532257646</v>
       </c>
       <c r="E325">
         <v>0.3880765721631692</v>
@@ -25454,7 +25454,7 @@
         <v>0.8498022868351323</v>
       </c>
       <c r="D326">
-        <v>0.3688855757072962</v>
+        <v>0.6300757187097384</v>
       </c>
       <c r="E326">
         <v>0.3358818834831357</v>
@@ -25480,7 +25480,7 @@
         <v>0.8679621136638876</v>
       </c>
       <c r="D327">
-        <v>0.0853179296576968</v>
+        <v>0.5424773596900127</v>
       </c>
       <c r="E327">
         <v>0.3149228705619275</v>
@@ -25506,7 +25506,7 @@
         <v>0.8659277393213423</v>
       </c>
       <c r="D328">
-        <v>0.008861248596713667</v>
+        <v>0.5328289281181843</v>
       </c>
       <c r="E328">
         <v>0.3173396846679862</v>
@@ -25532,7 +25532,7 @@
         <v>0.8579327404927918</v>
       </c>
       <c r="D329">
-        <v>0.2505909891733669</v>
+        <v>0.599577661969215</v>
       </c>
       <c r="E329">
         <v>0.3266644854938043</v>
@@ -25558,7 +25558,7 @@
         <v>0.8675045579499158</v>
       </c>
       <c r="D330">
-        <v>0.1397026941214208</v>
+        <v>0.5399123461444411</v>
       </c>
       <c r="E330">
         <v>0.3154680555255057</v>
@@ -25584,7 +25584,7 @@
         <v>0.8894030353915828</v>
       </c>
       <c r="D331">
-        <v>0.09555433426790294</v>
+        <v>0.5274588100619594</v>
       </c>
       <c r="E331">
         <v>0.2882215991913654</v>
@@ -25610,7 +25610,7 @@
         <v>0.8834535863429971</v>
       </c>
       <c r="D332">
-        <v>-0.04199086223785131</v>
+        <v>0.5024622414108032</v>
       </c>
       <c r="E332">
         <v>0.2958723469530316</v>
@@ -25636,7 +25636,7 @@
         <v>0.8929242101267993</v>
       </c>
       <c r="D333">
-        <v>0.009040459284753277</v>
+        <v>0.5049382372256438</v>
       </c>
       <c r="E333">
         <v>0.2835963017166269</v>
@@ -25662,7 +25662,7 @@
         <v>0.8987180992242862</v>
       </c>
       <c r="D334">
-        <v>0.03166136478848058</v>
+        <v>0.5062813672402207</v>
       </c>
       <c r="E334">
         <v>0.275816879876578</v>
@@ -25688,7 +25688,7 @@
         <v>0.9026786871770149</v>
       </c>
       <c r="D335">
-        <v>0.008835107981544743</v>
+        <v>0.4902931070613592</v>
       </c>
       <c r="E335">
         <v>0.2703702477820712</v>
@@ -25714,7 +25714,7 @@
         <v>0.8988620245275916</v>
       </c>
       <c r="D336">
-        <v>0.1087160744710881</v>
+        <v>0.5206566554092545</v>
       </c>
       <c r="E336">
         <v>0.2756208372443211</v>
@@ -25740,7 +25740,7 @@
         <v>0.9011649839044721</v>
       </c>
       <c r="D337">
-        <v>0.1299436341151264</v>
+        <v>0.5244685512244123</v>
       </c>
       <c r="E337">
         <v>0.2724647592471711</v>
@@ -25766,7 +25766,7 @@
         <v>0.9027955422818565</v>
       </c>
       <c r="D338">
-        <v>0.1605098655161359</v>
+        <v>0.5343600367310015</v>
       </c>
       <c r="E338">
         <v>0.2702078802989478</v>
@@ -25792,7 +25792,7 @@
         <v>0.9035927297285606</v>
       </c>
       <c r="D339">
-        <v>0.1308641912978371</v>
+        <v>0.5247911903417661</v>
       </c>
       <c r="E339">
         <v>0.2690975927669544</v>
@@ -25818,7 +25818,7 @@
         <v>0.9074680115243201</v>
       </c>
       <c r="D340">
-        <v>0.1306736350431018</v>
+        <v>0.5364397933954799</v>
       </c>
       <c r="E340">
         <v>0.2636336650168408</v>
@@ -25844,7 +25844,7 @@
         <v>0.9102294346610267</v>
       </c>
       <c r="D341">
-        <v>0.1750296655374612</v>
+        <v>0.5482289834681477</v>
       </c>
       <c r="E341">
         <v>0.2596700728468396</v>
@@ -25870,7 +25870,7 @@
         <v>0.9131927965412545</v>
       </c>
       <c r="D342">
-        <v>0.146916255358804</v>
+        <v>0.5326083788805627</v>
       </c>
       <c r="E342">
         <v>0.2553482009453895</v>
@@ -25896,7 +25896,7 @@
         <v>0.9117828347059249</v>
       </c>
       <c r="D343">
-        <v>0.1101376508921228</v>
+        <v>0.5118713306137946</v>
       </c>
       <c r="E343">
         <v>0.2574135884360223</v>
@@ -25922,7 +25922,7 @@
         <v>0.7896035206095766</v>
       </c>
       <c r="D344">
-        <v>0.007808638884126418</v>
+        <v>0.1929677184173866</v>
       </c>
       <c r="E344">
         <v>0.3975338858282142</v>
@@ -25948,7 +25948,7 @@
         <v>0.8275819060005789</v>
       </c>
       <c r="D345">
-        <v>-0.06899354437597682</v>
+        <v>0.3848235152600656</v>
       </c>
       <c r="E345">
         <v>0.3598705765008198</v>
@@ -25974,7 +25974,7 @@
         <v>0.8313796162310748</v>
       </c>
       <c r="D346">
-        <v>-1.333000371995401</v>
+        <v>0.3056709471510376</v>
       </c>
       <c r="E346">
         <v>0.3558852235640594</v>
@@ -26000,7 +26000,7 @@
         <v>0.8316848500124363</v>
       </c>
       <c r="D347">
-        <v>-1.289449724972117</v>
+        <v>0.3256915832257256</v>
       </c>
       <c r="E347">
         <v>0.3555629689413809</v>
@@ -26026,7 +26026,7 @@
         <v>0.8415166295976855</v>
       </c>
       <c r="D348">
-        <v>-0.7782430284360233</v>
+        <v>0.3726103911267212</v>
       </c>
       <c r="E348">
         <v>0.345021984621356</v>
@@ -26052,7 +26052,7 @@
         <v>0.8477617035223239</v>
       </c>
       <c r="D349">
-        <v>-0.7242617964750786</v>
+        <v>0.3600536368082345</v>
       </c>
       <c r="E349">
         <v>0.3381558285785521</v>
@@ -26078,7 +26078,7 @@
         <v>0.8655607040796734</v>
       </c>
       <c r="D350">
-        <v>-0.7292769757619408</v>
+        <v>0.323400545941613</v>
       </c>
       <c r="E350">
         <v>0.3177737611914159</v>
@@ -26104,7 +26104,7 @@
         <v>0.8518125314591082</v>
       </c>
       <c r="D351">
-        <v>-0.884677437817553</v>
+        <v>0.3046164295970815</v>
       </c>
       <c r="E351">
         <v>0.3336265920540503</v>
@@ -26130,7 +26130,7 @@
         <v>0.8688725361715883</v>
       </c>
       <c r="D352">
-        <v>-0.8067613702168908</v>
+        <v>0.3368792454518075</v>
       </c>
       <c r="E352">
         <v>0.3138352705492837</v>
@@ -26156,7 +26156,7 @@
         <v>0.8724588507976907</v>
       </c>
       <c r="D353">
-        <v>-0.6658997484341902</v>
+        <v>0.3291601085591471</v>
       </c>
       <c r="E353">
         <v>0.3095138465642387</v>
@@ -26182,7 +26182,7 @@
         <v>0.8723526160168547</v>
       </c>
       <c r="D354">
-        <v>-0.627759207565038</v>
+        <v>0.3249763947878718</v>
       </c>
       <c r="E354">
         <v>0.3096427237606012</v>
@@ -26208,7 +26208,7 @@
         <v>0.871506818356289</v>
       </c>
       <c r="D355">
-        <v>-0.4691433441705084</v>
+        <v>0.3387993111627798</v>
       </c>
       <c r="E355">
         <v>0.3106668837638715</v>
@@ -26234,7 +26234,7 @@
         <v>0.8811234740601536</v>
       </c>
       <c r="D356">
-        <v>-0.3420922563387512</v>
+        <v>0.3693438324173365</v>
       </c>
       <c r="E356">
         <v>0.298815397357581</v>
@@ -26260,7 +26260,7 @@
         <v>0.8828477404004011</v>
       </c>
       <c r="D357">
-        <v>-0.2660291059668887</v>
+        <v>0.3915900734509983</v>
       </c>
       <c r="E357">
         <v>0.296640370202278</v>
@@ -26286,7 +26286,7 @@
         <v>0.8837992126227756</v>
       </c>
       <c r="D358">
-        <v>-0.2785010194201565</v>
+        <v>0.3896795852989027</v>
       </c>
       <c r="E358">
         <v>0.2954333064727031</v>
@@ -26312,7 +26312,7 @@
         <v>0.888140096763064</v>
       </c>
       <c r="D359">
-        <v>-0.2689037562700429</v>
+        <v>0.4095301438232818</v>
       </c>
       <c r="E359">
         <v>0.2898625705817668</v>
@@ -26338,7 +26338,7 @@
         <v>0.8903614762495707</v>
       </c>
       <c r="D360">
-        <v>-0.2324123285406678</v>
+        <v>0.416077664005339</v>
       </c>
       <c r="E360">
         <v>0.2869700076529063</v>
@@ -26364,7 +26364,7 @@
         <v>0.8938871945661487</v>
       </c>
       <c r="D361">
-        <v>-0.2503918835962826</v>
+        <v>0.4047743781321049</v>
       </c>
       <c r="E361">
         <v>0.2823181620448165</v>
@@ -26390,7 +26390,7 @@
         <v>0.8941497703089863</v>
       </c>
       <c r="D362">
-        <v>-0.2515333751234108</v>
+        <v>0.3918604229068592</v>
       </c>
       <c r="E362">
         <v>0.2819686480715513</v>
@@ -26416,7 +26416,7 @@
         <v>0.7896035206095766</v>
       </c>
       <c r="D363">
-        <v>0.007808638884126418</v>
+        <v>0.1929677184173866</v>
       </c>
       <c r="E363">
         <v>0.3975338858282142</v>
@@ -26442,7 +26442,7 @@
         <v>0.8275819060005789</v>
       </c>
       <c r="D364">
-        <v>-0.06899354437597682</v>
+        <v>0.3848235152600656</v>
       </c>
       <c r="E364">
         <v>0.3598705765008198</v>
@@ -26468,7 +26468,7 @@
         <v>0.8313796162310748</v>
       </c>
       <c r="D365">
-        <v>-1.333000371995401</v>
+        <v>0.3056709471510376</v>
       </c>
       <c r="E365">
         <v>0.3558852235640594</v>
@@ -26494,7 +26494,7 @@
         <v>0.8316848500124363</v>
       </c>
       <c r="D366">
-        <v>-1.289449724972117</v>
+        <v>0.3256915832257256</v>
       </c>
       <c r="E366">
         <v>0.3555629689413809</v>
@@ -26520,7 +26520,7 @@
         <v>0.8415166295976855</v>
       </c>
       <c r="D367">
-        <v>-0.7782430284360233</v>
+        <v>0.3726103911267212</v>
       </c>
       <c r="E367">
         <v>0.345021984621356</v>
@@ -26546,7 +26546,7 @@
         <v>0.8477617035223239</v>
       </c>
       <c r="D368">
-        <v>-0.7242617964750786</v>
+        <v>0.3600536368082345</v>
       </c>
       <c r="E368">
         <v>0.3381558285785521</v>
@@ -26572,7 +26572,7 @@
         <v>0.8655607040796734</v>
       </c>
       <c r="D369">
-        <v>-0.7292769757619408</v>
+        <v>0.323400545941613</v>
       </c>
       <c r="E369">
         <v>0.3177737611914159</v>
@@ -26598,7 +26598,7 @@
         <v>0.8518125314591082</v>
       </c>
       <c r="D370">
-        <v>-0.884677437817553</v>
+        <v>0.3046164295970815</v>
       </c>
       <c r="E370">
         <v>0.3336265920540503</v>
@@ -26624,7 +26624,7 @@
         <v>0.8688725361715883</v>
       </c>
       <c r="D371">
-        <v>-0.8067613702168908</v>
+        <v>0.3368792454518075</v>
       </c>
       <c r="E371">
         <v>0.3138352705492837</v>
@@ -26650,7 +26650,7 @@
         <v>0.8724588507976907</v>
       </c>
       <c r="D372">
-        <v>-0.6658997484341902</v>
+        <v>0.3291601085591471</v>
       </c>
       <c r="E372">
         <v>0.3095138465642387</v>
@@ -26676,7 +26676,7 @@
         <v>0.8723526160168547</v>
       </c>
       <c r="D373">
-        <v>-0.627759207565038</v>
+        <v>0.3249763947878718</v>
       </c>
       <c r="E373">
         <v>0.3096427237606012</v>
@@ -26702,7 +26702,7 @@
         <v>0.871506818356289</v>
       </c>
       <c r="D374">
-        <v>-0.4691433441705084</v>
+        <v>0.3387993111627798</v>
       </c>
       <c r="E374">
         <v>0.3106668837638715</v>
@@ -26728,7 +26728,7 @@
         <v>0.8811234740601536</v>
       </c>
       <c r="D375">
-        <v>-0.3420922563387512</v>
+        <v>0.3693438324173365</v>
       </c>
       <c r="E375">
         <v>0.298815397357581</v>
@@ -26754,7 +26754,7 @@
         <v>0.8828477404004011</v>
       </c>
       <c r="D376">
-        <v>-0.2660291059668887</v>
+        <v>0.3915900734509983</v>
       </c>
       <c r="E376">
         <v>0.296640370202278</v>
@@ -26780,7 +26780,7 @@
         <v>0.8837992126227756</v>
       </c>
       <c r="D377">
-        <v>-0.2785010194201565</v>
+        <v>0.3896795852989027</v>
       </c>
       <c r="E377">
         <v>0.2954333064727031</v>
@@ -26806,7 +26806,7 @@
         <v>0.888140096763064</v>
       </c>
       <c r="D378">
-        <v>-0.2689037562700429</v>
+        <v>0.4095301438232818</v>
       </c>
       <c r="E378">
         <v>0.2898625705817668</v>
@@ -26832,7 +26832,7 @@
         <v>0.8903614762495707</v>
       </c>
       <c r="D379">
-        <v>-0.2324123285406678</v>
+        <v>0.416077664005339</v>
       </c>
       <c r="E379">
         <v>0.2869700076529063</v>
@@ -26858,7 +26858,7 @@
         <v>0.8938871945661487</v>
       </c>
       <c r="D380">
-        <v>-0.2503918835962826</v>
+        <v>0.4047743781321049</v>
       </c>
       <c r="E380">
         <v>0.2823181620448165</v>
@@ -26884,7 +26884,7 @@
         <v>0.8941497703089863</v>
       </c>
       <c r="D381">
-        <v>-0.2515333751234108</v>
+        <v>0.3918604229068592</v>
       </c>
       <c r="E381">
         <v>0.2819686480715513</v>
@@ -26910,7 +26910,7 @@
         <v>0.7594835181688449</v>
       </c>
       <c r="D382">
-        <v>-0.7735479933362144</v>
+        <v>0.09671521181957443</v>
       </c>
       <c r="E382">
         <v>0.4250375905191773</v>
@@ -26936,7 +26936,7 @@
         <v>0.7724407889301514</v>
       </c>
       <c r="D383">
-        <v>-0.8573477198165127</v>
+        <v>0.2781516485880556</v>
       </c>
       <c r="E383">
         <v>0.4134301351342763</v>
@@ -26962,7 +26962,7 @@
         <v>0.7891834553260113</v>
       </c>
       <c r="D384">
-        <v>-0.9807560557986095</v>
+        <v>0.1615515716093698</v>
       </c>
       <c r="E384">
         <v>0.3979305343780357</v>
@@ -26988,7 +26988,7 @@
         <v>0.7825224661209014</v>
       </c>
       <c r="D385">
-        <v>-1.020225797695105</v>
+        <v>0.2462494087395388</v>
       </c>
       <c r="E385">
         <v>0.4041681807311192</v>
@@ -27014,7 +27014,7 @@
         <v>0.7846692371313412</v>
       </c>
       <c r="D386">
-        <v>-1.005552540892874</v>
+        <v>0.2131472408389785</v>
       </c>
       <c r="E386">
         <v>0.4021684146826052</v>
@@ -27040,7 +27040,7 @@
         <v>0.7936099991111485</v>
       </c>
       <c r="D387">
-        <v>-0.9536637734926661</v>
+        <v>0.2162080014859034</v>
       </c>
       <c r="E387">
         <v>0.3937306702465285</v>
@@ -27066,7 +27066,7 @@
         <v>0.8068895358718677</v>
       </c>
       <c r="D388">
-        <v>-0.823455272306461</v>
+        <v>0.2433982256937461</v>
       </c>
       <c r="E388">
         <v>0.3808533881324997</v>
@@ -27092,7 +27092,7 @@
         <v>0.7947669042089353</v>
       </c>
       <c r="D389">
-        <v>-0.9912995726005309</v>
+        <v>0.2636592458249571</v>
       </c>
       <c r="E389">
         <v>0.3926256042449026</v>
@@ -27118,7 +27118,7 @@
         <v>0.8021687986523774</v>
       </c>
       <c r="D390">
-        <v>-1.03132811032175</v>
+        <v>0.2421156639165445</v>
       </c>
       <c r="E390">
         <v>0.3854804114130807</v>
@@ -27144,7 +27144,7 @@
         <v>0.8076818314100453</v>
       </c>
       <c r="D391">
-        <v>-1.051530237749185</v>
+        <v>0.2437594058474933</v>
       </c>
       <c r="E391">
         <v>0.3800713005792451</v>
@@ -27170,7 +27170,7 @@
         <v>0.8035567892317569</v>
       </c>
       <c r="D392">
-        <v>-1.087464206420642</v>
+        <v>0.259909889600163</v>
       </c>
       <c r="E392">
         <v>0.38412575918182</v>
@@ -27196,7 +27196,7 @@
         <v>0.8023809754842871</v>
       </c>
       <c r="D393">
-        <v>-1.146258488272715</v>
+        <v>0.2515192500919625</v>
       </c>
       <c r="E393">
         <v>0.3852736392914152</v>
@@ -27222,7 +27222,7 @@
         <v>0.8069331983724761</v>
       </c>
       <c r="D394">
-        <v>-1.047942569229413</v>
+        <v>0.247606782601288</v>
       </c>
       <c r="E394">
         <v>0.3808103300014137</v>
@@ -27248,7 +27248,7 @@
         <v>0.8065868905797213</v>
       </c>
       <c r="D395">
-        <v>-1.025724782954146</v>
+        <v>0.2585468276074825</v>
       </c>
       <c r="E395">
         <v>0.3811517105464941</v>
@@ -27274,7 +27274,7 @@
         <v>0.8047450195455733</v>
       </c>
       <c r="D396">
-        <v>-1.038125163327419</v>
+        <v>0.2493315691244169</v>
       </c>
       <c r="E396">
         <v>0.3829622621862764</v>
@@ -27300,7 +27300,7 @@
         <v>0.8069806201046668</v>
       </c>
       <c r="D397">
-        <v>-1.094924837951968</v>
+        <v>0.2609874995279977</v>
       </c>
       <c r="E397">
         <v>0.3807635591573902</v>
@@ -27326,7 +27326,7 @@
         <v>0.8101231474101656</v>
       </c>
       <c r="D398">
-        <v>-0.9850622230087573</v>
+        <v>0.2777412306482028</v>
       </c>
       <c r="E398">
         <v>0.3776512545758078</v>
@@ -27352,7 +27352,7 @@
         <v>0.8125539340401071</v>
       </c>
       <c r="D399">
-        <v>-1.031579097079632</v>
+        <v>0.2648723703036959</v>
       </c>
       <c r="E399">
         <v>0.3752261391097914</v>
@@ -27378,7 +27378,7 @@
         <v>0.8123317034324147</v>
       </c>
       <c r="D400">
-        <v>-0.9755652678538178</v>
+        <v>0.2639284321761738</v>
       </c>
       <c r="E400">
         <v>0.3754485018249217</v>
@@ -27404,7 +27404,7 @@
         <v>0.7594835181688449</v>
       </c>
       <c r="D401">
-        <v>-0.7735479933362144</v>
+        <v>0.09671521181957443</v>
       </c>
       <c r="E401">
         <v>0.4250375905191773</v>
@@ -27430,7 +27430,7 @@
         <v>0.7724407889301514</v>
       </c>
       <c r="D402">
-        <v>-0.8573477198165127</v>
+        <v>0.2781516485880556</v>
       </c>
       <c r="E402">
         <v>0.4134301351342763</v>
@@ -27456,7 +27456,7 @@
         <v>0.7891834553260113</v>
       </c>
       <c r="D403">
-        <v>-0.9807560557986095</v>
+        <v>0.1615515716093698</v>
       </c>
       <c r="E403">
         <v>0.3979305343780357</v>
@@ -27482,7 +27482,7 @@
         <v>0.7825224661209014</v>
       </c>
       <c r="D404">
-        <v>-1.020225797695105</v>
+        <v>0.2462494087395388</v>
       </c>
       <c r="E404">
         <v>0.4041681807311192</v>
@@ -27508,7 +27508,7 @@
         <v>0.7846692371313412</v>
       </c>
       <c r="D405">
-        <v>-1.005552540892874</v>
+        <v>0.2131472408389785</v>
       </c>
       <c r="E405">
         <v>0.4021684146826052</v>
@@ -27534,7 +27534,7 @@
         <v>0.7936099991111485</v>
       </c>
       <c r="D406">
-        <v>-0.9536637734926661</v>
+        <v>0.2162080014859034</v>
       </c>
       <c r="E406">
         <v>0.3937306702465285</v>
@@ -27560,7 +27560,7 @@
         <v>0.8068895358718677</v>
       </c>
       <c r="D407">
-        <v>-0.823455272306461</v>
+        <v>0.2433982256937461</v>
       </c>
       <c r="E407">
         <v>0.3808533881324997</v>
@@ -27586,7 +27586,7 @@
         <v>0.7947669042089353</v>
       </c>
       <c r="D408">
-        <v>-0.9912995726005309</v>
+        <v>0.2636592458249571</v>
       </c>
       <c r="E408">
         <v>0.3926256042449026</v>
@@ -27612,7 +27612,7 @@
         <v>0.8021687986523774</v>
       </c>
       <c r="D409">
-        <v>-1.03132811032175</v>
+        <v>0.2421156639165445</v>
       </c>
       <c r="E409">
         <v>0.3854804114130807</v>
@@ -27638,7 +27638,7 @@
         <v>0.8076818314100453</v>
       </c>
       <c r="D410">
-        <v>-1.051530237749185</v>
+        <v>0.2437594058474933</v>
       </c>
       <c r="E410">
         <v>0.3800713005792451</v>
@@ -27664,7 +27664,7 @@
         <v>0.8035567892317569</v>
       </c>
       <c r="D411">
-        <v>-1.087464206420642</v>
+        <v>0.259909889600163</v>
       </c>
       <c r="E411">
         <v>0.38412575918182</v>
@@ -27690,7 +27690,7 @@
         <v>0.8023809754842871</v>
       </c>
       <c r="D412">
-        <v>-1.146258488272715</v>
+        <v>0.2515192500919625</v>
       </c>
       <c r="E412">
         <v>0.3852736392914152</v>
@@ -27716,7 +27716,7 @@
         <v>0.8069331983724761</v>
       </c>
       <c r="D413">
-        <v>-1.047942569229413</v>
+        <v>0.247606782601288</v>
       </c>
       <c r="E413">
         <v>0.3808103300014137</v>
@@ -27742,7 +27742,7 @@
         <v>0.8065868905797213</v>
       </c>
       <c r="D414">
-        <v>-1.025724782954146</v>
+        <v>0.2585468276074825</v>
       </c>
       <c r="E414">
         <v>0.3811517105464941</v>
@@ -27768,7 +27768,7 @@
         <v>0.8047450195455733</v>
       </c>
       <c r="D415">
-        <v>-1.038125163327419</v>
+        <v>0.2493315691244169</v>
       </c>
       <c r="E415">
         <v>0.3829622621862764</v>
@@ -27794,7 +27794,7 @@
         <v>0.8069806201046668</v>
       </c>
       <c r="D416">
-        <v>-1.094924837951968</v>
+        <v>0.2609874995279977</v>
       </c>
       <c r="E416">
         <v>0.3807635591573902</v>
@@ -27820,7 +27820,7 @@
         <v>0.8101231474101656</v>
       </c>
       <c r="D417">
-        <v>-0.9850622230087573</v>
+        <v>0.2777412306482028</v>
       </c>
       <c r="E417">
         <v>0.3776512545758078</v>
@@ -27846,7 +27846,7 @@
         <v>0.8125539340401071</v>
       </c>
       <c r="D418">
-        <v>-1.031579097079632</v>
+        <v>0.2648723703036959</v>
       </c>
       <c r="E418">
         <v>0.3752261391097914</v>
@@ -27872,7 +27872,7 @@
         <v>0.8123317034324147</v>
       </c>
       <c r="D419">
-        <v>-0.9755652678538178</v>
+        <v>0.2639284321761738</v>
       </c>
       <c r="E419">
         <v>0.3754485018249217</v>
@@ -27931,7 +27931,7 @@
         <v>0.4717974882238882</v>
       </c>
       <c r="D2">
-        <v>-0.3696299439529431</v>
+        <v>0.467040059106873</v>
       </c>
       <c r="E2">
         <v>0.6298761303329841</v>
@@ -27954,7 +27954,7 @@
         <v>0.4717974882238882</v>
       </c>
       <c r="D3">
-        <v>-0.3696299439529431</v>
+        <v>0.467040059106873</v>
       </c>
       <c r="E3">
         <v>0.6298761303329841</v>
@@ -27977,7 +27977,7 @@
         <v>0.6218657169121776</v>
       </c>
       <c r="D4">
-        <v>0.1987921262834854</v>
+        <v>0.5719272548288716</v>
       </c>
       <c r="E4">
         <v>0.5329395447947868</v>
@@ -28000,7 +28000,7 @@
         <v>0.6218657169121776</v>
       </c>
       <c r="D5">
-        <v>0.1987921262834854</v>
+        <v>0.5719272548288716</v>
       </c>
       <c r="E5">
         <v>0.5329395447947868</v>
@@ -28023,7 +28023,7 @@
         <v>0.5919392374831998</v>
       </c>
       <c r="D6">
-        <v>0.3554574688700725</v>
+        <v>0.6179800108989008</v>
       </c>
       <c r="E6">
         <v>0.5536270967016985</v>
@@ -28046,7 +28046,7 @@
         <v>0.6022278642786942</v>
       </c>
       <c r="D7">
-        <v>0.2456337300236827</v>
+        <v>0.6044003011498438</v>
       </c>
       <c r="E7">
         <v>0.5466031098611412</v>
@@ -28069,7 +28069,7 @@
         <v>0.5951561342473455</v>
       </c>
       <c r="D8">
-        <v>0.07231869628331056</v>
+        <v>0.5031384272097604</v>
       </c>
       <c r="E8">
         <v>0.5514405533228661</v>
@@ -28092,7 +28092,7 @@
         <v>0.6161759331468636</v>
       </c>
       <c r="D9">
-        <v>-0.9382658309163656</v>
+        <v>0.2513376295764264</v>
       </c>
       <c r="E9">
         <v>0.5369341429254146</v>
@@ -28115,7 +28115,7 @@
         <v>0.6161759331468636</v>
       </c>
       <c r="D10">
-        <v>-0.9382658309163656</v>
+        <v>0.2513376295764264</v>
       </c>
       <c r="E10">
         <v>0.5369341429254146</v>
@@ -28138,7 +28138,7 @@
         <v>0.6260141099273062</v>
       </c>
       <c r="D11">
-        <v>-0.9614911261378498</v>
+        <v>0.2405701905676925</v>
       </c>
       <c r="E11">
         <v>0.5300081261280495</v>
@@ -28161,7 +28161,7 @@
         <v>0.6212175181017151</v>
       </c>
       <c r="D12">
-        <v>-0.9558160852275808</v>
+        <v>0.2400344180694512</v>
       </c>
       <c r="E12">
         <v>0.5333961324119582</v>
@@ -28184,7 +28184,7 @@
         <v>0.6212175181017151</v>
       </c>
       <c r="D13">
-        <v>-0.9558160852275808</v>
+        <v>0.2400344180694512</v>
       </c>
       <c r="E13">
         <v>0.5333961324119582</v>
@@ -28207,7 +28207,7 @@
         <v>0.6067619050310723</v>
       </c>
       <c r="D14">
-        <v>-0.9970124739175048</v>
+        <v>0.2104149603321841</v>
       </c>
       <c r="E14">
         <v>0.543478929669584</v>
@@ -28230,7 +28230,7 @@
         <v>0.5731907825071652</v>
       </c>
       <c r="D15">
-        <v>0.04931576345621624</v>
+        <v>0.5676090509105256</v>
       </c>
       <c r="E15">
         <v>0.566202541806474</v>
@@ -28253,7 +28253,7 @@
         <v>0.5472793639513438</v>
       </c>
       <c r="D16">
-        <v>0.326240119428481</v>
+        <v>0.6071276309194983</v>
       </c>
       <c r="E16">
         <v>0.5831362842911822</v>
@@ -28276,7 +28276,7 @@
         <v>0.5316330093461649</v>
       </c>
       <c r="D17">
-        <v>0.3365354747609194</v>
+        <v>0.6432827131821661</v>
       </c>
       <c r="E17">
         <v>0.5931274987877426</v>
@@ -28299,7 +28299,7 @@
         <v>0.5303397396133361</v>
       </c>
       <c r="D18">
-        <v>0.3625298800361048</v>
+        <v>0.6586264226909913</v>
       </c>
       <c r="E18">
         <v>0.5939458154815481</v>
@@ -28322,7 +28322,7 @@
         <v>0.5303397396133361</v>
       </c>
       <c r="D19">
-        <v>0.3625298800361048</v>
+        <v>0.6586264226909913</v>
       </c>
       <c r="E19">
         <v>0.5939458154815481</v>
@@ -28345,7 +28345,7 @@
         <v>0.5236846783486394</v>
       </c>
       <c r="D20">
-        <v>0.2306803924557287</v>
+        <v>0.5749921951289807</v>
       </c>
       <c r="E20">
         <v>0.5981391035982258</v>
@@ -28368,7 +28368,7 @@
         <v>0.5236846783486394</v>
       </c>
       <c r="D21">
-        <v>0.2306803924557287</v>
+        <v>0.5749921951289807</v>
       </c>
       <c r="E21">
         <v>0.5981391035982258</v>
@@ -28391,7 +28391,7 @@
         <v>0.4748345052587968</v>
       </c>
       <c r="D22">
-        <v>0.2944203590097473</v>
+        <v>0.6011161415243789</v>
       </c>
       <c r="E22">
         <v>0.6280627139321728</v>
@@ -28414,7 +28414,7 @@
         <v>0.4748345052587968</v>
       </c>
       <c r="D23">
-        <v>0.2944203590097473</v>
+        <v>0.6011161415243789</v>
       </c>
       <c r="E23">
         <v>0.6280627139321728</v>
@@ -28470,7 +28470,7 @@
         <v>0.6560232995450492</v>
       </c>
       <c r="D2">
-        <v>-0.01061084275499335</v>
+        <v>0.5722586369239862</v>
       </c>
       <c r="E2">
         <v>0.5082992077655413</v>
@@ -28493,7 +28493,7 @@
         <v>0.661062335584513</v>
       </c>
       <c r="D3">
-        <v>0.1023670365228689</v>
+        <v>0.6017019742889254</v>
       </c>
       <c r="E3">
         <v>0.5045623444051801</v>
@@ -28516,7 +28516,7 @@
         <v>0.6492791922311145</v>
       </c>
       <c r="D4">
-        <v>-0.0670322380095838</v>
+        <v>0.5852952344377045</v>
       </c>
       <c r="E4">
         <v>0.5132579512173971</v>
@@ -28539,7 +28539,7 @@
         <v>0.6540030828895079</v>
       </c>
       <c r="D5">
-        <v>-0.1310649472912704</v>
+        <v>0.5986265055307526</v>
       </c>
       <c r="E5">
         <v>0.5097896738291765</v>
@@ -28562,7 +28562,7 @@
         <v>0.6086040457274741</v>
       </c>
       <c r="D6">
-        <v>-0.3782121921221258</v>
+        <v>0.5698228355124584</v>
       </c>
       <c r="E6">
         <v>0.5422044601804132</v>
@@ -28585,7 +28585,7 @@
         <v>0.613239154622386</v>
       </c>
       <c r="D7">
-        <v>-0.2610386625243479</v>
+        <v>0.5879562299418125</v>
       </c>
       <c r="E7">
         <v>0.5389843685409761</v>
@@ -28608,7 +28608,7 @@
         <v>0.5851598113111849</v>
       </c>
       <c r="D8">
-        <v>-0.4030895380761199</v>
+        <v>0.5694646216132107</v>
       </c>
       <c r="E8">
         <v>0.5582070680376511</v>
@@ -28631,7 +28631,7 @@
         <v>0.5706703159747386</v>
       </c>
       <c r="D9">
-        <v>-0.4152197210356092</v>
+        <v>0.5458996717665017</v>
       </c>
       <c r="E9">
         <v>0.5678718987654892</v>
@@ -28654,7 +28654,7 @@
         <v>0.5689123568186313</v>
       </c>
       <c r="D10">
-        <v>-0.4106475741013234</v>
+        <v>0.5454105572848971</v>
       </c>
       <c r="E10">
         <v>0.5690333322833612</v>
@@ -28677,7 +28677,7 @@
         <v>0.5425088050668371</v>
       </c>
       <c r="D11">
-        <v>-0.8796437742526226</v>
+        <v>0.5146659048950378</v>
       </c>
       <c r="E11">
         <v>0.5862006418295505</v>
@@ -28700,7 +28700,7 @@
         <v>0.5421862302151302</v>
       </c>
       <c r="D12">
-        <v>-1.036437359631046</v>
+        <v>0.4968976246543607</v>
       </c>
       <c r="E12">
         <v>0.5864072690463178</v>
@@ -28723,7 +28723,7 @@
         <v>0.5421862302151302</v>
       </c>
       <c r="D13">
-        <v>-1.036437359631046</v>
+        <v>0.4968976246543607</v>
       </c>
       <c r="E13">
         <v>0.5864072690463178</v>
@@ -28746,7 +28746,7 @@
         <v>0.515359807498282</v>
       </c>
       <c r="D14">
-        <v>-0.676328956542964</v>
+        <v>0.5466715909046282</v>
       </c>
       <c r="E14">
         <v>0.6033434939045181</v>
@@ -28769,7 +28769,7 @@
         <v>0.4992997780668456</v>
       </c>
       <c r="D15">
-        <v>-0.6904243237361358</v>
+        <v>0.5297127076630016</v>
       </c>
       <c r="E15">
         <v>0.6132588321426211</v>
@@ -28792,7 +28792,7 @@
         <v>0.4507965848992238</v>
       </c>
       <c r="D16">
-        <v>-0.8432535942025963</v>
+        <v>0.5321636480617038</v>
       </c>
       <c r="E16">
         <v>0.6422757637590529</v>
@@ -28815,7 +28815,7 @@
         <v>0.4513359118039028</v>
       </c>
       <c r="D17">
-        <v>-0.7093072587398874</v>
+        <v>0.542205054499471</v>
       </c>
       <c r="E17">
         <v>0.64196032354721</v>
@@ -28838,7 +28838,7 @@
         <v>0.4503661884352225</v>
       </c>
       <c r="D18">
-        <v>-0.7640099841659531</v>
+        <v>0.537072682454653</v>
       </c>
       <c r="E18">
         <v>0.6425273818962154</v>
@@ -28861,7 +28861,7 @@
         <v>0.4503661884352225</v>
       </c>
       <c r="D19">
-        <v>-0.7640099841659531</v>
+        <v>0.537072682454653</v>
       </c>
       <c r="E19">
         <v>0.6425273818962154</v>
@@ -28884,7 +28884,7 @@
         <v>0.4312932623427641</v>
       </c>
       <c r="D20">
-        <v>-0.5593437619933601</v>
+        <v>0.5311329272567848</v>
       </c>
       <c r="E20">
         <v>0.6535805303596385</v>
@@ -28907,7 +28907,7 @@
         <v>0.4312932623427641</v>
       </c>
       <c r="D21">
-        <v>-0.5593437619933601</v>
+        <v>0.5311329272567848</v>
       </c>
       <c r="E21">
         <v>0.6535805303596385</v>
@@ -28930,7 +28930,7 @@
         <v>0.4301574710183291</v>
       </c>
       <c r="D22">
-        <v>-0.5610912285554914</v>
+        <v>0.53135849419002</v>
       </c>
       <c r="E22">
         <v>0.6542328532358399</v>
@@ -28953,7 +28953,7 @@
         <v>0.4301574710183291</v>
       </c>
       <c r="D23">
-        <v>-0.5610912285554914</v>
+        <v>0.53135849419002</v>
       </c>
       <c r="E23">
         <v>0.6542328532358399</v>
